--- a/news_data/2016_06.xlsx
+++ b/news_data/2016_06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,24 +22,99 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>삼성전자, 제주도 최대 규모 스마트 복합관광단지 조성</t>
+  </si>
+  <si>
+    <t>중국 방송이 폭로한 '제주도 성매매 카지노 관광'이 사실로 드러나다</t>
+  </si>
+  <si>
+    <t>제주도 관광객 북적 무신고 영업 기승</t>
+  </si>
+  <si>
+    <t>제주도, 관광산업 조사 더욱 세밀하게</t>
+  </si>
+  <si>
+    <t>중국인이 사랑하는 명품관광도시...제주도 '1위'</t>
+  </si>
+  <si>
+    <t>제주도관광협회-발리여행업협회, ‘질적 성장’ 맞손</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 30일 '제12차 제주관광포럼' 개최</t>
+  </si>
+  <si>
+    <t>제주도 생태관광 전문인력 양성 교육과정 진행</t>
+  </si>
+  <si>
+    <t>자연경관·먹거리 풍부한 제주도 관광 필수코스 '성산일출봉'</t>
+  </si>
+  <si>
+    <t>제주도, 청뚜 한국문화관광 대전 참석</t>
+  </si>
+  <si>
+    <t>제주도, 관광객 환경부담금제 실시하나?</t>
+  </si>
+  <si>
+    <t>제주도, 3.0국민체험마당에 스마트 관광시스템 전시</t>
+  </si>
+  <si>
+    <t>제주도·제주관광공사, 일본서 한라산·올레·오름 등 홍보</t>
+  </si>
+  <si>
+    <t>"관광객 유혹"…푸조·시트로엥, 제주도서 '씽씽'</t>
+  </si>
+  <si>
+    <t>김경택 전 제주도 정무부지사 거제해양관광개발공사장 선임</t>
+  </si>
+  <si>
+    <t>제주도-제주관광공사, 2016 홍콩국제관광박람회 참가</t>
+  </si>
+  <si>
+    <t>제주도, 대규모 관광단지 '체크리스트' 검증제도 도입</t>
+  </si>
+  <si>
+    <t>제주도, 한국국제관광전 '최우수 부스운영상' 수상</t>
+  </si>
+  <si>
+    <t>김경택 전 제주도 정무부지사, 거제해양관광개발공사 사장 선임</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 몽골인 다문화가정 고향 방문 지원</t>
+  </si>
+  <si>
+    <t>제주도, 중국 의료관광 여성 코디네이터 양성…첫 시도</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 이달 Best 관광인 고미진 씨 선정</t>
+  </si>
+  <si>
+    <t>5년 후 관광객 2000만 시대···제주도 경제에 훈풍이 분다</t>
+  </si>
+  <si>
+    <t>제주도 관광지 우도 힐링 여행 ‘로맨틱, 성공적’</t>
+  </si>
+  <si>
+    <t>제주도, 2020년 크루즈관광객 230만명 유치</t>
+  </si>
+  <si>
     <t>제주도관광협회, 인도네시아 발리여행업협회와 우호교류 협약</t>
   </si>
   <si>
     <t>제주도, 크루즈관광객 유치 집중 투자</t>
   </si>
   <si>
+    <t>제주도관광협회 아마추어 골프대회 개최</t>
+  </si>
+  <si>
+    <t>제주도, 곶자왈 테마 생태문화페스티벌 준비...생태관광 활성화</t>
+  </si>
+  <si>
+    <t>제주도 글로벌택시회, 보훈가족 관광 제공</t>
+  </si>
+  <si>
     <t>제주도 2020년 크루즈관광 230만명 목표로</t>
   </si>
   <si>
-    <t>제주도관광협회 아마추어 골프대회 개최</t>
-  </si>
-  <si>
-    <t>제주도, 곶자왈 테마 생태문화페스티벌 준비...생태관광 활성화</t>
-  </si>
-  <si>
-    <t>제주도 글로벌택시회, 보훈가족 관광 제공</t>
-  </si>
-  <si>
     <t>[제주도 관광 팁] 올레 1코스 지나 만나는 성산일출봉 맛집을 찾다</t>
   </si>
   <si>
@@ -49,31 +124,91 @@
     <t>[퇴근뉴스] '반 총장, 미국 복귀', '해외 관광객 유치 빨간불', '제주도 인구...</t>
   </si>
   <si>
-    <t>제주도관광협회, 인도네시아 발리여행업협회와 우호교류 협약 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 인도네시아 발리여행업협회와 우호교류 협약 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회, 인도네시아 발리여행업협회와 우호교류 협약 편집팀 headlinejeju@headlinejeju.co.kr 승인 2016.06.21 19:16 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회(회장 김영진)는 22읿터 25일까지 인도네시아 발리를 방문해 신흥 시장 확대 및 동남아 관광객 유치 활성화를 통한 제주관광 시장 다변화를 도모하기 위해 인도네시아 발리여행업협회와의 신규 우호교류 협약 체결 및 협력 비즈니스 마케팅을 전개한다.방문기간 내에 개최되고 있는 발리국제관광전(BBTF 2016)에 참가해 한국관광공사 자카르타지사와 공동으로 제주관광상품 홍보활동도 전개할 예정이다. &lt;헤드라인제주&gt;&lt;헤드라인제주 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 편집팀 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도, 크루즈관광객 유치 집중 투자-국민일보 시사 시사 &gt; 전체기사 제주도, 크루즈관광객 유치 집중 투자 5년간 410억 투입 840만명 목표 입력 : 2016-06-02 19:01 트위터로 퍼가기 페이스북으로 퍼가기 구글로 퍼가기 인쇄하기 글자 크게 글자 작게 제주도가 향후 5년간 크루즈관광객 840만명을 유치하기 위해 발 벗고 나섰다. 제주도는 2020년까지 총 410억원을 투입, 크루즈산업 기반구축·기항지 수용태세 강화·마케팅 활성화 등을 중점 추진하는 ‘제주도 크루즈산업 5개년 육성 종합계획’을 확정했다고 2일 밝혔다. 2020년에는 크루즈 선박이 제주에 1000회 입항해 연간 1조2000억원의 지역경제 파급효과를 달성한다는 목표도 정했다. 지난해 제주를 찾은 크루즈관광객은 62만명이다. 도는 올 연말까지 100만명을 유치하고 2017년 140만명, 2018년 170만명, 2019년 200만명, 2020년 230만명이 제주를 찾게 한다는 방침이다. 도는 2020년까지 크루즈선석을 5개로 늘려 대형크루즈 5척이 동시 입항할 수 있는 체제를 갖추기로 했다. 현재 갖춰진 2개의 선석에다 내년 강정 민군복합항에 선석 2개를 확보하고, 2020년 제주외항에 1개를 추가한다는 구상이다. 도는 또 크루즈 인바운드(외국에서 내국으로 입국하는 것) 관광시장 형성을 위해 ‘크루즈 전문 여행사’를 육성하는 한편 중국 상해·텐진, 일본 후쿠오카 등 아시아 크루즈 기항지 도시 간 공동 마케팅 및 협력체계도 강화한다.제주=주미령 기자 lalijoo@kmib.co.kr GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 수집, 재배포금지 당신이 좋아할 만한 기사 직원 폭행에 내연녀 심부름까지…회장님의 ‘갑질’ 의혹 “도와야겠어”…생방중 이재민에 뛰어간 카메라맨 [영상] 尹, 감사원 文조사 논란에 “대통령 언급 부적절” “날 해치려고?” 칼부림… 마약 하면 누구든 ‘괴물’ 돌변 조종수 김건희, 칼 든 검사들…고교생이 그린 ‘윤석열차’ “서울-평양 올림픽 제안서 보니…北 인프라 구축 22조” 한밤중 횡단보도서 택시에 치인 여중생…보름만에 숨져 김건희 논문 증인들 줄줄이 국감 불출석…野 “국민무시” 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 실시간 뉴스 日 22세 거포 무라카미, 56호 홈런으로 신기록 썼다 주호영 “文, 왜 과민반응인지 모르겠다…조사 응해야” 경기도 ‘면접수당’ 문화 확산…지급 인증 기업 모집 임윤찬의 베토벤 ‘황제’ 실황 앨범 11월 발매 이재명, 尹 겨냥 “지금 휘두른 칼날, 스스로에게 되돌아갈 것” 광주의 10월 가을축제 향연…세계 최대 거리공연 첫선 [단독] 文정부 ‘최초 5G 상용화’ 180조원 홍보…과기부 “경제효과 측정 불가” 이재명, 감사원 文 조사에 “‘공포정치’ 尹정부에 강력 경고” 尹대통령, 北미사일에 “NSC 개최”…감사원 조사엔 “일반적 원칙” 완도수목원서 숲속음악회…‘가을산책 문화행사’ 풍성 尹 “북한 4000㎞ 미사일 발사…핵도발, 결연한 대응 직면할 것” 하나투어·질병관리청, ‘SAFETY CODE’ 공동 캠페인 대구경찰 텔레그램 가상자산 마약유통·투약 53명 입건 전남에 전국 첫 저메탄 조사료 종합유통센터 설치 尹, 북 탄도미사일 발사에 “무모한 핵도발, 결연한 대응 직면할 것”</t>
-  </si>
-  <si>
-    <t>제주도 2020년 크루즈관광 230만명 목표로 : 전국일반 : 전국 : 뉴스 : 한겨레 본문 바로가기 광고 전체메뉴보기 전체 정치 정치일반 대통령실 국회·정당 행정·자치 국방·북한 외교 정치BAR 사회 사회일반 여성 노동 환경 장애인 인권·복지 의료·건강 미디어 궂긴소식 인사 엔지오 교육 종교 한겨레아카이브 전국 전국일반 제주 호남 영남 충청 강원 수도권 경제 Weconomy 경제일반 금융·증권 산업·재계 자동차 부동산 쇼핑·소비자 IT 직장·취업 중기·스타트업 기업PR 글로벌워치 국제 국제일반 해외토픽 아시아·태평양 미국·중남미 유럽 중국 일본 중동·아프리카 국제기구·회의 국제경제 문화 문화일반 영화·애니 방송·연예 여행·여가 음악·공연·전시 학술 책&amp;생각 제주&amp; 스포츠 스포츠일반 축구·해외리그 야구·MLB 골프 바둑 올림픽 경기일정 경기결과 미래과학 미래 과학 기술 환경 시각 애니멀피플 야생동물 반려동물 농장동물 인간과동물 생태와진화 기후변화&amp; 기후정책 기후행동 기후과학 기후적응 에너지와기후 기후와사회 오피니언 사설 칼럼 왜냐면 포토에세이 옵스큐라 만화 | ESC | 한겨레S | 한겨레 데이터베이스 | 뉴스그래픽 | 연재 | 이슈 | 함께하는교육 | HERI 이슈 | 탐사보도 | 서울&amp; 스페셜 물바람숲 휴심정 미래 창 기찬몸 사진마을 베이비트리 기후이야기 포토 화보 포토스페셜 최신포토뉴스 카드뉴스 한겨레TV 편성표 한겨레TV 소개 알려드립니다 광고·후원 문의 전체 프로그램 뉴스서비스 많이본기사 날짜별한겨레 지난톱기사 디지털초판 RSS서비스 기사제보 기사투고 매거진 한겨레21 씨네21 이코노미인사이트 사업 한겨레휴센터 한겨레테마여행 한겨레패키지여행 전체메뉴닫기 오피니언 연재 한겨레TV 포토 EN 日本 中文 한겨레21 씨네21 이코노미인사이트 로그인 회원가입 구독신청 한겨레 세상을 바꾸는 벗 후원하기 서비스 메뉴 뉴스레터 감사원, 문 전 대통령 조사 통보 윤 대통령 “감사원은 독립 기관…‘서면조사’ 언급 적절치 않아” 감사원 “전에도 전직 대통령 조사”…민주당 “동일선상 볼 수 없어” [포토] 문 전 대통령 서면조사에…민주, 감사원 앞 릴레이 시위 [사설] ‘정치적 의도’ 의심되는 감사원의 ‘문 전 대통령 조사’ 통보 결국 문 전 대통령 겨눈 윤석열 정부…민주당, 전면전 예고빈손 외교·비속어 파문…윤, 감사원 앞세워 정국 돌파 시도감사원 “전 대통령들에게 질문서 보내고 답변 받은 적 있다”“문 전 대통령, 감사원 대단히 무례”…조사 통보에 강한 불쾌감 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 세계경제 빨간불 파운드화, 부자감세 1보 후퇴에 찔끔 상승…“더 큰 유턴 필요” 환율 1400원대 돌파 공포…제2 외환위기는 달러 수급에 달렸다 ‘원화 줄게 달러 다오’ 통화스와프, 미국도 남는 장사다 아이폰도 안 팔린다…한국 반도체·화학·철강 직격탄 세계 경제 도처에 지뢰밭…한국, L자형 침체 빠질까일본 경제석학 “엔저라는 마약, 저금리 정책 중단해야”추경호, 옐런과 1시간 넘게 통화…“필요시 유동성 공급 실행”유로존 9월 물가 1년 전보다 10.0% 상승…사상 첫 두 자리수 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 물가 비상 국민 73% “정부 물가안정 대책 효과 체감 못 해” 조만간 물가상승률 낮아지면서 금리·환율 돌아선다 중기 정책금융기관, 만기연장·상환유예 추가 시행 금리 올리면 뭐하나…중앙은행과 거꾸로 가는 각국 재정정책 채솟값은 ‘껑충’ 급식식품비는 ‘찔끔’…학교 밥상이 위태롭다휘발유 리터당 1700원 아래로…기름값 더 떨어질까에너지 수입 급증에…IMF 이후 첫 ‘6개월 연속’ 무역적자환율 고공행진에…외환당국, 154억달러 순매도 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 윤 정부 외교 참사 박용진 “윤 대통령, 집토끼 단속은커녕 토끼장에 갇힌 모양새” 당·정, “정부조직 개편안 조만간 발표”…‘여가부 폐지’ 포함 전망 윤 대통령 “북한 무모한 핵 도발, 결연한 대응 직면할 것” [단독] 공허한 ‘학교돌봄터’ 확대 선언…목표 1500→100곳으로 축소 국힘이 고발장 ‘날리면’ MBC 명예훼손 처벌? 법조계 ‘글쎄…’“대통령 지지층마저 등 돌려”…여론은 “자막 조작”에 싸늘“윤 대통령, 1열 악수도 혼선”…국군의날 실수 추가 언급한 김병주윤 대통령 지지율 31.2%…“매우 잘못” 59.9% [리얼미터] 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 페미사이드 ‘신당역 살인’ 전주환, 불법촬영·스토킹 징역 9년 선고 이별 통보했더니 흉기로 찌른 30대 남성에 징역 3년6개월 스토킹하던 여성 흉기로 마구 찌른 30대 체포…가족까지 협박 [단독] 여성·아동 대상 범죄 112 신고, 대응 수위 높인다 ‘신당역 살인’ 열흘 만에 교통공사 사과…“안전한 지하철 만들 것”신당역의 절규…‘구조적 성차별 없다’ 말하는 정부가 범인이다‘스토킹 살인’ 김병찬, 2심 징역 40년…“우발적 살해 아냐” 5년 가중야간 당직서 빼면 된다고?…“공사는 2인 1조 약속부터 지켜라” 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 미래&amp;과학 노벨생리의학상에 스웨덴 스반테 페보…게놈으로 ‘인류 진화’ 비밀 해독 머스크, 휴머노이드 시제품 공개…“실망스럽다 할 수는 없지만” ‘항산화물질 10배’ 보라색 GMO 토마토, 드시겠습니까? 중국 우주정거장 1차 조립 완료…‘L자’형 구축 아기 울음 달랠 최고의 방법은?…안고 걷기였다재난을 경험한 우리는 다른 사람이 된다, 강제로다음 팬데믹 주인공도 ‘변신의 귀재’ RNA 바이러스다돼지의 심장, 인쇄된 혈관이 장기 부족 해결할 수 있을까? 관련 이슈&amp;연재 곽노필의 미래창김준혁의 의학과 서사전치형 과학의 언저리박상준의 과거창 기후변화 다람쥐 먹을 도토리 가져가지 마세요…불법행위 집중 단속 성능실험 실패에도…신한울1호기 말썽 ‘수소제거기’ 그대로 갈듯 [단독] 녹색채권 자금 4분의1, 화석연료 사업에 쓰였다 Q. 지난해 지구 평균기온은 왜 어디에도 나오지 않는 거죠? 주한미국상공회의소 “한국, 재생에너지 비중 늘려야”태양광에 자리 내주는 염전…5년간 여의도 2.7배 면적 사라져유럽 연구단체 “현대차·기아 탄소 배출량, 알려진 것보다 2배 이상 높을 것”[단독] 스타벅스, ‘발암물질’ 캐리백 피해 53건 보험 보상 진행 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 광고 본문 광고 전국전국일반 제주도 2020년 크루즈관광 230만명 목표로 등록 :2016-06-01 23:07 페이스북 트위터 카카오 링크 스크랩 프린트 글씨 키우기 가 가 가 가 가 5개년 계획…410억 들여 기반구축 제주도가 1일 2020년 크루즈 관광객 230만명 유치를 목표로 하는 크루즈 산업 5개년 육성 종합계획을 발표했다. 도는 이를 위해 2020년까지 410억원의 예산을 들여 기항지 수용태세 강화와 크루즈 관광마케팅 활성화, 크루즈산업 기반 구축 등의 사업을 펼칠 계획이다. 도가 발표한 계획을 보면, 크루즈 항만 인프라 확충을 위해 현재의 제주외항 2개 크루즈선석(13만8천t, 8만5천t급)에서 내년에는 강정 민군복합형관광미항 2개 선석(1선석당 15만t급)을 확보하고, 2019년에는 제주외항에 1개 선석(10만t급)을 추가 확보해 모두 5개 선석을 운영할 계획이다. 도는 크루즈선의 입항 횟수와 제주도 방문 관광객 수가 올해 500회 100만명에서 2018년에는 750회 170만명으로 증가하고, 2020년에는 1천회 230만명으로 증가할 것으로 내다봤다. 도는 지난해 10월부터 크루즈터미널에서 입·출국 수속 업무를 진행하면서 크루즈선 이용객들의 불편을 초래하는 것과 관련해 입국과 출국 수속을 분리하기 위한 건물을 확장하고, 출국 때 여권 사본에 상륙 허가증을 부착하는 등 심사 제도를 개선하기로 했다. 크루즈 관광객 전용 애플리케이션 개발과 개별 관광객에 대한 정보 제공도 강화하고, 승무원들을 위한 시멘스클럽 시설 등도 갖출 계획이다. 이와 함께 내년 말 개항하는 민군복합형관광미항 크루즈선 유치를 위해 크루즈선사와 여행사를 대상으로 한 마케팅 활동을 동아시아 지역으로 확대하고, 아시아 크루즈 기항지들의 공동마케팅을 위해 중국 상하이·톈진, 일본 후쿠오카 등 제주를 포함한 크루즈 기항지 간 협력 체계를 구축할 계획이다. 허호준 기자 항상 시민과 함께하겠습니다. 한겨레 구독신청 하기 진실을 후원해주세요 용기를 가지고 끈질기게 기사를 쓰겠습니다. 여러분의 후원이 우리 사회에 드리운 어둠을 거둡니다. 후원하기 후원제 소개 두근거리는 미래를 후원해주세요 소외 없이 함께 행복한 세상을 위해 노력하겠습니다. 여러분의 후원이 평등하고 자유로운 사회를 만듭니다. 후원하기 후원제 소개 광고 광고 &gt;Please activate JavaScript for write a comment in LiveRe. 광고 전국 많이 보는 기사 1. 전남도립대 교수 극단적 선택…무슨 일 있었나 2. 죽은 청어 19t 바다에 둥둥…마산만 집단폐사 미스터리 3. “러·우크라 고려인 동포들 서로 총부리 겨눌 수 없다” 4. 대전 대학가 새 총장이 이끈다 5. 주민번호 유출 피해자, 4일부터 온라인으로도 변경 신청 가능 한겨레와 친구하기 매일 아침, 매주 목요일 낮 뉴스의 홍수에서 당신을 구할 친절한 뉴스레터를 만나보세요 데일리 H:730 구독 위클리 h_weekly 구독 한겨레 공식 인스타그램 Follow @hanitweet 전체기사RSSRSS페이지 목록 한겨레앱 1/ 2/ 3 서비스 전체보기 전체 정치 정치일반 대통령실 국회·정당 행정·자치 국방·북한 외교 정치BAR 사회 사회일반 여성 노동 환경 장애인 인권·복지 의료·건강 미디어 궂긴소식 인사 엔지오 교육 종교 한겨레아카이브 전국 전국일반 제주 호남 영남 충청 강원 수도권 경제 Weconomy 경제일반 금융·증권 산업·재계 자동차 부동산 쇼핑·소비자 IT 직장·취업 중기·스타트업 기업PR 글로벌워치 국제 국제일반 해외토픽 아시아·태평양 미국·중남미 유럽 중국 일본 중동·아프리카 국제기구·회의 국제경제 문화 문화일반 영화·애니 방송·연예 여행·여가 음악·공연·전시 학술 책&amp;생각 제주&amp; 스포츠 스포츠일반 축구·해외리그 야구·MLB 골프 바둑 올림픽 경기일정 경기결과 미래과학 미래 과학 기술 환경 시각 애니멀피플 야생동물 반려동물 농장동물 인간과동물 생태와진화 기후변화&amp; 기후정책 기후행동 기후과학 기후적응 에너지와기후 기후와사회 오피니언 사설 칼럼 왜냐면 포토에세이 옵스큐라 만화 | ESC | 한겨레S | 한겨레 데이터베이스 | 뉴스그래픽 | 연재 | 이슈 | 함께하는교육 | HERI 이슈 | 탐사보도 | 서울&amp; 스페셜 물바람숲 휴심정 미래 창 기찬몸 사진마을 베이비트리 기후이야기 포토 화보 포토스페셜 최신포토뉴스 카드뉴스 한겨레TV 편성표 한겨레TV 소개 알려드립니다 광고·후원 문의 전체 프로그램 뉴스서비스 많이본기사 날짜별한겨레 지난톱기사 디지털초판 RSS서비스 기사제보 기사투고 매거진 한겨레21 씨네21 이코노미인사이트 사업 한겨레휴센터 한겨레테마여행 한겨레패키지여행 회사소개 구독신청 광고안내 채용 기사제보 투고 고충처리 고객센터 face book twitter 사이트 운영 저작권 회원약관 개인정보취급방침 지적재산보호정책 이메일주소 무단수집거부 사이트맵 한겨레 가족 하니누리 한겨레출판 한겨레경제사회연구원 한겨레교육문화센터 한겨레통일문화재단 사람과디지털연구소 한겨레신문 등록번호:서울,아01705 등록일자:2011-7-19 사업자등록번호:105-81-50594 발행인:김현대 편집인:백기철 청소년보호책임자:백기철 주소:서울특별시 마포구 효창목길 6 고객센터:1566-9595 Copyright ⓒ The Hankyoreh. All rights reserved. 뉴스레터, 올해 가장 잘한 일 구독신청 일주일 그만보기 닫기</t>
-  </si>
-  <si>
-    <t>제주도관광협회 아마추어 골프대회 개최 &lt; 관광 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-04 09:43 (화) 본문영역 이전 기사보기 다음 기사보기 제주도관광협회 아마추어 골프대회 개최 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 관광 제주도관광협회 아마추어 골프대회 개최 기자명 최병근 기자 입력 2016.06.09 14:13 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 도내 3개 골프장서…제주 우승자 김태한·박리영씨 [제주도민일보=최병근 기자] 제주도관광협회배 아마추어 친선골프대회가 열렸다.제주도와 제주특별자치도관광협회(회장 김영진)는 8일부터 9일까지 ‘2016 제주특별자치도관광협회장배 아마추어 친선골프대회’가 도내 3개 골프장에서 동시 개최됐다고 9일 밝혔다.이 대회는 고부가가치 레저스포츠 관광객 유치 활성화를 위해 매년 상.하반기 2회 개최되는 대회다. 제주 스프링데일CC, 라헨느CC, 우리들CC에서 국내‧외 430여명의 아마추어 골퍼들이 참가한 가운데 진행됐다. 도내 골프장업계의 어려운 현실을 고려, 골프장을 순환하며 개최했다.이번 행사는 내외국인 레저스포츠 관광객 유치를 위해 올해 초부터 관광상품으로 개발해 국내 지역 3개 제주관광홍보사무소를 중심으로 현장마케팅 활동을 전개했다. 특히 중국 해남성 골프팀을 유치하는 등 향후 중국인 골프관광 시장 확대의 교두보가 마련됐다는 평을 받고 있다.김영진 제주도관광협회 회장은 ”앞으로도 골프의 메카 제주의 골프장을 활용한 고부가가치 골프상품을 개발하여 골프관광객 유치에 어려움을 겪고 있는 도내 골프장의 매출증대를 유도하는 한편, 국내는 물론 중국 등 해외관광객 유치를 위하여 적극적인 마케팅 활동을 지속해 나갈 것” 이라고 밝혔다.하반기 대회는 11월에 열릴 예정이다. 최병근 기자 whiteworld84@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 ‘미래 모빌리티’ 현실로...추자도-제주 간 드론 긴급 배송 성공 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' [단독]제주TP 5대 원장 공모...다시 재공모 수순 밟을 듯 관절 특효 '쇠무릎'…닭발과 환상 콜라보 제주 첫 전국장애인기능경기대회 폐막 제주, 부동산시장 “빨간불”...미분양·가계대출 전국 최고 ‘미래 모빌리티’ 현실로...추자도-제주 간 드론 긴급 배송 성공 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 ‘2022 제주 반려동물 문화축제’ 개막 제주 첫 전국장애인기능경기대회 폐막 오늘의 주요뉴스 [제주특별자치도의회 소식] 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 [사회일반] 해외입국자 입국 1일차 PCR 의무검사 중단 [제주특별자치도의회 소식] 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ [경제일반] 2030년 수소버스·트램 제주를 누빈다 [제주특별자치도의회 소식] 이선화 ICC 사장 후보자 인사청문 ‘배신·기회주의자’ 난타 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 '탄저균' 설마 제주 함덕에?…시료 채취 결과 '음성' 서귀포서 운행중 자동차 화재 사고 한림항서 급유중 경유 10ℓ 유출 어선 적발 제주서 맹독성 파란고리문어 발견 새벽시간 제주시 자재보관창고 화재 인기뉴스 댓글많은기사 실시간댓글 1 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 2 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 3 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 4 국힘 제주도당 "이선화 임명은 吳도정 인사참사" 5 해외입국자 입국 1일차 PCR 의무검사 중단 6 서귀포서 운행중 자동차 화재 사고 7 오영훈 지사 “사회복지예산 25%까지 확대할 것” 8 일도2동 두문이 골목마을 도시재생, 국비 공모 신청 9 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 10 ‘돈 먹는 하마’ 버스 준공영제...개선방안은? 1 이재명 대표 ‘제주4·3해결·탄소중립’ 국비 지원 약속 2 제주관광공사, 해양쓰레기 팝업전시 필터(filter/必터) 개최 1 10 월이다 약속대로 국토부는, 제2공항 확정하고 착공해라 2 친일프레임을 고집하여 국민의 의식을 그프레임안에 가둬 정권을 유지하려 몸부림치는 공산추종세력 들은 주체사상을 연구하고 고 공부하여 종교화하는 586주사파빨갱이 들 뿐이며, 작금의 민주당 의 노선이다 3 슬프고 또 슬프네요.. 친일파 청산 못했더니 이모양입니다. 그래도 민족정신은 제대로 이어가야지 이게뭡니까? 4 독립유공자 후예분. 오히려 친일을 운운하는 자들이 빨갱이로 보이는 것은 그동안 잘못 배웠기 때문입니다. 우리 헌법 전문의 "3.1운동으로 건립된 대한민국임시정부의 법통을 계승하고~"에 있듯이 우리는 일제에 저항했고 그것이 대한민국의 정신적 초석입니다. 친일 운운이 빨갱이로보인다? 진짜 친일파들이 그동안 물타기와 레드컴플렉스를 잘도 이용해 온 것이죠!! 부끄러워해야합니다. 5 아래 댓글수준하곤 쯧쯧 6 이땅에서 빨갱이들이 모두 없어질때까지 4.3은 민주당 빨갱이들이 5.18,세월호와함께 줄기차게 우려먹을것임 ㅎㅎㅎ 7 개자식아 거기는 비행기 노선이 겹처저서 않된다고 하잔아 18또라이새끼야 정신좀차려라 제주날씨 4일 제주, 출근길 강풍 동반 '가을비' 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도, 곶자왈 테마 생태문화페스티벌 준비...생태관광 활성화 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 [급등주]에이디테크놀로지 주가 상승, 반도체 대전서 ADP 로드맵 선보인다 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 [급등주] 일진홀딩스 상승, 롯데케미칼의 일진머티리얼즈 인수 영향 [급등주] SK네트웍스우 상승, 자사주 취득 공시 영향받나 [급등주]오픈엣지테크놀로지 주가, 상장 후 부진 만회하나 '22% 급등' [급등주] KR모터스 상승, 서울시 대기질 개선 대책 발표 [급등주]라닉스 주가 29% 상한가, 자율주행 관련주 각광 [특징주] 국전약품 주가 하락 '샤페론 수혜 끝났나' 2022-10-04 10:14 (화) [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 삼척시 인근서 산불발생...헬기 3대 투입 진화 대구시 동구 율암동 섬유공장에서 화재발생 인천 가정동 빌라서 불…"40대 남성 중상" 횡성군 비닐하우스서 화재…4명 부상 강원 양양 산불발생... 36분만에 진화완료 군산해경, 해상에 추락한 낚시객 등 구조 해경, 야간 갯바위 고립 낚시객 구조 원주서 택시·승용차 충돌...2명 부상 [속보] 경기 버스 노사 협상 타결 파업 철회...버스 정상운행 춘천 석사동 사무실 화재…인명피해 없어 수원 장안동 주택서 불…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 곶자왈 테마 생태문화페스티벌 준비...생태관광 활성화 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도, 곶자왈 테마 생태문화페스티벌 준비...생태관광 활성화 기자명 고병수 기자 입력 2016.06.09 17:57 수정 2016.06.09 18:37 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수 기자 = 제주특별자치도는 제주시 선흘 곶자왈, 조천읍 지역 곶자왈을 중심으로 하는 곶자왈 생태문화페스티벌을 올 하반기에 개최한다고 9일 밝혔다.특히 올해는 지역주민의 참여 속에 주민소득에 기여하는 곶자왈 소재 특화 프로그램을 마을별 연계 속에 추진한다.프로그램은 사전에 참가 접수를 받아 참여하는 관광객을 대상으로 하는 준비된 프로그램을 운영할 계획이다.또한 마을과 마을을 연결하는 프로그램으로 추진하며 마을별로 사업신청을 받아 심사를 거쳐 채택된 사업에 대해 추진한다. 이에 도는 올해부터 기본계획 수립하고 행사장소 선정 및 사업주체 선정을 위해 준비를 했으며, 지난 2일 환경정책위원회의 심의를 거쳐 선흘 등 조천읍 소재 곶자왈 마을을 중심으로 하여 (사)제주생태교육연구소에서 사업을 추진하는 것으로 확정했다.관계자는 "생태관광 전문가, 마을 주민 등과 유기적인 협조 속에 곶자왈 테마 생태문화페스티벌 프로그램을 운영해 곶자왈의 가치를 홍보하고 지역주민의 소득 창출에 기여할 것"이라고 했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 이효리 이상순 임신 소식 언제 '불타오르지 않아' 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 김종민♥신지 결혼설, 축하 꽃다발 선물 누가? '특종세상' 배우 김태형, 10년 전 아들 잃고 충격...나이·근황은? 김종민♥신지 결혼설 해명 후 물오른 미모 '소멸될 듯' 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 주요기사 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 군산시, 내년 복지대상자 상하수도 요금 감면 확대 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 요양병원 접촉면회 4일부터 가능 '입소자 외박·외출도' 최신뉴스 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 군산시, 내년 복지대상자 상하수도 요금 감면 확대 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 포토뉴스 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 인기뉴스 1 [단독] 세종시, 태권도사범이 여중생 상대 '좋아한다'며 수차례 성관계 2 안철수, 당 대표가 돼야 하는 이유? 3 유럽 증시, 개장 직후 폭락···FTSE 100 1.6%· DAX 1.3% '뚝' 4 사천시 '항공우주청' 조기 설립 광폭행보 5 안양 호계동 아파트 공사장서 불…인명피해 없어 6 [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 7 러시아 우크라이나 전쟁···美 "유럽 주둔 미군 우발 상황에 대비" 8 우크라이나 러시아 전쟁, 파괴된 탱크 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도 글로벌택시회, 보훈가족 관광 제공 &lt; 복지 &lt; 사회 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-04 09:43 (화) 본문영역 이전 기사보기 다음 기사보기 제주도 글로벌택시회, 보훈가족 관광 제공 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사회 복지 제주도 글로벌택시회, 보훈가족 관광 제공 기자명 이기봉 기자 입력 2016.06.03 10:31 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 [제주도민일보=이기봉 기자]  제주도 글로벌택시회(회장 부용석)는 호국보훈의 달을 맞아 지난 2일 보훈가족 40여명을 초청해 서커스 월드 공연 및 유람선 승선 체험 등 관광과 오찬을 제공했다.부용석 회장은 “이번 행사는 국가를 위해 헌신한 보훈가족을 위로하고 숭고한 나라사랑 정신을 기리기 위해 마련했다”며 “앞으로 글로벌택시회의 지속적인 재능기부를 통해 봉사와 나눔행사를 지속해 나가겠다”고 말했다. 이기봉 기자 daeun4680@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 ‘미래 모빌리티’ 현실로...추자도-제주 간 드론 긴급 배송 성공 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' [단독]제주TP 5대 원장 공모...다시 재공모 수순 밟을 듯 관절 특효 '쇠무릎'…닭발과 환상 콜라보 제주 첫 전국장애인기능경기대회 폐막 제주, 부동산시장 “빨간불”...미분양·가계대출 전국 최고 ‘미래 모빌리티’ 현실로...추자도-제주 간 드론 긴급 배송 성공 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 ‘2022 제주 반려동물 문화축제’ 개막 제주 첫 전국장애인기능경기대회 폐막 오늘의 주요뉴스 [제주특별자치도의회 소식] 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 [사회일반] 해외입국자 입국 1일차 PCR 의무검사 중단 [제주특별자치도의회 소식] 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ [경제일반] 2030년 수소버스·트램 제주를 누빈다 [제주특별자치도의회 소식] 이선화 ICC 사장 후보자 인사청문 ‘배신·기회주의자’ 난타 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 '탄저균' 설마 제주 함덕에?…시료 채취 결과 '음성' 서귀포서 운행중 자동차 화재 사고 한림항서 급유중 경유 10ℓ 유출 어선 적발 제주서 맹독성 파란고리문어 발견 새벽시간 제주시 자재보관창고 화재 인기뉴스 댓글많은기사 실시간댓글 1 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 2 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 3 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 4 국힘 제주도당 "이선화 임명은 吳도정 인사참사" 5 해외입국자 입국 1일차 PCR 의무검사 중단 6 서귀포서 운행중 자동차 화재 사고 7 오영훈 지사 “사회복지예산 25%까지 확대할 것” 8 일도2동 두문이 골목마을 도시재생, 국비 공모 신청 9 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 10 ‘돈 먹는 하마’ 버스 준공영제...개선방안은? 1 이재명 대표 ‘제주4·3해결·탄소중립’ 국비 지원 약속 2 제주관광공사, 해양쓰레기 팝업전시 필터(filter/必터) 개최 1 10 월이다 약속대로 국토부는, 제2공항 확정하고 착공해라 2 친일프레임을 고집하여 국민의 의식을 그프레임안에 가둬 정권을 유지하려 몸부림치는 공산추종세력 들은 주체사상을 연구하고 고 공부하여 종교화하는 586주사파빨갱이 들 뿐이며, 작금의 민주당 의 노선이다 3 슬프고 또 슬프네요.. 친일파 청산 못했더니 이모양입니다. 그래도 민족정신은 제대로 이어가야지 이게뭡니까? 4 독립유공자 후예분. 오히려 친일을 운운하는 자들이 빨갱이로 보이는 것은 그동안 잘못 배웠기 때문입니다. 우리 헌법 전문의 "3.1운동으로 건립된 대한민국임시정부의 법통을 계승하고~"에 있듯이 우리는 일제에 저항했고 그것이 대한민국의 정신적 초석입니다. 친일 운운이 빨갱이로보인다? 진짜 친일파들이 그동안 물타기와 레드컴플렉스를 잘도 이용해 온 것이죠!! 부끄러워해야합니다. 5 아래 댓글수준하곤 쯧쯧 6 이땅에서 빨갱이들이 모두 없어질때까지 4.3은 민주당 빨갱이들이 5.18,세월호와함께 줄기차게 우려먹을것임 ㅎㅎㅎ 7 개자식아 거기는 비행기 노선이 겹처저서 않된다고 하잔아 18또라이새끼야 정신좀차려라 제주날씨 4일 제주, 출근길 강풍 동반 '가을비' 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>[제주도 관광 팁] 올레 1코스 지나 만나는 성산일출봉 맛집을 찾다 - 뉴스인사이드 × 전체기사 연예 전체 인터뷰 기획 방송 가요 영화 스포츠 경제 전체 가상화폐 환율인사이드 주식종합 정치 사회 생활 전체 잡인사이드 미세먼지 날씨뉴스 공연정보 물가정보 유가정보 게임 English 中國語 포토 영상 2022-10-04 10:15 (화) 모바일웹 검색버튼 기사검색 검색 전체 연예 전체 방송 가요 영화 기획 스포츠 경제 정치 사회 라이프 인터뷰 GOLF GOLMATE 페이스북 네이버 포스트 네이버 블로그 카카오스토리 카카오채널 유튜브 이전 다음 [제주도 관광 팁] 올레 1코스 지나 만나는 성산일출봉 맛집을 찾다 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 생활 [제주도 관광 팁] 올레 1코스 지나 만나는 성산일출봉 맛집을 찾다 승인 2016.06.01 15:56 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 해마다 제주도를 방문하는 외국인 여행객이 늘고 있다. 이에 중국인 관광객을 비롯한 방문객이 지속적인 증가세를 보이며 우리나라를 대표하는 관광명소이자 매력적인 여행지로 자리 잡았다.특히 먹방과 쿡방 등이 트렌드로 부상하며 제주도의 식도락에도 관심이 커졌다. 이 때문에 최근 한라봉을 비롯한 각종 과일뿐만 아니라 해산물과 토속 음식들을 찾는 관광객들이 많아졌다.제주도관광협회에 따르면 올해 제주도를 찾은 관광객 수는 벌써 약 500만명을 넘어섰으며 특히 내국인 관광객의 경우 전년 동기 대비 14.8%나 증가한 것으로 나타났다.제주의 한라산을 비롯한 성산일출봉, 섭지코지, 천지연폭포 등은 외국인들에게도 잘 알려지며 자연의 멋을 자랑하는 우리나라 대표 휴양지로 꼽힌다.그 중에서도 성산일출봉은 제주도 단일 관광지로는 최대 규모의 방문객이 다녀가는 명소로 약 7000년전 바닷가에 폭발해 만들어진 화산체로 에메랄드빛 바다와 자연의 푸름을 고스란히 간직한 초원까지 만끽할 수 있는 공간이다.특히 제주도의 다양한 관광명소 중 천연기념물 제 420호로 지정된 성산일출봉은 오름이 많은 제주도에서 해 뜨는 오름으로 불리우며 제주도의 아름다운 절경을 확인 할 수 있으며, 또한 빼놓을 수 없는 특산물 음식들이 다양해 관광객의 입맛까지 사로잡는다. 이 같은 성산일출봉 인근에서도 맛집을 찾을 수 있다. 여행객들에게 선호되는 식당으로는 ‘어멍이해녀식당’을 꼽을 수 있다.올레 1코스이기도 한 종달리 해안도로를 지나오다 보면 해녀들이 직접 잡아 올린 해산물의 풍미를 느낄 수 있는 성산일출봉맛집 어멍이해녀식당을 찾을 수 있다.어멍이해녀식당은 바로 앞에 우도가 보이고 성산일출봉도 눈으로 직접 볼 수 있는 풍경까지 더해져 제주 구좌읍 맛집으로도 소문난 식당이다. 또한 식당안에 미니어장을 따로 보유하고 있어 신선한 해산물을 맛볼 수 있다. 맛집탐방을 위해 제주도를 찾는 관광객이라면 제주도의 경치와 분위기를 만끽할 수 있는 성산일출봉의 맛집을 경험하며 제주도의 맛을 느껴보는 것은 어떨까? 김은혜 기자 모바일 보기 신문사소개 기사제보 광고문의 RSS 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 서울특별시 종로구 새문안로5길 13, 변호사회관빌딩 501-1호 대표전화 : 070-4639-1163 뉴스인사이드는 인터넷신문 위원회 윤리강령을 준수합니다. 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받으며, 무단전재, 복사, 배포 등을 금지 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 종로구 새문안로5길 13, 변호사회관빌딩 501-1호 대표전화 : 070-4639-1163 팩스 : 02-6455-7740 청소년보호책임자 : 김윤현 제호 : 뉴스인사이드 등록번호 : 서울 아 00380 등록일 : 2007-06-04 발행일 : 2007-02-01 발행인 : 천태영 편집인 : 천태영 편집국장 : 홍준성 부사장 : 조병권 뉴스인사이드는 인터넷신문 위원회 윤리강령을 준수합니다. 뉴스인사이드의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받으며, 무단전재, 복사, 배포 등을 금지합니다. Copyright © 2022 뉴스인사이드. All rights reserved. mail to news@newsinside.kr 위로</t>
-  </si>
-  <si>
-    <t>바다경관 바라보며 식사 즐기는 횟집, 제주도 관광객들 사로잡아 - 이투데이 속보창 구독신청 RSS 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 속보창 구독신청 RSS 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 이투데이 문화·라이프 여행 바다경관 바라보며 식사 즐기는 횟집, 제주도 관광객들 사로잡아 입력 2016-06-09 15:56 이슬기 기자																								sggggg@etoday.co.kr 북마크 되었습니다.마이페이지에서 확인하세요. 가장작게 작게 기본 크게 가장크게 천혜의 자연경관과 온화한 기후로 이국적 정취를 자랑하는 서귀포 중문관광단지는 사계절 내내 인기가 좋은 여행지다. 제주공항과 50분 거리인 이곳은 서귀포시 중문동에 위치한 종합관광단지로, 천지혜 폭포를 비롯해 여미지식물원, 해양수족관, 퍼시픽랜드 등 대표적인 관광지가 집약돼 있으며, 높이 50~60m의 해안절벽과 고운 모래를 자랑하는 중문해수욕장이 자리하고 있다.이 밖에도 해안 골프코스, 승마장 등 다양한 스포츠시설의 조성으로 제주도를 찾는 상당수의 관광객이 이곳을 방문하고 있으며, 중문관광단지를 중심으로 관광객을 수용할 호텔 및 콘도, 음식점이 구축되고 있다.그중 제주도횟집 ‘큰갯물’은 광활한 바다경관을 바라보며 식사를 즐길 수 있는 곳으로 사장이 낚시로 직접 잡은 활어회를 제공하고 있다. 전복요리, 고등어, 소라, 멍게, 초밥 등 싱싱한 회와 함께 차려지는 푸짐한 상차림은 이곳을 방문하는 여행객의 관광 전후 허기를 달래주고 있으며, 제주도 횟집 중에서도 맛과 전망이 뛰어난 곳이라는 평을 얻고 있다. 좋아요0 화나요0 슬퍼요0 추가취재 원해요0 주요 뉴스 "집ㆍ자녀 원했을 뿐인데...실직 후 투잡 뛰며 '나'마저 잃었다" 인천에 사는 박준수, 유영미 씨는 동갑내기 부부다. 11년 전 친구 소개로 만나 반년간의 연애 끝에 결혼에 골인했다. 당시 준수 씨는 완성차를 만드는 대기업에, 영미 씨는 전자제품을 만드는 중소기업에 다녔다. 결혼 1년여 만에 아이를 낳았고, 영미 씨는 회사를 나왔다. 외벌이에 빠듯한 살림이었지만 살만했다. 아이에게 드는 돈도 별로 없 돈 벌 곳도, 쓸 곳도 없다...'유령도시' 돼가는 非수도권 서울만? 비수도권 출산율도 0.7~0.8명대 가임기 여성 유출로 출생아 감소 더 가팔라져 인구가 줄어드는 속도는 비수도권에서 상대적으로 빠르다. 추세적인 저출산에 더해 가임기 여성을 포함한 청년층(15~29세) 인구가 유출돼서다. 인구 유출은 추가적인 출생아 수 감소 요인이 된다. 그나마 수도권은 합계출산율 감소 영향이 가임기 여성 증가 10조원 증안펀드 10월 중순 재가동, 강신우 전 KIC CIO가 지휘 증시가 불안한 모습을 보이는 가운데 금융당국이 이달 중순께 증권시장 안정펀드(증안펀드)를 재가동할 전망이다. 증안펀드 투입에 앞서 공매도 금지에 대한 논의도 진행된다. 4일 금융권 등에 따르면 금융위원회는 증안펀드 재가동을 위해 증권 유관 기관과 실무 협의 및 약정 절차를 진행 중이다. 빠르면 이달 중순에 조성 작업을 마무리할 계 전장연, 지하철 4호선 출근길 시위…“지연우려” 전국장애인차별철폐연대(전장연)가 4일 오전 8시부터 서울 지하철 4호선에서 출근길 지하철 탑승 시위를 이어갈 것으로 예상된다. 서울교통공사는 공지사항을 통해 "10월 4일(화)~7일(금) 오전 8시 00분부터 4호선에서 ‘전국장애인차별철폐연대’의 ‘장애인 권리 예산 확보’를 위한 삭발식 및 ‘지하철 타기 선전전’이 예정돼 있다"며 "이로 인해 믿었던 반도체 수출도 '흔들'…성큼 다가온 '쌍둥이 적자' 공포 10월 수출입동향서 수출 상승세 둔화 무역수지 적자 6개월째 이어져 '위기' 반도체마저 115억 달러로 5.7% 감소 재정 적자에 이어 경상수지도 위기 세계 경기 침체로 무역 상황이 악화되면서 믿었던 반도체 수출도 흔들리고 있다. 23개월 연속 이어오던 수출 상승세가 주춤하며 이미 적자인 관리재정수지에 이어 경상수지까지 적자인 '쌍둥이 적 감사원 '文 서면조사 통보'에…野 "정치 탄압" vs 與 "감사에 성역 없어" 野 정치탄압대책위 "尹 소란 종착지는 文…감사원 직권남용 고발" 靑 출신 野 의원들 "무례한 행태…국민 두려움 모르는 권력 끝은 침몰" 이재명 "민생경제, 외교평화에 힘 쏟을 때" 與 "전직 대통령도 성역은 있을 수 없어" 정진석 "전 대통령 서면조사 요구 처음 아냐…겸허히 받아들여야" 감사원이 '서해 공무원 피격 사건'과 관련해 문재인 전 유가 하락 방어 나선 OPEC+, 하루 100만 배럴 감산 폭탄 터뜨리나 하루 50만~100만 배럴 감산 전망 지배적 전 세계 산유량의 1% 달하는 규모 배럴당 125달러였던 브렌트유 최근 85달러선대 유가 상승시 경기침체 리스크 더 커질 수도 석유수출국기구(OPEC)와 비(非) OPEC 산유국의 협의체인 ‘OPEC플러스(+)’가 이번 주 열리는 정례 회의에서 대형 감산에 나설 것이라는 관측이 커지고 있다. 감산으로 글로벌 경 [신용리스크 악몽 재현되나]①"우리 회사채 사주세요" 치솟는 금리에 울고 싶은 기업들 국내 5대 그룹 한 계열사는 최근 회사채 수요예측에 나섰지만, 선뜻 사겠다는 큰 손(기관투자자)이 없어 낭패를 봤다. 미국 중앙은행인 연방준비제도가 연방기금금리를 0.75%포인트(p) 올리는 ‘자이언트 스텝’을 3회 연속 단행한 후 시장 금리가 치솟고, 변동성이 커지자 기관들이 손사래를 치고 있다. 회사 관계자는 “올해 초만 해도 없어서 못 많이 본 뉴스 01 돈 벌 곳도, 쓸 곳도 없다...'유령도시' 돼가는 非수도권 02 전장연, 지하철 4호선 출근길 시위…“지연우려” 03 "집ㆍ자녀 원했을 뿐인데...실직 후 투잡 뛰며 '나'마저 잃었다" 04 머스크 “크림반도는 러시아 영토, 우크라이나 중립국 전환해야” 05 FOMC 후 일주일…폭락장에도 ‘태조이방원’ 찜한 외국인 06 유엔 “연준, 금리 그만 올려라” 07 [환율전망] 원·달러 1원 상승 출발…“국채금리 하락·파운드화 강세에 약세” 08 [이투데이 말투데이] 좌고우면(左顧右眄)/애프터마켓 (10월4일) 09 10조원 증안펀드 10월 중순 재가동, 강신우 전 KIC CIO가 지휘 10 [상보] 뉴욕증시, 영국발 훈풍·국채금리 진정에 상승...다우 2.66%↑ 최신 영상 "北 도발 시 즉각 대응"…한미 연합 해상훈련 모습 // 이투데이TV 문화·라이프 최신 뉴스 기관실엔 김건희·칼 든 검사…만화축제 금상 받은 윤석열 풍자화 ‘동상이몽2’ 황보라 “결혼식 전 이미 차현우와 혼인신고…하정우 속상해해” ‘결혼지옥’ 무직 남편, 13살 연하 우즈벡 아내에게 폭언…“너 돈으로 사온 것” 양조위·이병헌·이영애 스타 총출동...전성기 회복 노리는 부산국제영화제 ‘조선의 4번 타자’ 이대호, 은퇴시즌 100타점 달성…롯데 5년 연속 PS 탈락 서울·프랑스·독일 흙 모아 그린 채성필 "본질적 아름다움 찾고자" 인도네시아 축구 참사 사망자 174명으로...FIFA 회장 "이해할 수 없는 비극" 애도 ‘공조2’, 600만 관객 돌파…올해 韓 영화 중 3번째 한채아, 시아버지 차범근 축구교실 중단에 서운…"그동안 감사했다" 뭉클 유소연, 어센던트 LPGA 3라운드 공동 6위…선두와 3타 차 뉴스발전소 [인포그래픽] 개천절, 태극기 다는 법은? 내가 저장한 뉴스 모아보기 내가 구독한 기자 전체보기 한 컷 [포토] 발언하는 주호영 국힘 원내대표 마켓 뉴스 특징주 투자전략 오픈엣지테크놀로지, 삼성전자·ARM 전략적 제휴 논의 소식에 상한가 오토앤, 현대글로비스 미국 중고차 경매업체 인수 소식에 강세 오리온, 4분기 실적 기대감 속에도 ‘약세’ 출발 칩스앤미디어, 인텔 자회사 모빌아이 상장 신청에 강세 F&amp;F, 증권가 호실적 전망에 '상승세' [오늘의 증시 리포트] “HMM, 4분기부터 실적 급감” [환율전망] 원·달러 1원 상승 출발…“국채금리 하락·파운드화 강세에 약세” “삼성전자, 역대급 ‘공급 축소’ 전망... 반도체 상승 싸이클, 최대 재고 후유증 우려” [오늘의 투자전략] 글로벌 증시 강세 따른 투자심리 개선…저가 매수·기술적 반등 시도 "하이브, BTS 활동 줄어도 3분기 실적 시장 예상치 부합할 전망" 오늘의 상승종목 10.04 09:56 20분지연 코스피 코스닥 1.SK네트웍스우 17,000 2.에이프로젠제약 62 3.KR모터스 79 4.일진홀딩스 480 5.디아이씨 365 1.라닉스 1,520 2.오픈엣지테크놀로지 2,400 3.칩스앤미디어 3,100 4.오토앤 2,150 5.유안타제7호스팩 680 실시간 암호화폐 시세 종목 현재가(원) 변동률 비트코인 28,174,000 +1.24% 이더리움 1,906,000 +1.93% 비트코인 캐시 167,000 -0.36% 리플 657 -0.39% 위믹스 2,585 +1.57% 에이다 613.3 -0.08% 이오스 1,694 -0.35% 트론 88.06 -0.96% 스텔라루멘 166.8 -4.41% 비트코인에스브이 69,450 -0.5% 체인링크 10,660 +2.7% 샌드박스 1,193 +0.93% * 24시간 변동률 기준 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 패밀리사이트 Channel5 브라보마이라이프 바이오스펙테이터 회사소개 이용약관 개인정보처리방침 청소년보호정책 광고 및 제휴 구독신청 고충처리 RSS 사이트맵 (주)이투데이 (제호 : 이투데이) ㅣ 서울시 강남구 강남대로 556 이투데이빌딩 ㅣ ☎ 02) 799-2600 등록번호 : 서울아02868 ㅣ 등록일자 : 2013.11.07 ㅣ 발행일자 : 2006.04.27 ㅣ 발행인 : 김상우 ㅣ 편집인 : 김덕헌 ㅣ 청소년보호책임자 : 박성호 이투데이의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재 및 수집, 복사, 배포 등을 금지합니다. Copyright(c) (주)이투데이. All rights reserved. ㅣ 보도자료 및 기사제보 press@etoday.co.kr 이투데이 임직원은 모두의 의견을 모아 언론 윤리강령, 기자윤리강령, 임직원 윤리강령 및 실천규정을 제정, 준수하고 있습니다.한국기자협회와 인터넷신문위원회 윤리강령 및 실천요강도 준수합니다. 「열린보도원칙」당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.</t>
-  </si>
-  <si>
-    <t>[퇴근뉴스] ‘반 총장, 미국 복귀’, ‘해외 관광객 유치 빨간불’, ‘제주도 인구 증가’, ‘슈틸리케호 스페인과 격돌’ [시선뉴스] - 시선뉴스 × 전체기사 시사 전체 시사·교양 카드뉴스 박진아의 인사이드쇼 나는 정치인이다 시선만평 생활법률 오늘의 한마디 정책브리핑 타임즈(개편중) 지식‧교양 전체 TV지식용어 무비 레시피 레슨업 자동차의 모든것 맘마노트 TV스캔들(개편중) 지식·정보 전체 지식의 창 육아·건강프라임 따뜻한 말 한마디 웹툰뉴스 실종아동찾기 뷰티패션 인포그래픽 전체 사회·문화 엔터테인먼트 날씨 다큐멘터리 전체 시선 인터뷰 역사 기억 [memory, 記憶] 스토리오브코리아 뉴스 전체 이슈돋보기 대중문화 HOT키워드 상상마당 라이프 전체 건강·음식 인테리어 패션·뷰티 육아 자동차 여행·관광 360VR e-biz 애니멀 전체 신비한 동물사전 반려동물농장 애니멀TV 산업 전체 일반(기업) 소상공인 에듀 지역/행사 문화/관광 바이오/헬스케어 취업/채용 뷰티/패션 생활 2022년 10월 첫째 주 육아 관련 정책 [육아 정책브리핑] 당치땡, 신메뉴 ‘텍사스 치베큐’ 출시’ 중소기업유통센터, 소상공인 지원하는 ‘벤자민권 시즌2’ 마무리 씽잉 콘텐츠 플랫폼 ‘썸씽’ 출신 모창능력자, 히든싱어7 최종라운드 진출 셀코스메트 셀맨, ‘울트라 바이탈 크림’ 등 신제품 10종 출시 가해자와 함께 있어 경찰에 도움 요청하기 어려울 때 ‘똑똑’ 보이는 112 [지식용어] [정책브리핑] 2022년 10월 04일 화요일 주요 정책 10월 04일 화요일, 오늘의 날씨와 미세먼지 농도 [인포그래픽] [오늘의 사자성어] 동행서주[東行西走] 한국열린사이버대학교 평생교육원 ‘10월 20일 개강’ 사회복지사 2급 교육 수강생 모집 [10년 전 오늘] 17회 부산국제영화제(BIFF) 개막...안성기-탕웨이 사회로 개막식 진행 2022년 10월 04일, 오늘의 띠별 운세 [인포그래픽] [무비레시피] 디즈니+ 확정된 ‘토르: 러브 앤 썬더’, 역대급 빌런 탄생 [시선★피플] 영화 ‘인생은 아름다워’ 염정아, 뮤지컬 영화에서도 빛나는 연기력 車 주요뉴스, 기아·포드 등 10만대 리콜 – 휘발유·경유 기름값 내림세 [모터그램] 네이버TV 카카오TV 유튜브 네이버 포스트 facebook twitter kakao story 로그인 회원가입 모바일웹 시사 시사·교양 카드뉴스 박진아의 인사이드쇼 나는 정치인이다 시선만평 생활법률 오늘의 한마디 정책브리핑 지식‧교양 TV지식용어 무비 레시피 레슨업 자동차의 모든것 맘마노트 지식·정보 지식의 창 육아·건강프라임 따뜻한 말 한마디 웹툰뉴스 실종아동찾기 뷰티패션 인포그래픽 사회·문화 엔터테인먼트 날씨 애니멀 신비한 동물사전 반려동물농장 애니멀TV 다큐멘터리 시선 인터뷰 키워드 한국사 기억 [memory, 記憶] 스토리오브코리아 뉴스 이슈돋보기 대중문화 산업 일반(기업) 소상공인 에듀 지역/행사 문화/관광 바이오/헬스케어 취업/채용 뷰티/패션 생활 기사검색 검색 이전 다음 [퇴근뉴스] ‘반 총장, 미국 복귀’, ‘해외 관광객 유치 빨간불’, ‘제주도 인구 증가’, ‘슈틸리케호 스페인과 격돌’ [시선뉴스] 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 시사 시사·교양 [퇴근뉴스] ‘반 총장, 미국 복귀’, ‘해외 관광객 유치 빨간불’, ‘제주도 인구 증가’, ‘슈틸리케호 스페인과 격돌’ [시선뉴스] 보도본부 | 한성현 PD 승인 2016.06.01 18:58 댓글 0 글씨키우기 글씨줄이기 메일보내기 인쇄하기 페이스북 트위터 구글 카카오스토리 블로그 기사공유하기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × [시선뉴스] 6월 1일 수요일의 기분 좋은 퇴근길, 오늘의 이슈를 전하는 퇴근뉴스입니다.1. 반기문 UN사무총장 미국으로 복귀반기문 UN사무총장이 6일간의 일정을 마치고 지난 30일 출국했습니다. 반 총장은 출국 전 마지막 공식 행사인 제 66차 유엔 NGO 컨퍼런스에 참석해 자신의 방한 일정은 정치적 행보와 무관하다며, 과대 해석과 추측을 자제해달라고 말했습니다. ▲ (출처/ 위키피디아, 픽사베이, 한국축구협회 공식 홈페이지) 2. ‘우리나라 해외 관광객 유치, 빨간불’ 지난해 우리나라 해외 관광객 유치 실적이 일본에 추월당한 것으로 나타났습니다. 전국경제인연합회에 따르면 2014년 우리나라를 찾은 해외 관광객은 천3백만 명 정도로, 천9백만 명 정도인 일본에 비해 600만 명 정도 적었습니다. 이에 전문가들은 쇼핑 위주의 관광에서 벗어나 새로운 관광객 유치 전략이 필요하다고 지적했습니다.3. 제주도 인구, 65만 명 돌파 제주도로 전입하는 인구가 크게 늘면서 제주도 인구가 65만 명을 돌파했습니다. 다른 시·도에서 제주도로 전입 온 인구는 올해 1월부터 4월까지 5천 7백여 명으로 지난해 같은 기간보다 35% 증가했습니다.4. 슈틸리케호, 오늘 저녁 스페인과 격돌슈틸리케가 이끄는 한국대표팀이 오늘 밤 11시 30분 스페인과의 평가전에 나섭니다. 한국대표팀은 최근 7경기 연속 무실점 승리행진을 이어가고 있어 스페인과의 경기에서도 강한 자신감을 보이고 있는데요. 무적함대라 불리는 스페인을 상대로 슈틸리케호가 계속해서 무실점을 이어나갈 수 있을지 기대가 모아지고 있습니다.호국보훈의 달인 6월이 시작됐습니다. 6월 1일인 오늘은 의병의 날이기도 한데요. 지금의 우리가 있기까지 나라를 지키기 위해 많은 분들의 희생과 노력이 있었음에 감사함을 느끼며 하루를 마무리 하는 것은 어떨까요. 즐거운 퇴근길 되시기 바랍니다. 시선뉴스 이승재였습니다. 저작권자 © 시선뉴스 무단전재 및 재배포 금지 보도자료 발송 및 기사제휴 ▶ sisunnews@sisunnews.co.kr 문의 ▶ 02-838-5150 연예·스포츠 인기뉴스 씽잉 콘텐츠 플랫폼 ‘썸씽’ 출신 모창능력자, 히든싱어7 최종라운드 진출 씽잉 콘텐츠 플랫폼 ‘썸씽’ 출신 모창능력자, 히든싱어7 최종라운드 진출 이틀 만에 입장 발표한 박민영 측, 열애설 관련 “현재는 이별한 상태” 이틀 만에 입장 발표한 박민영 측, 열애설 관련 “현재는 이별한 상태” 제이플랜, 10월 5일 디지털 싱글 (Nostalgia) 발매 확정 제이플랜, 10월 5일 디지털 싱글 (Nostalgia) 발매 확정 엑소(EXO) 찬열, 군 복무 마치고 팬들 곁으로... 그룹 내 다섯 번째 군필 멤버 엑소(EXO) 찬열, 군 복무 마치고 팬들 곁으로... 그룹 내 다섯 번째 군필 멤버 [카드뉴스] 헷갈리는 재활용...알고 보니 재활용되지 않는 품목들 [카드뉴스] 헷갈리는 재활용...알고 보니 재활용되지 않는 품목들 시사상식 노트7 [2022년 10월 첫째 주_시선뉴스] [카드뉴스] 반려조류는 어떻게 키워야 할까 #십자매 #카나리아 #문조 北 위협에도 DMZ 찾은 해리스 미 부통령, 굳건한 안보 확인 "평화로운 한반도 추구" [글로벌이야기] 여성 신도 성폭행-추행 혐의 정명석 총재 구속영장 신청 外 [오늘의 주요뉴스] 오늘의 주요뉴스 기사더보기 &gt; 한성현 PD bow8410@sisunnews.co.kr [꿀잼유아미술] 쥬스, 잼 등 다양하게 먹을 수 있는 ‘포도’그리기 ... [세컷TV] ‘하태핫태’ 이번 주 TV속 장면 ‘본격연예 한밤’, ‘... [SN여행] 스릴만점! 서울 전경을 한 눈에 담을 수 있는 ‘서울 스... 오늘 이 영화 어때요? 1 [무비레시피] 디즈니+ 확정된 ‘토르: 러브 앤 썬더’, 역대급 빌런 탄생 [무비레시피] 디즈니+ 확정된 ‘토르: 러브 앤 썬더’, 역대급 빌런 탄생 2 [무비레시피] 극장가 8월 최고 흥행작, 영화 ‘한산: 용의 출현’ [무비레시피] 극장가 8월 최고 흥행작, 영화 ‘한산: 용의 출현’ 1 [뮤지컬평점] 공고히 쌓아 올린 10주년의 명성, 뮤지컬 ‘엘리자벳’ [뮤지컬평점] 공고히 쌓아 올린 10주년의 명성, 뮤지컬 ‘엘리자벳’ 2 [무비레시피] 칸에서 기립박수 받은 ‘감독’ 이정재의 첫 데뷔작, 영화 ’헌트’ [무비레시피] 칸에서 기립박수 받은 ‘감독’ 이정재의 첫 데뷔작, 영화 ’헌트’ 관련기사 [카드뉴스] 나는 지금 위험에 빠져 있습니다, 도와주세요! [시선뉴스] 손톱깎이는 언제부터 사용된 것일까? [TV지식용어] 사회적 병폐가 되어버린 관행, 전관예우 [지식용어] 많이 본 뉴스 종합 시사 1[오늘의 사자성어] 성의정심[誠意正心] 2[10년 전 오늘] 우리나라가 세워진 단기 4345년 개천절, 전국 곳곳서 경축행사 거행 3[정책브리핑] 2022년 10월 03일 월요일 주요 정책 4이번 주 별자리운세 '10월 03일~10월 09일' [인포그래픽] 5병역기피 논란 유승준, 명확한 ‘외국인과 재외국민’ 국적 요청 재판부 [지식용어] 62022년 10월 03일, 오늘의 띠별 운세 [인포그래픽] 7[무비레시피] 디즈니+ 확정된 ‘토르: 러브 앤 썬더’, 역대급 빌런 탄생 8車 주요뉴스, 기아·포드 등 10만대 리콜 – 휘발유·경유 기름값 내림세 [모터그램] 9[시선★피플] 영화 ‘인생은 아름다워’ 염정아, 뮤지컬 영화에서도 빛나는 연기력 10에듀윌, 경찰공무원 ‘김민현 경찰학 행정법 특강’ 무료 배포...“행정법 집중 학습” 1[정책브리핑] 2022년 10월 04일 화요일 주요 정책 2[오늘의 사자성어] 동행서주[東行西走] 3[카드뉴스] 헷갈리는 재활용...알고 보니 재활용되지 않는 품목들 4[정책브리핑] 2022년 10월 03일 월요일 주요 정책 5[오늘의 사자성어] 성의정심[誠意正心] 6시사상식 노트7 [2022년 10월 첫째 주_시선뉴스] 72022년 10월 첫째 주 동물 관련 정책 CHECK! [정책브리핑, 동물] 8[오늘의 명언] 세네카(Seneca)의 명언 9[오늘의 사자성어] 면벽수도[面壁修道] 10[카드뉴스] 반려조류는 어떻게 키워야 할까 #십자매 #카나리아 #문조 스타 인터뷰 [시선★피플] 영화 ‘인생은 아름다워’ 염정아, 뮤지컬 영화에서도 빛나는 연기력 [시선★피플] 영화 ‘인생은 아름다워’ 염정아, 뮤지컬 영화에서도 빛나는 연기력 [어바웃 슈퍼리치] 유튜브 CEO 수잔 워치스키, ‘틱톡’ 잡기 위한 전략은? [어바웃 슈퍼리치] 유튜브 CEO 수잔 워치스키, ‘틱톡’ 잡기 위한 전략은? [시선★피플] 지금까지는 본 적 없는... '늑대사냥'으로 돌아온 서인국 [시선★피플] 지금까지는 본 적 없는... '늑대사냥'으로 돌아온 서인국 [어바웃 슈퍼리치] 근검절약 실천하는 부호, 멕시코 통신 재벌 텔멕스 '카를로스 슬림' [어바웃 슈퍼리치] 근검절약 실천하는 부호, 멕시코 통신 재벌 텔멕스 '카를로스 슬림' [시선★피플] 화제작 ‘수리남’ 극 흐름 이끄는 ‘하정우’, 2023년 에미상 기대해볼까 [시선★피플] 화제작 ‘수리남’ 극 흐름 이끄는 ‘하정우’, 2023년 에미상 기대해볼까 [인터뷰360] 워커홀릭이 체질? 몸이 10개라도 모자랄 만능엔터테이너 회사 대표 '유빈' [인터뷰360] 워커홀릭이 체질? 몸이 10개라도 모자랄 만능엔터테이너 회사 대표 '유빈' 신문방송사소개 인사말 연혁 등록인증 윤리강령 저작권규약 광고·제휴 제공제휴사 개인정보취급방침 이메일무단수집거부 찾아오시는길 청소년보호정책 서울특별시 구로구 디지털로31길 20 (구로동) 에이스테크노타워 5차 1008호 편집인 : 박진아 발행인 : 김정우 청소년보호책임자 : 박진아 등록일 : 2012.08.01 인터넷신문 등록번호 : 서울 아03964 이메일 : sisunnews@sisunnews.co.kr 사업자번호 : 130-86-88882 대표전화 : 02-838-5150 팩스 : 02-851-2908 Copyright © 2022 시선뉴스. All rights reserved. 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 위로</t>
+    <t>스포츠서울 - 삼성전자, 제주도 최대 규모 스마트 복합관광단지 조성 삼성전자, 제주도 최대 규모 스마트 복합관광단지 조성 입력2016-06-30 14:54 수정2016-06-30 14:53 30일 제주 신라호텔에서 제이씨씨(주) 대표 박영조 회장(왼쪽)과 삼성전자 한국총괄 B2B 영업팀장 이현식 상무(오른쪽)가 제주 최대 규모의 스마트 복합관광단지 개발을 위한 사업 제휴 협약을 체결하고 상호 협력을 합의했다.  제공 | 삼성전자 [스포츠서울 이상훈기자] 삼성전자가 30일 제이씨씨와 제주 신라호텔에서 제주 최대 규모의 스마트 복합관광단지 개발을 위한 사업 제휴 협약을 체결했다. 대지면적 357만㎡에 총 사업비 6조2800억원에 달하는 제주오라 관광단지 조성 사업(2021년 완공 예정)은 제주 지역 개발사업 중 역대 최대 규모다. 제주오라 관광단지의 주요 시설로는 ▲7650석 규모의 MICE센터, ▲호텔 2500실과 콘도 1815실, ▲쇼핑센터, ▲테마파크, ▲골프장 등 대규모 숙박시설과 유통&amp;레저 시설 등이 들어설 예정이다. 삼성전자와 제이씨씨는 ▲리조트 단지 개발을 위한 최첨단 스마트 솔루션 공동 구축, ▲스마트 솔루션 운영·관리, ▲스마트 솔루션을 통한 서비스 사업 모델 공동 개발 등 스마트 복합단지 구축을 위한 상호 협력에 합의했다. 이번 사업 제휴 협약을 통해 제주오라 관광단지는 고객 맞춤형 스마트 시스템, 최첨단 친환경 에너지 절감형 REMS(Resort Energy Management System), 통합 에너지관리 시스템 등 맞춤형 IT 통합 운영시스템을 갖출 예정이다.삼성전자는 제주오라 관광단지에 맞춤형 IT 서비스, 에코 통합 운영 시스템, IoT를 활용한 통합에너지관리시스템 등 첨단 솔루션을 제공할 예정이다. 주요 공급 내역은 고객 맞춤형 서비스가 제공되는 스마트 호텔 솔루션, 공조시스템ㆍLED 조명 등 친환경 솔루션, 빌딩 통합관제 시스템, 사이니지 솔루션, 빌트인·스마트 가전 제품 등이다.제이씨씨 박영조 회장은 “제주도가 추구하는 미래가치인 ‘사람과 자연이 공존하는 청정제주’ 실현을 위해 제주오라 관광단지는 삼성전자와 함께 관광ㆍ휴양ㆍ쇼핑ㆍ컨벤션ㆍ문화를 중심으로 세계적인 수준의 관광 인프라로 개발해 나가겠다”고 말했다. party@sportsseoul.com ▶ 디지털 뉴스콘텐츠 이용규칙 보기 0 오늘의 핫키워드 선우은숙 재혼 l 김지민 l 신혜성 l 오은영 박사 인기기사-네이버 '재혼' 선우은숙-유영재 아나, 어떻게 만났나 ... '쌍둥이 임신?' 김지민, 열애 공개한 이유가.... 7kg 감량 홍진영, 초미니로 뽐낸 각선미 '이정후 절친' 고우석, 이종범 사위 된다 '이상화♥' 강남, 장모와 XX수술도 같이해 외도 70대 노부부...오은영도 할 말 잃었다 신혜성, 도난차량서 음주측정 거부로 '체포' 강민경, '65억대' 매입 신사옥으로 이사 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 영상 포토 페이스북 트위터 카카오톡 구글플러스 카카오스토리 밴드 TOP 뉴스 1/2 이전 다음 맥심 선정 '세계 최고 섹시 미녀' 골프선수 중 타이거 우즈보다 팔로워 수가... 강민경, '65억' 매입 신사옥으로 이사 강민경이 신사옥으로 이사한다... 신세경, '헉' 소리 나는 베이글 여신 배우 신세경이 여신 같은 아름다움을... 호주 가라테 국대 출신, 남심 저격 호주 가라테 국가대표 출신으로 모델과... 과감 누드 화보 찍은 '91세' 최고령 모델 미국은 물론이고 전세계를 통틀어... 16살인데...이동국 딸, 넘사벽 성숙미 축구스타 이동국의 딸이자 모델 재시가... 부산국제영화제 레드카펫, 최고의 여신은? 부산국제영화제 레드카펫은... '아이언맨'의 그녀, 50세 기념 누드 배우 기네스 팰트로가 50세 생일을 기념한... SS TV 캐스트 구독하기 스포츠서울 SNS 스포츠서울 앱 살펴보기 스포츠서울 서울가요대상 Android 서울가요대상 IOS [사고]2022 제11회 전국 중.고 인문학 경진대회 X</t>
+  </si>
+  <si>
+    <t>제주도 관광객 북적 무신고 영업 기승 &lt; 제주시 &lt; 지역뉴스 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 지역뉴스 최종편집 2022-10-11 (화) 01:47 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 종합 제주시 서귀포시 읍면동 농사정보 본문영역 이전 기사보기 다음 기사보기 제주도 관광객 북적 무신고 영업 기승 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 지역뉴스 제주시 제주도 관광객 북적 무신고 영업 기승 기자명 김경필 기자 입력 2016.06.29 16:37 수정 2016.06.29 19:08 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주시, 올해 푸드트럭·휴게음식점 등 65곳 적발전년대비 3배 이상 급증…5·6월 위반건수 집중여름 피서철을 맞아 제주를 찾는 관광객이 증가하고 있는 가운데 음식점과 숙박시설 등 무신고 영업행위가 기승을 부리고 있어 대책이 요구된다.제주시는 올해 1월부터 6월까지 관광객 등을 겨냥한 무신고 영업행위 65건을 적발했다고 29일 밝혔다.적발건수를 유형별로 보면 푸드트럭이 27건으로 가장 많고, 일반음식점 9건, 휴게음식점 9건, 숙박시설 14건, 네일아트 등 미용업 3건, 즉석판매제조가공업 등 기타 3건이다.이는 지난해 같은 기간 적발된 19건에 비해 3.4배 증가한 수치로 무신고 영업행위가 최근 기승을 부리고 있는 실정이다.실제로 올들어 적발된 무신고 영업행위 가운데 5∼6월 적발건수가 26건으로 전체의 40%를 차지했다. 또 전체 적발건수 가운데 우도지역에서 15건이 적발된 것으로 파악됐다.여름 피서철로 접어들면서 피서지와 도서지역을 중심으로 무신고 영업행위가 이뤄지고 있다는 분석이다.이에 따라 제주시는 7월부터 피서지와 도서지역을 대상으로 무신고 영업행위를 집중 단속하기로 했다.제주시는 무신고 영업행위가 적발되면 영업중단이나 형사고발 등 강력한 처분을 시행할 방침이다. 김경필 기자 kkp2032@hanmail.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의운세 10월11일(음력9월16일) 내 영혼이 따뜻해지는 날 장 발장 이야기 진단/포괄적 권한이양 전환 현실성 있나 예술인들 자발적 참여로 빈 땅에 '예술마을' 조성 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 제61회 탐라문화제 9일 일부 일정 10일로 연기 2 오늘의운세 10월11일(음력9월16일) 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [우리회사 창립기념일] 10월 10~16일 5 제주문학학교, 문태준 시인 초청 북토크 6 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 7 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 8 제23회 제주여성영화제 요망진작품상 '나들이' 선정 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>중국인이 사랑하는 명품관광도시...제주도 '1위' - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 중국인이 사랑하는 명품관광도시...제주도 '1위' 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 중국인이 사랑하는 명품관광도시...제주도 '1위' 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2016.06.28 13:26 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도와 제주관광공사(사장 최갑열)는 인민망 한국지사와 (사)한국마케팅협회에서 진행한 2016년 요우커만족도 조사 '제3회 중국인이 사랑하는 한국의 명품'에서 관광도시 부문 1위로 '제주'가 선정됐다고 28일 전했다.이번 조사는 올해 3회째로 방한 요우커 1298명을 대상으로 대면조사를 실시해 51개 산업군에 걸쳐 가장 만족하는 상품여부, 상품 만족도, 타인추천에 의한 고객의 태도를 조사한 것으로 제주를 비롯해 국내 여러 브랜드가 수상을 하게 됐다.제주특별자치도와 제주관광공사는 이번 조사를 계기로 중국인 관광객들에게 제주에 대한 이미지가 매우 긍정적임을 확인했으며, 인민망 한국지사 및 (사)한국마케팅협회와 협력해 제주의 이미지를 중국 대륙으로 좀 더 알릴 수 있도록 온라인상의 홍보를 위해 인민망 한국명품관내 제주 홍보페이지를 개설하기로 했다.이뿐만 아니라, 이번달 부터 중국 대륙 인터넷사용자들을 대상으로 제주관광 홍보를 위한 중국 대표 SNS인 웨이보(Weibo.com) 제주관광 공식 개정을 개설해 본격적으로 온라인 홍보마케팅을 펼칠 예정이다.제주관광공사 관계자는 "제주는 여전히 중국인관광객이 선호하는 지역이지만 아직도 중국 내륙지역 등 많은 중국인들에게 생소한 곳이기도 한다"며 "보다 많은 요우커들에게 제주의 좋은 이미지를 홍보하고 매력적인 여행지로 알릴 수 있도록 노력하겠다"고 밝혔다.&lt;헤드라인제주&gt;&lt;홍창빈 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회-발리여행업협회, ‘질적 성장’ 맞손 &lt; 관광 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 12:04 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 지난 8월, 제주 가파도서 발견된 신체 일부 정체 ‘오리무중’ 제주 민관협력의원 최대 난제 의원·약국 임대료 대폭 인하 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도관광협회-발리여행업협회, ‘질적 성장’ 맞손 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 관광 제주도관광협회-발리여행업협회, ‘질적 성장’ 맞손 기자명 좌용철 기자					(ja3038@hanmail.net) 입력 2016.06.26 14:16 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 ▲ 제주도관광협회(회장 김영진)는 지난 6월22~25일 인도네시아 발리에서 신흥관광시장 확대를 위해 발리여행업협회(회장 끄뚯 아다나)와 관광·문화·레저스포츠 교류 증진을 위한 우호교류 협약을 체결했다. ⓒ제주의소리 제주관광 질적 성장 실현을 위한 우호교류 협약 체결제주도관광협회가 ‘제주관광 질적 성장’을 위해 발리여행업협회(ASITA Bali)와 손을 맞잡았다.제주도·제주도관광협회는 지난 6월22~25일 인도네시아 발리에서 신흥관광시장 확대를 위해 발리여행업협회(회장 끄뚯 아다나)와 관광·문화·레저스포츠 교류 증진을 위한 우호교류 협약을 체결했다고 26일 밝혔다.두 지역은 이번 협약을 계기로 직항노선 미개설 등으로 인한 관광객 접근성의 한계를 타개하고, 외국인관광객 유치를 위한 전세기 상품 개발 가능성을 타진하기로 했다.이와 함께 협약식에 참석한 아리프 야흐야 인도네시아 관광부 장관과 아스나위 인도네시아여행업협회장도 두 지역간 관광교류 활성화를 위해 적극 협력키로 했다.제주도관광협회는 아름다운 자연환경을 간직한 세계적인 휴양지로서 관광산업이 지역경제에 차지하는 비중이 큰 점 등 비슷한 부분이 많은 제주와 발리 두 지역 간 공동 상품개발 등이 이뤄질 경우 시너지 효과가 있을 것으로 기대하고 있다.이번 우호교류 협약은 세계 5위 인구대국으로 잠재적인 성장가능성이 큰 인도네시아 현지 관광시장을 향한 민긴교류 활동으로, 제주관광 시장 다변화를 위한 적극적인 행보라는 점에서 시사하는 바가 크다.협회 관계자는 “기존 7개국 29개 우호·자매결연 단체와 지속적인 네트워크 협력관계를 강화하고, 앞으로 인도 및 중앙아시아로 민간차원의 교류확대를 이어감으로써 제주관광의 시장다변화를 위해 적극 노력할 방침”이라고 말했다. 좌용철 기자 ja3038@hanmail.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 10억원 투입 제주 마을어장에 종자 91만 마리 방류 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 한글날 맞이 ‘아름다운 우리말 상표’, 제주어 ‘배또롱’ 선정 1 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 2 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 3 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 4 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 5 못간다 6 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 7 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 8 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 9 일본에서 벗어나는 가장 기초적인 일은 법정용어를 제대로 한글로 바꾸는 것부터 시작이다. 지금까지 이런 말이 권위적이고 위압적이라 자신의 기득권을 위해 국회의원이든 도의원이든 그냥 써먹고 있었다. 아니면 전혀 의식이 없던가. 몇개만 바꾸지 말고 다 바꾸어라. 10 이런 일본식 명칭들. 일반 사람들보다 주로 공공기관에서만 썼던 것들이죠. 즉 전문용어? 뭔가 어려운 느낌으로 권위 있는척 하려고 지금도 많이 쓰죠. 특히 의학이나 법정용어들 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 30일 '제12차 제주관광포럼' 개최 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 30일 '제12차 제주관광포럼' 개최 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회, 30일 '제12차 제주관광포럼' 개최 박성우 기자 headlinejeju@headlinejeju.co.kr 승인 2016.06.28 18:29 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도와 제주도관광협회(회장 김영진)는 오는 30일 오후 4시 제주칼호텔에서 '제12차 제주관광포럼'을 개최한다.이번 포럼에서 신왕우 제주국제대학교 교수는 '새로운 법제도 환경변화에 따른 관광업계의 대응전략'을 주제로 발표에 나서고, 오상훈 제주대학교 교수가 좌장을 맡아 토론을 진행한다.주제발표에 나서는 신왕우 교수는 최근 다양한 법제도 도입으로 급변하는 제주관광 환경과 이에 대한 업계의 대응전략에 대해 숙박업을 중심으로 발제할 예정이다.토론자는 한국문화관광연구원 권태일 부연구위원, 제주관광학회 김창식 회장, 관광협회 국제여행업제1분과 김두흥 위원장, 일반숙박업분과 정양훈 위원장, 제주발전연구원 정승훈 연구기획실장 등이 참석한다. &lt;헤드라인제주&gt;&lt;박성우 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 박성우 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도 생태관광 전문인력 양성 교육과정 진행 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 생태관광 전문인력 양성 교육과정 진행 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도 생태관광 전문인력 양성 교육과정 진행 편집팀 headlinejeju@headlinejeju.co.kr 승인 2016.06.28 16:21 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 사단법인 제주생태관광협회(회장 고제량)에 위탁운영 중인 '제주 생태관광지원센터'의 첫 사업으로 제주도민을 대상으로 생태관광 전문인력 양성과정 교육을 개설한다고 28일 밝혔다.제주도의 자연환경을 주체적으로 보전하고 지속가능한 이용도구의 하나로 생태관광을 전문지원, 해설, 기획을 할 수 있는 전문인력 양성과 지역주민 역량강화를 위해 마련된 이번 교육은 29일부터 다음달 12일까지 총 20시간에 걸쳐 진행된다.교육 과정은 기초과정과 전문과정으로 나뉘며, 전문과정은 기초과정의 80%이상 참가해야 전문과정 교육을 받을 수 있다.고제량 센터장은 "제주의 자연과 문화에 맞게 지역별 특성대로 발전시켜 지역 주민들이 스스로 관광의 주체가 되도록 능력을 배양시키고 지역발전을 함께 해 가는 것이 생태관광의 기본"이라며 "제주 생태관광의 발전을 위해 최선을 다하겠다"고 전했다.제주생태관광지원센터는 람사르 습지인 동백동산 습지센터 내에 마련돼 운영되고 있다. &lt;헤드라인제주&gt;&lt;헤드라인제주 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 편집팀 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>자연경관·먹거리 풍부한 제주도 관광 필수코스 '성산일출봉' - 조선비즈</t>
+  </si>
+  <si>
+    <t>제주도, 청뚜 한국문화관광 대전 참석 - 불교공뉴스 × 전체기사 종합 지역뉴스 전체 충청남도 충청북도 청주시 옥천 보은 영동 대전시 세종시 계룡시 서울시 대구시 강원도 인천시 경기도 광주시 전라남도 전라북도 부산시 울산시 경상남도 경상북도 제주도 충주시 제천시 괴산군 부여군 논산시 공주시 천안시 안동시 담양군 청양군 여수시 금산군 예산군 아산시 고양시 횡성군 증평군 성남시 하동군 속초시 음성군 순천시 경주시 광양시 나주시 화순군 목포시 신안군 무안군 종교 전체 불교 천주교 기독교 종교연합 기타종교 사회 문화 교육 전체 우리 선생님 충북교육 충남교육 대전교육 일반교육 세종교육 국제 이슈.기획 연합뉴스 전체 엑셀데이터 선거정보 경제일반 TV동영상 자동생성기사 UPDATED. 2022-10-11 12:14 (화) 로그인 회원가입 보도자료 모바일웹 전체 종합뉴스 지역뉴스 충청남도 충청북도 청주시 옥천 보은 영동 대전시 세종시 계룡시 청양군 성남시 종교소식 불교 천주교 기독교 종교연합 기타종교 사회 문화 교육 우리 선생님 충북교육 충남교육 대전교육 일반교육 세종교육 국제 이슈·기획 연예뉴스 검색버튼 기사검색 검색 이전 다음 제주도, 청뚜 한국문화관광 대전 참석 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 지역뉴스 제주도 제주도, 청뚜 한국문화관광 대전 참석 지화 승인 2016.06.23 15:24 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 이 기사를 번역합니다 한국어 영어 일본어 중국어 프랑스어 스페인어 러시아어 인도네시아어 × [불교공뉴스-제주도] 제주관광 유관기관과 업계가 힘을 모아 제주관광 질적성장을 위한 중국 내륙 잠재시장 공략에 나선다. 제주특별자치도와 제주관광공사(사장 최갑열), 제주특별자치도관광협회(회장 김영진)는 도내 여행업계와 공동으로 중국 서부내륙지역인 청뚜에서 오는 24일부터 26일까지 개최되는 한국문화관광대전에 참가해 제주관광 공동 홍보에 나선다고 밝혔다. 한국관광공사에서 개최하는 이번 ‘2016 청뚜 한국문화관광대전’은 한국과 중국 40여개 기관 및 단체가 참가해 청뚜 및 사천성 등 서부내륙시장 소비자를 대상으로 K-POP 공연, 한류 이벤트 등 한국의 다양한 문화관광콘텐츠를 홍보하게 된다. 제주특별자치도와 제주관광공사는 박람회 기간 ‘청정제주 자유여행(纯净济州,自由随行)’이라는 슬로건을 내걸고 내륙지역 FIT(개별관광객)와 SIT(특수목적관광객) 유치 확대를 위하여 일반소비자를 대상으로 제주의 다채로운 관광 콘텐츠를 홍보한다. 또 소비자를 대상으로 제주관광 설문조사 이벤트를 추진하고 이를 토대로 서부내륙지역 맞춤형 관광 상품화를 추진하는 등 잠재 중국인 관광객 유치를 위한 본격적인 행보에 나설 방침이다. 이와 더불어 내륙지역 제주 관광상품 판촉 강화를 위해 현지 제주관광상품 판매 전문 업체들을 대상으로 세일즈를 펼치고 제주국제사이클링대회, KOREAT 푸드 페스티벌, KCON 2016 JEJU, 마라톤대회, 올레걷기축제 등 하반기 지역축제 및 글로벌 이벤트를 활용한 상품화에 나설 계획이다. 제주관광공사 관계자는 “청뚜를 중국 내륙시장의 핵심 타깃으로 해양레져, 승마 등 신규 SIT 레저테마와 한류, 미식 등 도내 지역축제 이벤트 연계 콘텐츠를 활용한 상품개발 및 홍보를 강화해 기존의 동북연안 거점도시 중심에서 내륙 2, 3선 도시로 마케팅 전략을 확대하여 다양한 수요층을 확보할 수 있도록 하반기 내륙시장 공략에 최선을 다할 것”이라고 밝혔다. 한편 도와 공사는, 올해 남방·내륙지역 여행업계 및 언론매체 대상 제주 지역축제 연계 SIT 상품 개발 팸투어와 윈난성과 쓰촨성 등의 낚시협회 관계자와 낚시전문 방송매체 관계자 들을 초청한 팸투어를 추진했으며, 최근에는 중국 내륙지역 낚시애호가를 중심으로 한 교류대회를 개최하는 등 청뚜를 거점으로 한 중국 내륙시장 공략에 박차를 가하고 있다. 저작권자 © 불교공뉴스 무단전재 및 재배포 금지 지화 다른기사 보기 기사가 마음에 드셨나요? 불교공뉴스는 창간 때부터 클린광고 정책을 유지하고 있습니다. 이것은 작은 언론으로서 쉬운 선택은 아니었습니다. 그럼에도 불구하고 불교공뉴스는 앞으로도 기사 읽는데 불편한 광고는 싣지 않겠습니다. 불교공뉴스는 아이 낳고 기르기 좋은 세상을 만드는 대안언론입니다. 저희 기사가 마음에 드셨다면, 좋은 기사 후원하기에 동참해주세요. 여러분의 기사후원 참여는 아름다운 나비효과를 만들 것입니다. 불교공뉴스 좋은기사 후원 계좌안내 농협 301-0234-1422-61 (손경흥 / 불교공뉴스) ※ 소중한 후원금은 더 좋은 기사를 만드는데 쓰겠습니다. 인기기사 1[영상뉴스] 2022 괴산 세계 유기농산업 엑스포 건강한 열풍 개장! 2나태주풀꽃문학관, 제5회 풀꽃문학제 ‘두 사람’ 개최 3증평군, 트로트 가수 박군 홍보대사로 위촉 4[영상뉴스] ‘2022 괴산세계유기농산업엑스포’ D-day 1일 5[영상뉴스] 제53회 영동난계국악축제’와‘제11회 대한민국 와인축제’개막! 6[영상뉴스] 영동군, 제53회 영동난계국악축제 &amp; 제11회 대한민국 와인축제 폐막! 7영동경찰서, 지역치안협의회 정기회의 개최 8계룡세계군문화엑스포 7일 개막 9부여군, “제68회 백제문화제 순항” 10[카메라 뉴스] 2022 괴산세계유기농산업엑스포 개막식 최신기사 천태산 은행나무에 바치는 자연 시편 『천년 동무 천년 등불』 ‘시와에세이’에서 발간 옥천 ㈜더조은숲, 취약계층을 위한 꾸준한 연탄 나눔 한국농촌지도자옥천군연합회, 사랑의 쌀 기부 영동·김천·무주, 올해는 삼도봉 정상에서 변치않는 우정 확인! 영동군, 2022-2023절기 어르신 독감예방접종 12일부터 연령별 순차접종 영동군, AI·IOT기반 어르신건강관리 서비스 ‘만족도UP, 건강UP’ 옥천군 보건소 2022년‘비만예방의 날’기념 캠페인 실시 오늘의 동영상 [영상뉴스] 영동군, 제53회 영동난계국악축제 &amp; 제11회 대한민국 와인축제 폐막! [영상뉴스] 유성구, 야경이 아름다운 제13회 ‘유성 국화전시회’ [영상뉴스] 제53회 영동난계국악축제’와‘제11회 대한민국 와인축제’개막! [영상 / 포토] 충남 부여에서 열리는 제68회 백제문화제! [영상뉴스] 2022 괴산 세계 유기농산업 엑스포 건강한 열풍 개장! [영상뉴스] ‘2022 괴산세계유기농산업엑스포’ D-day 1일 [불교공뉴스·TV 힐링대담] JB가든센터 '대림묘목농원' 김정범 대표 [포토뉴스] 지용제, 3년 만에 구읍을 詩끌북적하게 하며 성료 포토뉴스 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 충청북도 옥천군 지용로 142 대성사 사업자명 : 손경흥 사업자번호 : 688-03-01080 대표전화 : 043-733-5559 팩스 : 043-733-5559 명칭 : 불교공뉴스 제호 : 불교공뉴스 등록번호 : 충북아 00049 등록일 : 2010-11-01 발행일 : 2010-11-11 발행인 : 혜철스님(손경흥) 편집인 : 손경흥 청소년보호책임자 : 이한배 불교공뉴스 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 불교공뉴스. All rights reserved. mail to webmaster@bzeronews.com 위로</t>
+  </si>
+  <si>
+    <t>제주도, 관광객 환경부담금제 실시하나? &lt; 자치행정 &lt; 정치행정 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도, 관광객 환경부담금제 실시하나? 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치행정 자치행정 제주도, 관광객 환경부담금제 실시하나? 기자명 조문호 기자 입력 2016.06.17 11:55 수정 2016.07.22 13:23 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 도‧도의회‧시민단체‧전문가 합동 워킹그룹 운영세계자연유산 입장료 징수 등 현안 대책 논의 [제주도민일보=조문호 기자] 김양보 제주도 환경보전국장(오른쪽)과 강경식 제주도의회 문화관광포럼 대표가 17일 오전 제주도청 기자실에서 제주의 자연환경 가치를 제고하는 생태관광 서비스 도입을 위한 워킹그룹을 구성한다는 계획을 밝히고 있다.[제주도민일보=조문호 기자] 제주도내 환경자산 가치 제고와 보존을 위해 환경부담금제 도입이 추진된다. 국제보호지역에는 사전 예약제를 통해 적정 탐방객 조정이 시도된다.제주도와 제주도의회는 제주의 자연환경 가치를 제고하는 생태관광 서비스 도입을 위한 워킹그룹을 구성한다고 17일 밝혔다.이는 지난달 도의회 문화관광포럼(대표 강경식) 정책토론회에서 ‘세계자연유산 입장료 징수 어떻게 할 것인가’란 주제로 논의한 결과를 바탕으로 추진하는 것이다.도가 이를 공감하고 수용하면서 도의회와 시민단체, 전문가가 함께하는 워킹그룹을 따로 구성해 현안문제를 발굴하기로 뜻을 모았다.제주는 그 동안 ‘UNESCO 3관왕’이라는 타이틀에도 불구, 저가 단체관광과 과밀한 관광객 탐방으로 인해 환경오염과 자연파괴 등으로 인한 환경보전비용이 지속적으로 증가하는 문제로 골치를 앓아왔다.도는 이번 프로젝트가 “한라산국립공원을 비롯한 제주 세계자연유산 지역과 곶자왈, 오름 등의 주요 환경자산의 훼손을 방지하면서도 관람객이 세계유산의 가치를 제대로 이해하고 즐길 수 있도록 새로운 관광시스템을 도입하는 것”이라고 설명했다.새로 발족할 워킹그룹의 주요 논제는 ▷환경수혜자 및 원인자 부담금 원칙 시스템 구축을 위한 입도객 환경부담금제 도입 ▷국제보호지역 사전예약제를 통한 적정 탐방객 관리 시스템 구축 ▷제주 자연환경 가치에 비해 저가 관람되고 있는 세계자연유산 지역에 대한 입장료 현실화 논의 ▷단체관광객 대상 해설사 투어 참여를 통한 직업형 해설사 청년 일자치 창출 등으로 현안 관광서비스 분야에 대해 세부 논의 등이다.김양보 도 환경보전국장은 이에 대해 “효율적인 운영을 통해 제주환경자산의 가치 활용의 극대화, 글로벌화를 기대한다”고 기대했다.강경식 의원은 “워킹그룹을 운영해 새로운 관광 패러다임으로 폭 넓고 질 높은 생태관광시스템이 탄생하길 기대한다”고 말했다.도는 앞으로 각 분야에서 15명 내외로 워킹그룹을 6월말까지 구성하고, 분야별 분과위원회를 구성한 뒤 다음달부터 공식활동을 시작할 계획이다. 운영기간은 6개월에서 1년으로 보고 있으며, 매달 2차례 회의를 열 예정이다.발족위원으로는 김양보 국장과 강경식 의원, 강만생 제주세계자연유산위원회 위원장 등이 참여했다.강경식 의원은 이번 워킹그룹 구성 취지에 대해 “환경훼손 원인제공자에서 부담을 물리고, 관광 서비스 제고를 통해 만족도를 높이자는 것”이라고 설명했다. 조문호 기자 jjdominilbo@gmail.com 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도·제주관광공사, 일본서 한라산·올레·오름 등 홍보 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 제주도·제주관광공사, 일본서 한라산·올레·오름 등 홍보 (제주=뉴스1) 이석형 기자					| 2016-06-09 13:10 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 © News1 제주도와 제주관광공사(사장 최갑열)는 오는 11~12일 양일간 나고야 아이치현 산업노동센터에서 개최되는 여름등산박람회에 참가해 한라산, 오름, 올레, 지오트레일, 한라산 둘레길 콘텐츠를 활용해 일본인 관광객 유치를 위한 집중 홍보를 실시한다고 9일 밝혔다.일본에서는 ‘산의 날’(8월 11일)이 새로이 휴일로 지정됨에 따라 등산, 트레킹에 대한 관심이 많아지고 있다.이어 13~19일 사단법인 제주올레(이사장 서명숙)와 공동으로 한국관광공사 나고야지사 코리아플라자에서 '제주 간세라운지 in Nagoya'를 운영한다.'간세라운지 in Nagoya'에서는 한국관광공사 나고야지사의 코리아플라자를 활용해 1주일간 개최하는 제주 트레일 콘텐츠 홍보 이벤트로 제주올레 뿐만 아니라 지오트레일, 한라산둘레길에 대한 설명회와 다양한 이벤트를 개최할 예정이다.제주관광공사 관계자는 “한라산을 활용한 제주 홍보를 통해 새로운 수요를 창출하고 앞으로 특수목적 관광 방문수요가 제주에 정착될 수 있도록 지속적인 노력을 하겠다”고 밝혔다. jejunews77@ &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 핫뉴스 이지현 "돌싱 둘째남편 시댁서 아이들 거부…살림 못 합쳤다" 선우은숙, 4살 연하 유영재 아나운서와 결혼 "최근 혼인신고" 안현모, 재혼언급 "원하는 삶 살아줄 女 만나"…라이머 당혹 한동훈 어록 출판사 "韓, 거부땐 제작 중단…아무말 없었다" '남궁민♥' 진아름, 화사한 웨딩드레스 자태 "예쁘게 살 것" 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 알록달록 뜨개옷 입은 나무들 실종된 가을 탭메뉴 스포츠 연예 스타일 스포츠 '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 '시즌 5승' 박민지, 세계랭킹 2계단 올라 16위…고진영 1위 유지 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>"관광객 유혹"…푸조·시트로엥, 제주도서 '씽씽' 본문 바로가기 NAVER 뉴스 연예 스포츠 날씨 프리미엄 검색 언론사별 정치 경제 사회 생활/문화 IT/과학 세계 랭킹 신문보기 오피니언 TV 팩트체크 구독 뉴시스 언론사 구독되었습니다. 메인 뉴스판에서 주요뉴스를 볼 수 있습니다. 보러가기 뉴시스 언론사 구독 해지되었습니다. "관광객 유혹"…푸조·시트로엥, 제주도서 '씽씽' 입력2016.06.10. 오후 1:48 수정2016.06.10. 오후 1:50 유자비 기자 유자비 기자 구독자 0 응원수 0 구독 구독중 공감 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 댓글 본문 요약봇 본문 요약봇도움말 자동 추출 기술로 요약된 내용입니다. 요약 기술의 특성상 본문의 주요 내용이 제외될 수 있어, 전체 맥락을 이해하기 위해서는 기사 본문 전체보기를 권장합니다. 닫기 텍스트 음성 변환 서비스 사용하기 성별 남성 여성 말하기 속도 느림 보통 빠름 이동 통신망을 이용하여 음성을 재생하면 별도의 데이터 통화료가 부과될 수 있습니다. 본문듣기 시작 닫기 글자 크기 변경하기 가1단계 작게 가2단계 보통 가3단계 크게 가4단계 아주크게 가5단계 최대크게 SNS 보내기 인쇄하기 【서울=뉴시스】유자비 기자 = 푸조·시트로엥의 공식수입사 한불모터스가 오는 하반기 제주도에 박물관을 오픈하는 등 제주도 사업에 공을 들이고 있다. 국내외 관광객이 몰려 유망한 시장으로 떠오르는 제주도에서 소비자 인지도를 높여 한국 시장 공략에 박차를 가한다는 계획이다. 10일 업계에 따르면 프랑스 완성차 푸조와 시트로엥 공식 수입사 한불모터스는 오는 하반기 제주도 중문 인근에 푸조·시트로엥 박물관을 오픈한다. 각 브랜드를 모은 자동차박물관은 있지만, 제주도에 브랜드 전용 박물관을 조성하는 것은 수입차업계 처음이다. 이 박물관에는 푸조 시트로앵 차량 25~30개를 전시하고, 실제 에펠탑의 10분의 1 크기인 30m 높이로 에펠탑을 전시해 프랑스 브랜드만의 감성을 관광객과 도민에게 알린다는 계획이다. 한불모터스는 제주도에서 시작한 직영 렌터카 사업도 확장한다. 지난해 8월 처음 수입차업계 최초로 렌터카 사업에 뛰어든 한불모터스는 초반에 차량 100대를 투입했다가 예약률이 100%에 가까울 정도로 수요가 높자 현재 450대까지 차량을 늘린 상태다. 현재 제주공항 인근에 건립 중인 푸조 전용 렌터카 사업장과 서비스센터를 조만간 완공하고 셔틀버스도 운영해 서비스를 확충한다는 방침이다. 푸조·시트로엥은 최근 유망한 시장으로 떠오르고 있는 제주도에서 소비자 인지도를 높여 한국 시장 공략에 박차를 가한다는 계획이다. 제주도는 연간 1200만명 이상의 관광객이 찾는데다가 제주도 이주 붐이 불면서 구매력도 높아져 수입차들의 경쟁이 치열해지고 있는 시장이다. 한국수입차협회에 따르면 지난해 제주도에서 등록·판매된 수입차 신차는 전년 대비 84% 급증했고, 올해 1~5월 누적 판매량 역시 19% 상승했다. 또 한불모터스는 오는 하반기에는 '시트로엥 C4 칵투스'를 내놓으며 국내 시장 공략에 박차를 가하고, 성수와 수원, 대구, 광주, 부산 등 주요 도시의 서비스센터 확장을 진행해 서비스도 강화한다는 계획이다. 송승철 한불모터스 사장은 "현재 제주공항 인근에 전용 렌터카 하우스 및 서비스센터를 건축 중이고 하반기에는 중문 인근에 푸조 시트로엥 박물관 및 전시장을 건립할 계획"이라며 "지속적인 인프라 보강과 기술력 향상으로 고객 만족도를 더욱 높이겠다"고 말했다. jabiu@newsis.com뉴시스 뉴스, 네이버 뉴스 스탠드에서도 만나세요뉴시스 SNS [페이스북] [트위터]&lt;저작권자ⓒ 공감언론 뉴시스통신사. 무단전재-재배포 금지.&gt; 유자비 기자 프로필 구독 구독중 유자비 기자 구독자 0 응원수 0 푸틴 70세 생일, 선물로 트랙터·수박 피라미드 받아 이란 당국 "마흐사 아미니 사인, 구타 아닌 질환" 뉴시스의 구독 많은 기자 뉴시스 기사를 더 보고 싶다면? 구독 뉴시스 언론사 구독되었습니다. 메인 뉴스판에서 뉴시스 주요뉴스를 볼 수 있습니다. 보러가기 뉴시스 언론사 구독 해지되었습니다. 닫기 Copyright ⓒ 뉴시스. All rights reserved. 무단 전재 및 재배포 금지. 이 기사는 언론사에서 경제 섹션으로 분류했습니다. 기사 섹션 분류 안내 기사의 섹션 정보는 해당 언론사의 분류를 따르고 있습니다. 언론사는 개별 기사를 2개 이상 섹션으로 중복 분류할 수 있습니다. 닫기 구독 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 구독해보세요! 구독중 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 확인해보세요! 보러가기 주요뉴스해당 언론사에서 선정하며 언론사 페이지(아웃링크)로 이동해 볼 수 있습니다. 파키스탄서 결혼 거부 여성 ´산채 화형´ "왜 쳐다봐" 70대 노인 하이힐로 폭행한 30대女 구속 "퇴근 시간이라" 병원장, 무자격자에 수술 지시 檢, 롯데 본사·신격호·신동빈 주거지 등 압색 연이은 檢 수사…위기 봉착한 ´안철수 새정치´ 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 이 기사를 추천합니다 안내 모두에게 보여주고 싶은 기사라면?beta 이 기사를 추천합니다 버튼을 눌러주세요. 집계 기간 동안 추천을 많이 받은 기사는 네이버 자동 기사배열 영역에 추천 요소로 활용됩니다. 레이어 닫기 뉴시스 언론사홈 바로가기 언론사 구독 후 기사보기 구독 없이 계속 보기 더 많은 콘텐츠를 만나는 방법 이 가을, 영화 콘텐츠 한 편 어떠세요? 영화 채널과 함께 문화 지식도 Up! 다양한 영화와 관련된 숨겨진 이야기들도 만나보세요! 뉴시스 헤드라인 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 기사내용 요약 10월10일 설악산 첫눈…지지난해보다 24일 빨라 몽골서 찬공기 춤고 남하한 '절리저기압' 영향 계절 상식 바뀌나…8월 폭우에 '장마' 변화 모색 '가을 태풍' 영향에 1973년 이래 가장 더운 9월 경찰, 이준석 2차 소환조사…성접대 여부 조만간 판단할 듯 기사내용 요약 경찰, 지난 8일 자정 넘은 시간까지 조사 이준석 무고·증거인멸 교사 의혹 등 수사 경찰 "추가 소환은 없을 듯…조만간 결론" [서울=뉴시스] 이준호 기자 = 이준석 전 국민의힘 대표의 증거인멸교사와 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 기사내용 요약 극단적 선택 시도…병원서 수술 중 경찰 "총기 소지 경로 확인 예정" [서울=뉴시스]임하은 기자 = 11일 오전 서울 서초구에서 총기 사건이 발생해 경찰이 수사에 착수했다. 경찰에 따르면 서울 서초경찰 경찰, '제2 n번방' 18명 검거…성착취물 판매자 등 3명 구속 기사내용 요약 피해자 신상정보 유포·사이트 운영하며 영상 게시 혐의 尹 비속어 논란 관련 고발장 14건 접수…절차대로 진행 '한동훈 미행 사건', 최초 고소한 수행 비서 조사 이뤄져 [서울=뉴시스]이소현 기자 = 다 유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 래퍼 언에듀케이티드 키드(25·김성우)가 대학 축제 도중 관객석으로 다이빙하다 추락했다. 언에듀케이티드 키드는 8일 인스타그램에 "나 대학교에 공연하러 가는 거 아니야 서커스 하러 가는 거야"라는 글과 함께 영상을 신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 기사내용 요약 도로 한 복판서 잠들어…경찰 "엄정 수사 중" 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경 이전 뉴스들 보기 3 다음 뉴스들 보기 뉴시스가 이 기사의 댓글 정책을 결정합니다. 안내 댓글 정책 언론사별 선택제 섹션별로 기사의 댓글 제공여부와 정렬방식을 언론사가 직접 결정합니다. 기사 섹션 정보가정치를 포함해 중복 분류된 경우 정치섹션 정책이 적용됩니다. 단, 운영규정에 따른삭제나 이용제한 조치는 네이버가 직접수행합니다. 레이어 닫기 뉴시스 헤드라인 더보기 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 10분전 경찰, 이준석 2차 소환조사…성접대 여부 조만간 판단할 듯 15분전 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 9분전 경찰, '제2 n번방' 18명 검거…성착취물 판매자 등 3명 구속 15분전 유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 1시간전 신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3시간전 뉴시스 랭킹 뉴스 오전 11시~정오까지 집계한 결과입니다. 오전 9시~정오까지 집계한 결과입니다. 더보기 더보기 많이 본 댓글 많은 1 유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 1시간전 2 "손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6시간전 3 [속보]尹 "文정부 폐지한 '학업성취도평가' 희망시 모두 참여" 1시간전 4 신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3시간전 5 [단독]대한항공, 스마트워크 도입…승무원 전원에 태블릿PC 지급 1시간전 1 [속보]尹 "국민들 北위협 걱정 말고 경제활동·생업 전력하시길" 3시간전 2 나경원 "유승민, 尹비판 과하다…자해행위 돼선 안 돼" 3시간전 3 [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 3시간전 4 유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 1시간전 5 신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3시간전 함께 볼만한 뉴스 안내 이 기사를 본 이용자들이 함께 많이 본 기사, 해당 기사와 유사한 기사, 관심 기사 등을 자동 추천합니다 닫기 재생하기 재생시간01:23 임산부 배려석 앉아있던 임신부…노부부 다가와 "비켜" 어제(10일)는 임산부의 날이었습니다. 임신과 출산을 배려하는 사회적 분위기를 만들자는 취지로 마련된 날이죠. 하지만, 여전히 우리 사회에서 임신부에 대한 배려가 다소 부족하다는 기사에 관심이 높았습니다. 대표적인 "전과자도 오세요" 대기업까지 파격 채용…미국 인력난 어느 정도기에 미국 기업들이 좀처럼 해소되지 않는 인력난에 감옥 수감 등 범죄 기록이 있는 사람의 채용을 늘린 것으로 나타났다. 코로나19 팬데믹(세계적 대유행) 이후 나타난 역대급 구인난이 '전과자 적극 채용'이란 새로운 움직임 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 11일 오전 5시 33분께 서울 서초구 잠원동 신동근린공원 인근 도로에서 50대 남성 A씨가 권총에 맞아 병원으로 이송됐다. A씨는 인근 병원에서 수술을 받았으나 정확한 상태는 알려지지 않았다. 경찰은 A씨가 극단적 오늘부터 접종 시작 '코로나 2가 백신', 알고 맞자 오늘(11일)부터 코로나19 2가 백신을 활용한 동절기 추가접종이 시작된다. 추가접종에 사용되는 2가 백신은 기존 코로나19 바이러스(우한주)와 전 세계 코로나 재유행을 주도했던 오미크론 변이 BA.1을 표적으로 한 [단독] 물은 그대론데... 장관 한마디에 KTX 세면대 '음용불가' 문구 삭제 원희룡 국토교통부 장관의 한마디에 2004년 개통 이래 유지됐던 KTX 화장실 세면대에 적혀 있던 '이 물은 마실 수 없습니다'라는 문구가 사라진 것으로 확인됐다. 다만 KTX 열차 내 세면대 수질은 그대로라서 이용 근육 노화 더디게 하는 5가지 운동습관 나이가 들면서 우리 몸은 변한다. 근육량은 줄고 신진대사는 느려져 젊을 때처럼 몸매를 유지하기가 쉽지 않다. 나이가 들어도 몸을 많이 움직이는 게 중요한 이유다. 근육이 노화되는 속도를 늦출 수 있는 운동 습관, 미 “함량 미달 이게 되겠어?” 10억원짜리 한국 ‘가상 가수’ 망했다 “사람도 힘든데, 가상 가수가 되겠어?” 회당 10억원, 제작비 총 150억원이 투입된 ‘가상 가수’가 별다른 호응을 얻지 못하고 있다. 시청률 0%대로, 사실상 실패했다는 평가다. 그럼에도 가상세계 프로그램 제작은 “‘콩’ 부딪힌 오토바이, 괜찮다더니 합의금 200만원 요구” 신호대기 중 자동차와 오토바이 간 가벼운 접촉사고가 발생했는데, “괜찮다”며 자리를 뜬 오토바이 운전자가 뒤늦게 200만 원의 합의금을 요구해왔다는 사연이 전해졌다. 지난 4일 유튜브 채널 ‘한문철TV’에는 ‘한방병 "하룻밤에 13만원 써요"…'데이트하다 빚졌다'는 美 MZ세대 미국 MZ세대(밀레니얼+Z세대) 중 상당수가 데이트 비용 때문에 빚을 졌다는 설문조사 결과가 나왔다. CNBC방송은 10일(현지시간) 미국 온라인 대출업체 렌딩트리의 설문조사 결과를 인용해 미국 밀레니얼 세대(26~ 재생하기 재생시간02:59 [단독] 독립운동가 이상재 선생에게 그려준 ‘병풍 그림’ 무더기 발견 19세기 말 미국에서 열차 두 대가 달리는 모습을 담은 이 그림은 조선 화가가 그린 최초의 미국 풍경화입니다. 주인공은 130여 년 전 초대 주미공사 일행으로 미국에 다녀온 청운 강진희라는 인물입니다. 미국에 함께 나경원 “국민의힘 지지층 조사는 항상 내가 1등···난 반윤은 아니다” 나경원 전 국민의힘 의원이 11일 차기 당대표 선거와 관련해 “가장 중요한 건 국민의힘 지지층 여론조사는 항상 제가 1등”이라고 말했다. 같은 조사에서 전체 응답자 중 1위를 차지한 유승민 전 의원을 견제하는 취지의 ‘尹 멘토’ 신평, 주어 없는 저격글 ‘파장’…“A씨, 직책 내정에 유력 인사 도움 받아” 尹대통령 ‘정권교체’ 함께 도운 A씨 겨냥 “부적절한 직책 내정” 직격 “그 직책에 당신의 직무적합성을 아무리 찾으려고 해도 찾을 수 없어” “자신의 힘으로는 벅찬지, 다른 유력 인사의 도움 받았다는 소문이 파다하더 [단독] 코레일 자회사 직원들 매일 반나절만 근무, 회사는 4년간 몰랐다 직원 6명 임의로 단축근무, 출퇴근 장부는 허위 작성 국민의힘 김학용 “公기관 근태 감시 시스템 마련 시급” 한국철도공사(코레일)의 자회사인 코레일테크 소속 일부 직원들이 4년 동안 마음대로 단축 근무를 해온 것으로 "저 죽어요? 우리애들 어떡해요" 남편에 살해당한 여성의 가슴저린 말 남편의 의처증과 폭력으로 고통을 호소해 온 여성이 이혼 통보를 하자마자 무참히 살해됐다. 여성은 숨지기 직전까지 아이들만 걱정했다. 지난 6일 MBC '실화탐사대'에서는 지난 5월 발생한 '여수 의처증 살인 사건'을 오메가3, 비타민… 하루 중 언제 먹을까? 건강기능식품의 인기가 식지 않고 있다. 한국건강기능식품협의회에 따르면 지난 2021년 국내 건강기능식품 시장규모는 5조454억 원으로 전년 대비 2.4% 성장했다. 다만, 건강기능식품별로 먹으면 좋은 때와 주의사항이 '나 무시하는거야?' 라면 끓이다 폭발한 남편의 깨달음 [시력 잃고 알게 된 세상] 희망이 사라진다는 건 내가 지워진다는 것 오늘은 남과의 관계가 아닌 내 맘속 그러니까 나와의 관계, 그중에서도 희망이 사라져가던 한때의 경험을 이야기해 보려 한다. 희망은 꼭 대단한 걸 바라는 게 아니다. 성공하겠다 "박민영 열애설 났을 때 팔 걸"…돈 물린 개미들 후회 [종토방 온에어] 암호화폐 거래소 '빗썸' 관계사들의 주가가 곤두박질치고 있다. 검찰이 이들 기업 경영진의 횡령 혐의를 포착해 강제수사에 착수한 영향으로 풀이된다. 11일 오전 10시 13분 현재 인바이오젠은 가격제한폭인 29.76% 강민경 쇼핑몰, 얼마나 잘 되길래...65억 매입 건물로 사옥 이전 가수 강민경이 쇼핑몰 사무실 이사 준비로 바쁜 근황을 전했다. 강민경은 지난 9일 자신의 유튜브 채널 '걍밍경'에 '다사다망 강민경 브이로그'라는 제목의 영상을 게재했다. 영상을 시작하기에 앞서 강민경은 “제가 요즘 "밥값 6만원인데 예약금 5만원…취소하면 절반만 돌려준대요" #직장인 차모씨(26)씨는 최근 SNS(사회관계망서비스를 통해 예약금 4만원을 지불하고 향수 공방 체험을 신청했다. 하지만 함께 공방 체험을 한 친구가 코로나19(COVID-19)에 확진되자 예약일 3일 전에 일정 새까매진 반려견 다리 '이빨 자국' 정체…한강 비상 걸렸다 한강시민공원에서 독사가 나타나 행인의 반려견을 무는 사고가 발생해 주의가 요구된다. 지난 10일 JTBC에 따르면 지난달 한강공원에서 주인과 산책하던 반려견이 독사에 물리는 사고를 당했다. 인적이 드문 곳이 아닌 산 “집값 떨어졌는데 분양가가 왜이래?” 사전청약 포기하는 당첨자들 집값 오를땐 신청 몰렸지만 시세와 비슷, 역전되자 외면 작년 400대 1까지 육박한 경쟁률 올해는 40%나 계약 철회한 곳도 지난달 LH(한국토지주택공사)는 작년 사전 청약을 했던 ‘인천검단AA21블록’에 대한 본청 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 대한민국 주권 내려놓지 않는 한 일본군 주둔 허용 안 될 것" 국민의힘 정진석 비상대책위원장은 11일 "이재명의 일본군 한국 주둔설은 문재인의 '김정은 비핵화 약속론'에 이어 대한민국의 안보를 망치는 양대 망언이자 "한날 떠나면 어쩌나" 일순간 고아로…무주 일가족 가스 참변 “한날 갑자기 떠나면 남은 가족들은 어떡합니까.” 10일 오전 전북 무주군 보건의료원 장례식장. 이곳에는 한글 연휴날 80대 노모 생일잔치를 위해 시골집에 모였다가 일산화탄소 중독으로 사망한 일가족 5명의 빈소가 동 80대 노모 생신에 일가족 5명 참변..尹대통령 "대책마련" 지시 80대 어머니 생일을 맞아 시골집에 모였던 일가족 5명이 숨진 사고를 조사 중인 경찰과 소방당국이 '일산화탄소 중독'을 잠정 사망 원인으로 결론지었다. 현장에 함께 있던 일가족 6명 중 유일한 생존자인 큰딸은 집 안 "하룻밤 데이트에 13만원"…연애하려 빚졌다는 MZ세대 최근 고물가·고금리로 청년층의 경제적 부담이 커진 미국에서 ‘MZ세대’ 상당수가 데이트 비용을 마련하기 위해 부채를 경험했다는 통계가 나왔다. 미국 CNBC방송은 10일(현지시간) 미국 온라인 대출업체 렌딩트리의 설 대통령실 "한미일연합훈련, 불났는데 이웃 힘 합치는 건 당연‥친일 프레임 의아" 대통령실은 동해상의 한미일 합동 군사훈련에 대해 "불이 나면 불을 끄기 위해 이웃이 힘을 합치는 건 너무나 당연하다"며 "양국 공해상에서 국민의 생명과 안전을 지키기 위해 한 연합훈련을 두고 친일이란 정치적 용어나 음주 운전하다 5m 낭떠러지로 추락…나무에 걸려 목숨 건져 음주 운전을 하던 남성이 낭떠러지에 추락하는 사고가 발생했습니다. 어제(10일) 전남 여수경찰서에 따르면 이날 오후 5시 14분경 전남 여수시 남면 금오도 한 도로에서 A(49) 씨가 몰던 1t 트럭이 마을로 진입하 [단독]3시간 국감서 37초 답변한 기업인… 77%가 5분도 발언 못해 지난해 국회 국정감사에 출석한 증인은 3284명, 이 가운데 부처 장관, 공공기관장 등 필수적으로 채택되는 기관 증인을 제외한 일반 증인은 119명이었다. 기업 대표 등 일반 증인들은 국감장에서 답변 기회를 얼마나 “일본은 제일 좋은 게 동영상”⋯해고된 교사, ‘선처’ 이유됐다 상습 ‘성희롱’⋯학교에서 해고 재판에서 ‘선처의 이유’ 고등학교 1학년 학생 17명에게 성희롱 발언을 서슴지 않았던 교사가 재판에 넘겨졌다. 이 교사는 벌금 200만원을 선고 받았다. 10일 법조계에 따르 [집값 버블붕괴의 시작] ①세종·인천 와르르…서울 청약불패 옛말 부동산 시장이 얼어붙으면서 집값은 떨어지고 거래절벽 현상이 극심해지고 있다. 로또 분양은 옛말이 됐고 서울 청약 열기도 이미 가신 지 오래다. 집값 폭등 원인인 '저금리, 과잉 유동성'의 시대가 끝나고 '금리 인상, 이전 뉴스들 보기 5 다음 뉴스들 보기 함께 볼만한 프리미엄 안내 프리미엄콘텐츠는 네이버가 인터넷뉴스 서비스사업자로서 제공, 매개하는 기사가 아니고, 해당 콘텐츠 제공자가 프리미엄 회원을 대상으로 별도로 발행·제공하는 콘텐츠입니다. 닫기 코스닥은 외국인 놀이터 Investment strategy 유료 왜 우리만?? Investment strategy [221011 투자시나리오] 에어라인 유료 [D] 북 핵.미사일 위협 고도화로 더욱 중요해진 한미일 연합훈련 프리미엄 조선 유료 '화웨이식 제재'라는 것 들어보셨나요? 미스터동 유료 국회, 대체 어떤 존재일까? 어른들의 사회생활 유료 동아시아 '휘두루는' 두루미 펭귄밀크 유료 대구 달서구 아파트 리스트 - 대구 실거주 수요의 집결지! 최고의 수요 입지!! 스마트튜브 부동산조사연구소 유료 강원도가 레고랜드 빚 안 갚는 진짜 이유 삼프로TV 하이라이트 유료 만원의행복! 한종목투자 48차 (10월7일)로 월천벌기, 십억벌기에 도전하자~ 수익투자 원칙에 따라 투자하세요~ 두배로 주식투자 아카데미 유료 트위치의 난: 망 사용료 내라고? 그럼 화질 깎지 뭐 효라클 일본 지하철 금지 소설 단호박 소설 이전 콘텐츠들 보기 3 다음 콘텐츠들 보기 구독 본문 듣기를 종료하였습니다. 이 기사를 추천했습니다. 추천을 취소했습니다. 맨위로 로그인 전체서비스 서비스안내 뉴스도움말 오류신고 본 콘텐츠의 저작권은 제공처 또는 네이버에 있으며, 이를 무단이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. ⓒ NAVER Corp. ⓒ 뉴시스 예 아니오</t>
+  </si>
+  <si>
+    <t>김경택 전 제주도 정무부지사 거제해양관광개발공사장 선임 &lt; 동네방네 &lt; 일과 사람들 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 일과 사람들 최종편집 2022-10-11 (화) 01:47 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 동네방네 인사 화촉 부음 본문영역 이전 기사보기 다음 기사보기 김경택 전 제주도 정무부지사 거제해양관광개발공사장 선임 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 일과 사람들 동네방네 김경택 전 제주도 정무부지사 거제해양관광개발공사장 선임 기자명 윤주형 기자 입력 2016.06.15 19:04 수정 2016.06.16 09:45 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 김경택 전 제주도 정무부지사(61)가 경상남도 거제시 지방공기업인 거제해양관광개발공사 사장에 선임됐다.거제해양관광개발공사 임원추천위원회는 최근 김경택 전 부지사를 포함해 사장 후보 2명을 권민호 거제시장에게 추천, 김 전 부지사가 최종 후보자로 선정됐다.김경택 신임 거제해양관광개발공사 사장은 제주도 정무부지사, JDC 이사장, 제주대 교수 등을 역임했다.한편 거제해양관광개발공사 사장 임기는 3년으로 2019년 6월까지고, 거제시는 신원조회 절차 등을 거쳐 조만간 신임 사장을 임명할 예정이다. 윤주형 기자 21jemin@naver.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의운세 10월11일(음력9월16일) 내 영혼이 따뜻해지는 날 장 발장 이야기 진단/포괄적 권한이양 전환 현실성 있나 예술인들 자발적 참여로 빈 땅에 '예술마을' 조성 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 제61회 탐라문화제 9일 일부 일정 10일로 연기 2 오늘의운세 10월11일(음력9월16일) 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [우리회사 창립기념일] 10월 10~16일 5 제주문학학교, 문태준 시인 초청 북토크 6 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 7 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 8 제23회 제주여성영화제 요망진작품상 '나들이' 선정 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 대규모 관광단지 '체크리스트' 검증제도 도입-국민일보 시사 시사 &gt; 전체기사 제주도, 대규모 관광단지 '체크리스트' 검증제도 도입 입력 : 2016-06-14 09:28 트위터로 퍼가기 페이스북으로 퍼가기 구글로 퍼가기 인쇄하기 글자 크게 글자 작게 대규모 관광단지 조성사업을 대상으로 타당성을 사전에 검증하는 제도가 도입됐다. 제주도는 미래비전 핵심가치인 청정과 공존에 부합하는 개발사업이 가능하도록 이달부터 ‘대규모 관광단지 체크리스트' 검증제도를 시행한다고 14일 밝혔다. 대규모 개발사업 구상의 초기단계에서 사전 체크리스트를 마련해 개발과 보전에 대한 갈등요소를 사전에 최소화하고, 사업자의 입장에서도 미래투자의 가능여부를 미리 점검하도록 하자는 취지다. 체크리스트는 인·허가 절차, 관광, 도시계획, 경관주거, 교통·환경, 일자리, 지역사회협력,에너지, 물 관리, 하수처리 등 총 10개 부문·18개 지표·62개 항목으로 구성됐다. 관광부문에서는 기획관광 실현가능성과 특화콘텐츠 구성여부, 도시계획 부문에서는 인근지역과 연계되는 도시 기반시설 계획과 생태 녹지율 유지 여부, 경관주거 부문에서는 상주직원을 위한 기숙사·임대주택 건설계획 및 준 공공임대주택단지 조성 여부 등이 검토된다. 교통과 환경부문에서는 청정 교통수단 도입·신재생에너지·생태총량보전 대책 등 환경부하 최소화 및 환경보전 상태유지를 위한 시설계획 등이 점검된다. 일자리 창출, 에너지 자체생산 규모와 저장·절감계획, 물 사용 적정성, 투자계획 등도 사전에 진단한다. 도는 이러한 사업계획 검토 후에는 협상결과가 공개되며, 도시계획자문위원회 자문과 경관·교통·재해·도시계획위원회 등 심의, 환경영향평가 심의회 심의를 거쳐 개발사업 시행승인을 하게 된다고 설명했다. 도 관계자는 “안정적 운영을 위한 최소한의 법적 기반도 정비하겠다”고 말했다.제주=주미령 기자 lalijoo@kmib.co.kr GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 수집, 재배포금지 당신이 좋아할 만한 기사 “발렛 직원이 준 차 몰았다”…신혜성, 음주운전에 절도 혐의까지 버스타는 女, 신체 만지고 도망…6급 교육공무원이었다 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 오토바이와 ‘툭’… “괜찮다”더니 병원 20번 갔다 [영상] “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 ‘풀소유’ 논란후 2년, 혜민 근황…“따가운 시선에 상처” [영상] 삼성전자 우크라 지사 건물, 러 미사일에 파손 ‘90년대 강남 큰 손’ 조춘자, 또 사기 행각…징역 7년 ‘무주 일가족 중독’ 합동감식 “보일러 연통, 그을음으로 막혀” [단독] 시중은행도 당했다… 신종 전세사기 일당 검거 14살 제자와 성관계 후 “진짜 사랑”… 전문가 “그냥 범죄” 박수홍, 父폭행 직후 녹화서 “제가 속병 전문가” 넉살 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 실시간 뉴스 의정부서 14~16일 ‘2022 아시아 모델 페스티벌’ 열려 경남도, 가을 행락 철 야영 장 인명 사고 예방 총력 올 무역적자 327억 달러…반도체·대중 수출 ‘먹구름’ 아시아엔 적수 없다… 韓펜싱 U-23 亞선수권 7연속 우승 이동환 고양시장 “일산, 신도시 선도지역 지정 조건 가장 좋아” 4조원대 인천e음 대행사 코나아이·신한·KT…3파전 치열 ‘지적장애인 살인·암매장’ 일당, 판결 불복해 항소 감사원 국감, “착하게 좀 살라” 말폭탄 속 9분만에 중지 스물네살 미드필더 음웨푸, 은퇴 선언… ‘유전성 심장 질환’이 원인 尹 “청년에 임대주택 줄 게 아니라 내 집 마련 도와야” 尹 “청년들이 미래 설계할 수 있도록 희망의 사다리 놔야” 민주 “여가부 폐지 대신 성평등가족부로 확대해야” 이재명, 여권 겨냥 “해방 후 친일파 행태와 다를 바 없다” 딤프, ‘K-뮤지컬’ 미국 OTT 통해 전 세계에 선보여 이예람 사건 녹취록 조작 의혹 변호사 “국민참여재판 받겠다”</t>
+  </si>
+  <si>
+    <t>제주도, 한국국제관광전 '최우수 부스운영상' 수상 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 한국국제관광전 '최우수 부스운영상' 수상 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도, 한국국제관광전 '최우수 부스운영상' 수상 오미란 기자 headlinejeju@headlinejeju.co.kr 승인 2016.06.13 16:10 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도와 제주특별자치도관광협회는 지난 9일부터 12일까지 서울 코엑스에서 열린 '제31회 한국국제관광전'에 참가해 '최우수 부스운영상'을 수상했다.이번 제주관광홍보관은 관람객들에게 여름철 제주에서 즐기는 각종 레저스포츠 여행지 뿐만 아니라 황금버스 시티투어 등 다양한 관광콘텐츠를 집중 홍보했다. 아울러 관광협회와 제주시 및 도내 관광업계가 적극 협력해 다양한 공동 마케팅을 펼쳤다.홍보관에서는 천연염료를 이용한 손수건 천연염색 체험과 함께 제주시 별빛누리공원과 연계한 별빛달빛 컵만들기 체험 프로그램을 진행했다.또 온라인 제주여행 전문마켓 탐나오 어플 다운로드 및 회원가입 이벤트를 진행해 박람회 기간 중 탐나오 홈페이지 신규 가입 회원을 500명 이상 모집하는 등 관람객들에게 큰 호응을 얻었다.제주도관광협회 측은 "다가오는 성수기 제주 관광객 유치를 위해 이달 말 개최되는 제4회 한국축제박람회에 참가, 여름철 제주의 다양한 축제를 홍보하는 등 지속적으로 수도권지역 현장홍보 마케팅 활동을 펼칠 예정"이라고 밝혔다.&lt;헤드라인제주&gt;&lt;오미란 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 오미란 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 몽골인 다문화가정 고향 방문 지원 &lt; 포토뉴스 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 몽골인 다문화가정 고향 방문 지원 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 포토뉴스 제주도관광협회, 몽골인 다문화가정 고향 방문 지원 기자명 고나연 기자 입력 2016.06.14 17:17 수정 2016.06.14 17:19 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고나연 기자 = 제주특별자치도관광협회 사랑나눔봉사단은 몽골인 다문화가정 1가족을 14일부터 18일까지 4박5일 일정의 고향 방문을 지원했다.이번 행사는 항공료 및 소정의 선물을 증정하는 등 고향방문 지원을 통한 사랑나눔을 실천하게 됐다. 이들 몽골인 다문화가정은 전세기 투어 일정과는 별도로 고향 방문해 18일 귀국할 예정이다. 고나연 기자 kys749@hanmail.net 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 중국 의료관광 여성 코디네이터 양성…첫 시도 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 제주도, 중국 의료관광 여성 코디네이터 양성…첫 시도 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 제주도, 중국 의료관광 여성 코디네이터 양성…첫 시도 송고시간2016-06-08 16:54 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 김호천 기자 기자 페이지 20명 모집해 100시간 교육, 자격증 응시자격 부여 (제주=연합뉴스) 김호천 기자 = 글로벌 의료관광 전문 여성 코디네이터를 양성하는 무료 교육과정이 전국에서 처음으로 개설된다. 제주도는 도내 병원의 외국인 환자 유치에 대한 지원사업으로 '제주 글로벌 헬스케어 여성 전문인력 양성' 과정을 운영한다고 8일 밝혔다. 1차로 중국 의료관광 코디네이터 여성 전문인력 양성 과정을 오는 7월 9일부터 9월 11일까지 10주간 제주관광대학교에 위탁해 운영한다. 교육시간은 매주 토·일요일 정오부터 오후 6시까지 총 100시간(이론 80시간, 실습 20시간)이다. 광고 교육비는 전액 도에서 지원하며, 수료생에게는 글로벌 헬스케어 코디네이터, 병원서비스 코디네이터, 의료통역사(중국어) 자격증 응시자격을 부여한다. 글로벌 헬스케어 코디네이터와 병원서비스 코디네이터는 민간 자격증이고, 의료통역사는 한국보건인력개발원이 주관하는 국가자격증이다. 교육 내용은 국제의료관광 마케터 및 관광산업 소개, 국제의료관광 코디네이터 실무, 의료마케팅 이해 및 사례 연구, 의학용어 및 질병의 이해, 우수병원 현장 실습, 중국어 의료통역 실기, 국제진료 시나리오, 선배 의료통역사 스토리 등이다. 국제의료관광 코디네이터 실무는 환자 응대 및 상담 관리, 의료관광 실무 및 관련 법규를 말한다. 교육대상은 기초 중국어가 가능한 도내 여대생과 취업준비 여성으로, 내달 1일까지 제주관광대 산학협력단(☎ 064-740-8863, 8758)으로 내면 된다. 모집인원은 20명이다. 도는 이 교육과정을 이수하고 글로벌 헬스케어 코디네이터와 병원서비스코디네이터 자격증을 따면 한국산업인력공단이 주관하는 국가자격증 대상인 국제의료관광코디네이터와 같은 역할을 할 수 있다고 설명했다. 국제의료관광코디네이터는 국내 병원에서 진료와 치료를 받으려는 외국인 환자에게 맞는 의료진을 연결해주고, 환자와 동반 가족의 국내 체류 및 관광을 지원하는 일을 한다. 다만, 국제의료관광코디네이터 자격시험은 공인 어학성적을 기본적으로 갖추고 보건의료 관련 학과를 졸업하거나 관련 업종에서 2년 이상 종사하는 등의 요건을 갖춰야 응시할 수 있다. 강화순 제주도 여성지원활동담당은 "이번 교육은 꼭 국가 자격증을 갖추지 않더라도 민간 자격증을 가지고 현장에서 일할 수 있는 여성 전문인력을 양성하기 위한 것"이라며 "올해 시범적으로 중국어 분야 인력을 양성하고 다른 외국어 분야로 확대할 계획"이라고 설명했다. khc@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2016/06/08 16:54 송고 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 01:37 [영상] 푸틴 "크림대교 폭발은 우크라 테러"…'핵 공격' 시계 빨라지나 영상 기사 재생시간 02:50 [영상] 크림대교 폭발로 3명 사망·상판붕괴…푸틴, 인프라 보안 강화령 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:11 [영상] 부산이 '들썩'…이지은이라 가능한 열기 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 서울서 50대 권총에 맞아…"극단적 선택 추정" 80대 아버지 흉기로 찔러 살해…60대 아들 검거 혼자 사는 70대 여성 살해하고 달아난 50대 검거 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) '李리스크 해소'에 與 당권 레이스 가열…주자간 날 선 신경전도 '포항 주차장 참사' 중학생, 한 살 부족해 보험금 못받아 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" 요트 타고 한국에, 자전거로 북극에…러 징집 회피 백태 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 kt, NC 꺾고 3위 사수…박병호 연타석 대타 홈런 폭발 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 선우은숙, 4살 연하 아나운서 유영재와 재혼 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:37 [영상] BTS 병역 국감서도 핫이슈…병무청장 "복무가 바람직" 뉴스 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 국감 2R '최대 격전지' 감사원 국감, 시작 9분만에 파행 크림대교 폭발, 보복 악순환 불당기나…우크라전 최악 확전 기로 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 광고 댓글 많은 뉴스 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 댓글수 31 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 26 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 14 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 이달 Best 관광인 고미진 씨 선정 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 이달 Best 관광인 고미진 씨 선정 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도관광협회, 이달 Best 관광인 고미진 씨 선정 기자명 고병수 기자 입력 2016.06.12 02:41 수정 2016.06.12 02:45 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ▲ 이달의 베스트 관광인으로 선정된 고미진 동양썬라이즈 상무(사진 오른쪽). 사진은 김영진 관광협회장이 고민진씨에게 선정패를 전달하는 모습. (제주=국제뉴스) 고병수기자 = 제주특별자치도관광협회(회장 김영진)는 지난 9일 제주웰컴센터 대회의실에서 '칭찬합시다' 이달의 베스트 관광인으로 (주)동양썬라이즈 고미진 상무를 선정하고 선정패와 친절 키움 꽃 화분을 전달했다.Best 관광인으로 선정된 고미진 상무는 제주도를 찾은 관광객들에게 좋은 여행일정을 제공하고 관광버스행사차량 기사들의 안전한 운행을 위한 안전교육 및 친절서비스에 대해 교육하고 있다.입사 후 16년 간 전세버스업 발전을 위해 각종 관광프로그램을 개발해 제주의 선진화된 관광문화 및 교통문화 정착에 공헌했다. 관계자는 "앞으로도 제주관광 친절 서비스에 모범이 되는 베스트 관광인을 매월 선정해 수범 사례를 공유하고 이를 계기로 제주관광 서비스 제공의 최일선에서 일익을 담당하는 종사자들의 친절 및 서비스 마인드를 한 단계 높혀나가겠다"고 했다.또한 '이를 통해 관광으로 만들어가는 희망찬 제주 만들기에 앞장서 나갈 것'이라고 덧붙였다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>5년 후 관광객 2000만 시대…제주도 경제에 훈풍이 분다 : 서울경제 주 메뉴 바로가기 본문내용 바로가기 시그널 디센터 라이프점프 서울경제TV 미주한국일보 서울경제골프 전종목시세 e-Paper 구독안내 마이페이지 로그인 이전 다음 전체메뉴 검색 전체메뉴 증권 지수정보 종목정보 국내증시 공시 종목·투자전략 정책 해외증시 채권 재테크 IB&amp;Deal 증권정보 증권일반 News봇 부동산 정책·제도 분양 주택 오피스·상가·토지 건설업계 간접투자 부동산일반 경제 · 금융 경제동향 정책 공기업 경제분석 금융정책 은행 카드 보험 제2금융 재테크 금융가 경제·금융일반 산업 기업 중기·벤처 생활 IT 바이오 산업일반 정치 대통령실 국회·정당·정책 총리실 통일·외교·안보 정치일반 사회 사회일반 전국 사회이슈 피플 국제 정치·사회 경제·마켓 기업 인물·화제 국제일반 오피니언 사설 사내칼럼 사외칼럼 문화 · 스포츠 라이프 문화 방송·연예 스포츠 자동차 영상 · 포토 영상 포토 서경 TV·방송 영화 가요 포토 검색 닫기 검색 #송현동 부지, 시민 품으로 #취득세 쇼크 #가장 쎈 독감 온다 #여가부 폐지 #벼랑 끝 이준석 #눈 먼 돈 된 태양광 대출 #실외 마스크 전면 해제 #노벨상 #김정은 딸 김주애 #어썸머니 닫기 전체서비스 증권 지수정보 종목정보 국내증시 공시 종목·투자전략 정책 해외증시 채권 재테크 IB&amp;Deal 증권정보 증권일반 News봇 부동산 정책·제도 분양 주택 오피스·상가·토지 건설업계 간접투자 부동산일반 경제 · 금융 경제동향 정책 공기업 경제분석 금융정책 은행 카드 보험 제2금융 재테크 금융가 경제·금융일반 산업 기업 중기·벤처 생활 IT 바이오 산업일반 정치 대통령실 국회·정당·정책 총리실 통일·외교·안보 정치일반 사회 사회일반 전국 사회이슈 피플 국제 정치·사회 경제·마켓 기업 인물·화제 국제일반 오피니언 사설 사내칼럼 사외칼럼 문화 · 스포츠 라이프 문화 방송·연예 스포츠 자동차 영상 · 포토 영상 포토 카드뉴스 서경스타 TV·방송 영화 가요 포토 회사소개 회사소개 CEO 인사말 서울경제가 걸어온 길 행사 및 시상 약도 및 연락처 업무문의 구독안내 광고안내 이용안내 개인정보취급방침 이용약관 청소년 보호정책 고충처리인 제보 이메일 뉴스레터 텔레그램 뉴스채널 소식 공지사항 이벤트 알립니다 스페셜 컨텐츠 All Headline Awesome Money 기자채널 이슈 연재 e-Paper 뉴스아카이브 전체기사 스타즈 클럽 백상경제연구원 아웃링크 서경골프 이달의과학기술인상 서울포럼 존경받는 기업·기업인 대상 구독 l Subscription 구독신청 이용약관과 개인정보취급방침을 읽었으며, 이에 동의합니다. (필수) 이메일을 통한 서울경제의 서비스 및 이벤트 정보 수신에 동의합니다. (선택) 팝업창 닫기 공유하기 facebook twitter kakao email 복사 이메일보내기 경제·금융일반 urlhttps://www.sedaily.com/NewsView/1KXIUKIIHJ 보내는 사람 받는 사람 ※ 여러명에게 보낼 경우 콤마(,)로 구분하세요. 확인 취소 홈 경제 · 금융 경제·금융일반 5년 후 관광객 2000만 시대…제주도 경제에 훈풍이 분다 입력2016-06-09 13:15:58 수정 2016.06.09 16:10:37 안재후 기자 facebook 공유 twitter kakao email 복사 뉴스듣기 가 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 기사저장 저장된기사목록 기사프린트 차트로 본 제주 경제와 관광객 추이 viewer 하늘에서 내려다 본 제주 성산일출봉.갈수록 늘어나는 국내외 관광객들 덕분에 제주도 경제에 활력이 샘솟고 있다. 포춘코리아가 ‘관광 제주’의 경제적 현주소를 숫자를 중심으로 알아봤다“말은 나면 제주도로 보내고, 사람은 나면 서울로 보내라”는 속담이 있다. 그런데 이젠 제주도로 사람과 돈이 함께 몰리고 있다. 제주도는 2002년 생물권보전지역, 2007년 세계자연유산, 2010년 세계지질공원 등으로 지정되면서 세계에서 유일하게 유네스코 자연과학분야 3관왕을 달성한 곳이다. 국내 최고를 넘어 세계적 관광지로 떠오른 제주는 이국적이고 청정한 자연에 반한 관광객들로 사시사철 북적거리는 글로벌 명소로 점점 더 위상을 높여가고 있다. viewer 지난해 제주도를 찾은 내외국인은 1,300만 명을 넘어섰다. 2011년부터 지난해까지 5년간 제주도를 방문한 관광객은 연평균 130만 명 이상 증가세를 보이고 있다. 제주도는 이 같은 추세가 이어질 경우, 앞으로 5년 뒤 관광객 2,000만 명 시대가 올 것으로 전망하고 있다. viewer 외국인 관광객들 중에는 단연 중국인이 많았다. 제주도 중국인 관광객은 2012년부터 폭발적으로 증가하기 시작해 지난해 220만 명을 돌파했다. 제주도는 2012년부터 중국 관광객을 늘리기 위해 중국 각지에 관광홍보 사무소를 개설했다. 동시에 중국 31개 지역과 제주공항을 연결하는 직항편 36개를 열기도 했다. 그렇다면 중국인 다음 순위는? 예상대로 일본인(지난해 기준 5만 9,000여 명)이었다. 다만 일본인 관광객은 2012년을 정점으로 매년 감소 추세를 보이고 있는 것으로 나타났다. viewer 그렇다면 제주를 방문하는 여행객은 어느 정도 돈을 쓸까? 제주관광공사가 지난해 제주도를 방문한 내외국인 6,918명을 대상으로 벌인 제주관광 실태 조사 결과에 따르면, 내국인은 평균 5.08일을 머물며 1인당 57만 2,285원을, 외국인 여행객은 평균 4.45일을 머물며 1인당 183만 2,721원을 지출하는 것으로 드러났다. 내국인이 외국인보다 훨씬 ‘짠순이, 짠돌이’ 여행을 했다고 볼 수 있다. viewer 제주도는 관광객 증가 덕분에 각종 경제 지표도 높은 수준을 보이고 있다. 2014년 제주 지역 총생산액(2015년 결과는 올해 말 공표 예정)은 13조 8,000억 원에 달했다. 2014년 경제성장률은 4.8%로 전국에서 경기(5.6%), 충남(4.9%)에 이어 세 번째로 높았다. viewer 경기가 좋다 보니 일자리 사정도 양호한 편이다. 통계청이 지난해 7개 특별·광역시를 제외한 9개 도의 시 지역(77개) 고용률을 비교한 결과 서귀포시가 전국 1위(72%)로 나타났다. 이어 충남 당진시(68.3%)와 제주시(65.9%)가 2, 3위를 차지했다(시 지역 평균 고용률은 58.6%였다). 이 밖에도 2014년 제주도의 서비스업 생산과 소매판매율은 전년 대비 각각 6.1%, 7.3% 증가해 전국 1위를 차지한 것으로 나타났다. 당시 전국적으로 나타난 내수 불황과 대비되는 결과라 할 수 있다. viewer 감귤밭 너머로 제주도의 상징과도 같은 한라산이 보인다.서울경제 포춘코리아 편집부/하제헌 기자 azzuru@hmgp.co.kr &lt; 저작권자 ⓒ 서울경제, 무단 전재 및 재배포 금지 &gt; ※ 본 사이트에 게재되는 정보는 오류 및 지연이 있을 수 있으며, 그 이용에 따르는 책임은 이용자 본인에게 있습니다. 오늘의 핫토픽 # 송현동 부지, 시민 품으로 # 취득세 쇼크 # 가장 쎈 독감 온다 # 여가부 폐지 # 벼랑 끝 이준석 오늘의 이슈 #이준석 추가 징계 나경원 "국민의힘 지지층 7주 연속 1등은 나" #국감 초점 박홍근 “감사원, 前정부인사 민간인 시절기록 사찰…공수처 고발할 것” #감사원 '文 서면조사' 논란 박홍근 “감사원, 前정부인사 민간인 시절기록 사찰…공수처 고발할 것” #마약민국 묻지마 폭행하고 "마약 했다"는 남성…경찰이 돌려보냈다 #尹, 비속어 논란 홍준표, 또 유승민 직격…"배신 경력 있는 사람은 가라" 이시간 주요 뉴스 영상 뉴스 '컴백홈' 지금의 날 만들어 준 고향, 구수하고 정겹다 도로 위 '모세의 기적'…경찰·택시기사, 환자 생명 구했다 한미, 北 대응 사격중 미사일 오발…강릉서 '폭발 화재' 넷상 초밀착 웹드라마 '밈의 생활화', 손우민♥김도림 커플 싸움 직관…결말은? "인도네시아 축구장 난동으로 최소 129명 사망"…무슨일 코스피 코스닥 10.11 11:57:01 개인 외국인 기관 (억원) 10.11 11:57:01 개인 외국인 기관 (억원) 인기 포토 뉴진스 목격! 든든하軍 심장에 한 발! 양조위의 화양연화 샤넬♥제니 저항하라 부산 찾은 스타들 프로스트! 오늘의 연재 한입뉴스 CU×미래에셋페이 ‘편털’ 이벤트 진짜 ‘편털’에 조기종료[한입뉴스] 주식 초고수는 지금 저가 매수 나선 개미들…삼성전자·NAVER 줍줍 뒷북비즈 4C 덫에 걸린 K반도체…“국가대항전서 낙오될 수도” [뒷북비즈] 인더뷰 대리·과장부터 임원까지 '3조' 채용 시장 노리는 리멤버[인더뷰] 서경 디지털 38개의 포토 든든하軍 23개의 포토 양조위의 화양연화 18개의 포토 저항하라 76개의 포토 샤넬♥제니 EBITDA 마진율 회계기준에 따른 차이를 제거한 현금기준 실질 수익성 판단 지표로, 매출을 통해 어느정도의 현금이익을 창출 했는가를 의미한다. 즉, EBITDA마진율은 매출액 대비 현금창출능력으로 볼 수 있으며, 일반적으로 마진율이 높을수록 기업의 수익성이 좋다고 판단할 수 있다. EBITDA마진율 = (EBITDA ÷ 매출액)*100% 1. 코주부 코인, 주식, 부동산 투자 정보만 쏙쏙! 코주부와 성투해요. 2. 지구 나랑 상관 있는 친환경 뉴스. 매주 화·목요일에 만나요. 3. Daily Brief 매일 아침, 데일리브리프가 핵심 경제 뉴스를 전해드립니다. 4. 연재기사 서울경제의 모든 연재기사를 메일함에서 받아보실 수 있습니다. 5. 스타기자 서울경제의 스타기자를 구독하세요. 기사가 출고되면 이메일로 알려드려요. 증권 지수정보 종목정보 국내증시 공시 종목·투자전략 정책 해외증시 채권 재테크 IB&amp;Deal 증권정보 증권일반 News봇 부동산 정책·제도 분양 주택 오피스·상가·토지 건설업계 간접투자 부동산일반 경제 · 금융 경제동향 정책 공기업 경제분석 금융정책 은행 카드 보험 제2금융 재테크 금융가 경제·금융일반 산업 기업 중기·벤처 생활 IT 바이오 산업일반 오피니언 사설 사내칼럼 사외칼럼 정치 대통령실 국회·정당·정책 총리실 통일·외교·안보 정치일반 문화 · 스포츠 라이프 문화 방송·연예 스포츠 자동차 사회 사회일반 전국 사회이슈 피플 영상 · 포토 영상 포토 국제 정치·사회 경제·마켓 기업 인물·화제 국제일반 서경스타 TV·방송 영화 가요 포토 공지 [알립니다] 서울경제 개인정보취급방침 변경 공지 회사소개 광고안내 개인정보취급방침 이용약관 청소년보호정책 제보 고충처리인 초판보기 전체기사 뉴스아카이브 관련사이트 미주한국일보 서울경제TV 시그널 레이디스클래식 디센터 라이프점프 더폴리틱스 서울경제골프 백상경제연구원 이달의 과학기술인상 서울포럼 주소 : 서울특별시 종로구 율곡로 6 트윈트리타워 B동 14~16층 대표전화 : 02) 724-8600 상호 : 서울경제신문사업자번호 : 208-81-10310대표자 : 이종환등록번호 : 서울 가 00224등록일자 : 1988.05.13발행 ·편집인 : 이종환 인터넷신문 등록번호 : 서울 아04065 등록일자 : 2016.04.26발행일자 : 2016.04.01 서울경제의 모든 콘텐트는 저작권법의 보호를 받는 바, 무단 전재·복사·배포 등은 법적 제재를 받을 수 있습니다. Copyright ⓒ Sedaily, All right reserved 서울경제를 팔로우하세요! 서울경제신문 텔레그램 뉴스채널 서울경제 어썸머니 모바일 버전 보기</t>
+  </si>
+  <si>
+    <t>제주도 관광지 우도 힐링 소풍 '맛집, 로맨틱, 성공적' 지역현안이슈 도움이되는경제 문화수도광주 농어촌이야기 힐링투어 5·18민주인권평화 위클리 #창간특집 전체보기 정치 중앙정치 지방정치 지방의회 경제 부동산 기업 쇼핑/유통 일반경제 사회 사회일반 사건사고 교육 5·18 지역 광주광역시 전라남도 문화 문화일반 공연/전시 문학/책 ACC 비엔날레 사람들 사람들 인사 부고/결혼 사회공헌 알림 바로잡습니다 오피니언 지역신문공동칼럼 아침시평 경제인의 창 무등칼럼 약수터 사설 무등의 시각 교단칼럼 건강칼럼 기고 발언대 스포츠 KIA타이거즈 페퍼여자배구 광주FC 일반스포츠 연예 쉼 맛집 여행/축제 건강/의료 무등TV 무등TV 무등포토 포토뉴스 기획연재 위클리 무클리 카드뉴스 위클리 인스타툰 PDF 신문지면보기 페이스북 유튜브 구독신청 기타 검색 검색 제주도 관광지 우도 힐링 소풍 '맛집, 로맨틱, 성공적' 입력 2016.06.15. 17:16 글자크게 글자작게 인쇄하기 카카오톡 페이스북 트위터 네이버 공유하기 카카오 밴드 http://www.mdilbo.com/detail/etc/484053 http://www.mdilbo.com/detail/etc/484053 URL복사 제주도에서 가장 큰 섬인 ‘우도’. 섬의 형태가 소가 드러눕거나 머리를 내민 모습과 비슷하다고 하여 우도라고 이름이 지어졌다고 한다. 우도는 푸르른 초원들로 가득한 오솔길, 새까만 돌담과 촘촘히 엮여있는 초가지붕이 한적하게 펼쳐져 있다.곳곳에 아름다운 경치들이 숨어있고, ‘하늘과 땅, 낮과 밤, 앞과 뒤, 동과 서가 모두 아름답다’는 우도 8경의 부서진 산호가 이루어져 있는 백사장은 절대로 놓쳐서는 안 되는 우도의 빼어난 경관 중 하나이다. 남서쪽의 동천진동 포구에는 일제강점기 일본인 상인 착취에 대항한 우도 해녀들의 항일항쟁을 기념하는 해녀노래비가 세워져 있으며, 남동쪽 끝에 위치한 쇠머리오름에는 우도 등대도 자리하고 있다.또, 바다낚시, 스쿠버다이빙 등 여행객에게 풍성한 즐길 거리도 가득하다. 올레길은 차가 많이 다니는 해안도로 뿐 만아니라 내륙의 소박한 돌담길도 있기 때문에 자전거를 타거나 천천히 걸으며 여유로이 우도 곳 곳 숨겨져 있는 보석을 찾는 재미도 쏠쏠하다.섬 남동쪽에는 검은 모래의 검멀레가 있는데 흔히 접하던 하얀 해변과는 대조적인 매력이 가득하다. 에메랄드빛 바다를 자랑하는 하고수동 해수욕장은 섬 북동쪽에서 관광객이 끊이지 않는 명소이기도 하다.우도는 땅콩, 뿔소라 등 다양한 특산물이 존재 하고, 우도짬뽕, 한라산볶음밥은 이미 sns에서 유명한 우도 대표 음식들이다. 우도맛집 ‘아름다운소풍’은 이 두 가지 음식을 한 자리에서 맛볼 수 있는 음식점으로 유명한데, 바다와 해안도로가 보이는 야외 테라스 또한 이 곳의 인기 비결이다. 제주도에 딸린 외딴 섬 우도. 평화롭고 아름다운 우도에서 힐링여행을 해보는 것은 어떨까. 좋아요 0 슬퍼요 0 후속기사 원해요 0 저작권자 ⓒ 무등일보 기사제공. 무단전재-재배포 금지 독자 여러분의 제보를 기다립니다. 광주・전남지역에서 일어나는 사건사고, 교통정보, 미담 등 소소한 이야기들까지 다양한 사연과 영상·사진 등을 제보받습니다.메일 mdilbo@mdilbo.com전화 062-606-7700카카오톡 플러스친구 ''무등일보' ' 댓글0 작성자를 입력하세요. 비밀번호 입력하세요. 권리침해, 욕설, 특정 대상을 비하하는 내용을 게시할 경우 이용약관 및 관련 법률에 의해 제재될 수 있습니다. 공용기기에서는 사용 후 로그아웃 해주세요. 0/300 등록 댓글삭제 비밀번호를 입력하세요. 삭제 알림 '댓글 신고'는 깨끗한 게시판 문화를 위해	마련된 기능입니다. 욕설, 비방, 명예훼손 등 사용자 모두에게 피해를 줄 수 있다고 판단되는 댓글이라면 클릭해주세요. 신고하기 심층기획 코로나시대 생활쓰레기 팬데믹 텀블러 아니면 커피 안판다···"지구에 이로운 일이 결국 우리에게 이로워" 농촌 창업 청년들 성공스토리 "자연 그대로의 맛과 향을 담는다" 광주·전남 코로나 발생 2년 방역 최전선서 고군분투한 이름 없는 영웅들 여론조사 광주시민 절반 이상 무등산 케이블카 설치 '찬성' [무등일보·뉴시스·전남일보·MBC·CBS 공동 여론조사ㅣ무등산 케이블카] 찬성 55.7% 반대 38.8%… 18.9% 차 70세 이하 모든 연령대서 고루 지지 광주 현안 중 최우선은··· 28.9% "군공항 이전" [무등일보·뉴시스·전남일보·MBC·CBS 공동 여론조사ㅣ시급한 광주 현안은] 쇼핑몰 16.0%… AI도시 육성 14.8% 無 김산, 탈당해도 현직 프리미엄··· 民 최옥수에 21.4%p차 [무등일보·뉴시스·사랑방닷컴 공동 격전지 지방선거 여론조사ㅣ무안군수 후보 지지도] 모두 경선 컷오프… 최, 재심 끝 공천 김, 강력한 조직력에 큰 격차 분석 최대 현안은 ‘남악·오룡지구 활성화’ 無 강인규 선두··· 民 윤병태 4.9%p차 바짝 따라붙어 [무등일보·뉴시스·사랑방닷컴 공동 격전지 지방선거 여론조사ㅣ나주시장 후보 지지도] 민주당 강세 역대선거와 다른 양상 오차 내 초박빙 구도 지속 가능성 최대 현안은 ‘SRF 열병합발전소’ 스페셜 기획 메타버스 2022 광주 에이스페어 성황리 폐막 국내 최대 콘텐츠 종합전시회 '2022 광주 ACE Fair'가 지난 22일 김대중컨벤션센터에서 개막해 4일 간의 일정을 마치고 25일 성황리에 폐막했다.'문화콘텐츠 중심 도시' 광주에서 열린 이번 전시회에는 OTT, 메타버스, NFT, 콘텐츠 머니타제이션 등 디지털 플랫폼업체 및 신기술 보유업체와 함께 방송, 애니메이션·캐릭터, VR/AR, 게임 등 전 세계 35개국 398개사가 참여해 485개 전시 부스에서 다채로운 콘텐츠와 신제품으로 관람객을 만났다.특히 올해에는'디지털 트랜스포메이션과 콘텐츠 가치의 확장'을 주제로 콘텐츠와 디지털 기술을 결합해 시너지 효과를 발휘할 수 있는 업체들이 주목을 받았다. 현장에서는 VR기기 등을 착용하고 가상현실을 체험해볼 수 있는 실감형 콘텐츠와 다양한 장르와 결합한 AR게임 등이 관람객들의 높은 참여를 이끌어내며 관심을 모았다.이외에도 광주정보문화산업진흥원, 광주디자인진흥원, 전북콘텐츠융합진흥원, 전남정보문화산업진흥원 등 각 기관들에서 지원받아 개발된 게임과 애니메이션 등 다양한 콘텐츠들을 살펴 볼 수 있었다.구와 함께 전시장을 찾은 대학생 임지연씨는 "방송 콘텐츠 업체들의 부스를 찾아 신작들을 살펴보고 게임업체 부스에서 다양한 게임을 체험해 보며 시간 가는 줄 모르고 재미있게 즐길 수 있었다"고 말했다.또 K-콘텐츠 수출과 투자 지원을 위해 국내외 참가기업 236개사, 국내외 바이어 140개사가 참여한 가운데 비즈니스 수출 상담회가 개최됐으며 총 614건의 상담을 진행해 수출상담액 1억6천700만달러를 기록했다.특히, 지역 기업인 상단스튜디오가 이탈리아 VECA TWINS사와 450만달러, 마로스튜디오가 페루의 America TV와 200만달러 계약을 체결하는 등 전년 19건 대비 515% 증가한 총 113건, 5천200만달러의 계약체결 성과를 거뒀다.김상묵 사장은 "흥미롭고 수준 높은 K-콘텐츠와 디지털 신기술 업체가 한 자리에 모인 이번 전시를 통해 콘텐츠업계 종사자뿐 아니라 일반 시민들도 다양한 K-콘텐츠를 직접 체험해 볼 수 있었다"면서, "올해로 17회차를 맞이한 광주에이스페어가 K-콘텐츠 산업의 교두보로써 문화콘텐츠 산업의 경쟁력 강화 및 해외 진출에 도움이 될 수 있도록 앞으로도 지속적으로 성장시키겠다"고 덧붙였다. 박석호기자 haitai2000@mdilbo.com 노잼도시 거리 곳곳에서 문화예술축제 즐겨요 ‘2021 광주프린지페스티벌’ 4회차 공연이 지난 21일 광주시 북구 청소년수련관에서 펼쳐졌다. 이날 애시드 브레이커스 팀이 힙합·스트릿 댄스를 하고 있다. 임정옥기자 joi5605@mdilbo.com광주시는 광주 프린지 페스티벌, 아트피크닉, 대인예술시장 축제 등이 잇따라 시작되면서 거리 곳곳에서 문화예술축제를 즐길 수 있다고 19일 밝혔다.먼저 프린지 페스티벌이 6월4일 개막했으며, 아트피크닉은 6월11일, 대인예술시장 축제는 7월9일 오픈했다.2016년 시작된 광주 프린지 페스티벌은 거리 공연과 다양한 장르의 공연예술을 집중시키고 문화예술 향유·체험 공간을 광장으로 확장시키는 효과를 톡톡히 불러일으키고 있다. 올해는 9월3일까지 '시민, 예술愛 물들GO'를 주제로 매주 토요일 5개 자치구 거점 공간에서 진행된다. 국립아시아문화전당을 넘어 마을로 행사 장소를 넓히면서 문화예술 향유와 참여의 폭이 확대됐다.이어 9월24일부터 10월22일까지는 매주 토요일 국립아시아문화전당과 5·18민주광장에서 시민과 함께 할 예정이다. 운영 시간은 오후 4시부터 밤 8시까지다.도심에서 열리는 문화예술 소풍 ‘2022 아트피크닉’이 11일 광주 북구 국립광주박물관에서 개막됐다. ‘박물관에 놀러온 근데 예술 FUN:장’으로 행사의 문을 연 아트피크닉에서 어린이들이 흙속에서 곤충을 살피는 교육 체험을 하고 있다. 양광삼 기자ygs02@mdlibo.com올해로 7번째를 맞은 아트피크닉은 도심 속 문화 예술 소풍 행사로, 가족이 함께하는 보고, 듣고, 즐기는 문화예술 프로그램으로 호응을 얻어왔다.특히 이 프로그램을 계기로 중외공원은 시민 생활문화 속 예술공원으로 자리매김하고 있다.올해는 중외공원 경관공사로 국립광주박물관으로 주 무대를 옮겼으며, 자치구를 찾아가는 프로그램도 10회 예정돼있다. 운영시간은 11월12일까지 매주 토요일 오후 2시부터 6시까지이며, 혹서기에는 오후 5시부터 밤 8시까지로 시간을 조정한다.대인예술시장 축제는 2008년 개최된 광주비엔날레의 대인시장 '복덕방 프로젝트'를 통해 예술과 일상의 삶이 함께하는 예술시장 축제로 자리 잡았다. 2018년에는 국내 전통시장 중 유일하게 한국관광의 별로 선정됐다.올해는 7월 두 차례 행사를 개최한 데 이어 잠시 혹서기 휴식기를 가지고, 8월27일 가을 프로그램으로 다시 돌아온다. 운영시간은 오후 5시부터 밤 10시까지다.이 밖에도 오는 10월에는 미디어아트 페스티벌도 열린다. 광주시는 미디어아트페스티벌과 융합하여 3대 대표 거리문화예술 축제가 광주 도시에 빛을 입힌 예술관광으로 활력 넘치는 도시가 될 것으로 기대하고 있다.김준영 시 문화체육관광실장은 "시민들이 일상 속에서 문화예술을 즐기고 모두의 삶이 여행이 되는 꿀잼 도시, 광주를 만들어 나가는 데 최선을 다하겠다"고 말했다. 박석호기자 haitai2000@mdilbo.com MZ세대 MZ세대, 中企 일자리 선택 조건 1위 '워라밸' 중소기업에 취업하는 MZ세대가 워라밸과 근무환경 등에 대한 관심이 높아진 것으로 나타났다.중소기업중앙회는 2019년부터 2022년 5월까지 3년 5개월 기간 중 소셜·온라인 미디어(카페·블로그, 커뮤니티, 지식in 및 잡플래닛)에 나타난 MZ세대의 중소기업 취업관련 데이터 26만8천329건을 수집·분석한 결과를 4일 발표했다.수집된 데이터 중 중소기업 취업에 대한 고민을 언급한 데이터는 6만8천245건으로, 분석 결과 MZ세대 구직자의 관심도는 2019년에는 자기성장가능성이 40.5%로 가장 높고, 근무시간이 14.9%, 급여수준 14.4% 순이었는데, 2022년의 경우 근무시간이 25.8%로 가장 높고 자기성장가능성 21.3%, 급여수준 17.3%, 조직문화 13.1% 순이었다.MZ세대 재직자도 비슷한 관심사를 보인 것으로 나타났다. 구직자와 재직자 모두 자기성장가능성, 근무시간, 급여수준을 주로 언급하고 있지만 재직자의 경우 조직문화보다는 근무환경에 대한 관심이 더 높은 것으로 조사됐다.중소기업 취업의 긍정적 측면으로 MZ세대 구직자 및 재직자 모두 '경력을 쌓을 수 있다'는 점을 주로 언급하고 있으며, 상대적으로 '낮은 연봉'에 대해 부정적으로 인식했다.구직자의 경우 중소기업에 대한 긍정적 인식으로 '빠른 취업이 가능하다는 점', 부정적 인식으로는 '취업의 어려움'을 주로 언급해 전반적으로 얼어붙은 취업시장에 대한 불만족을 반영하고 있는 것으로 추정된다.재직자의 경우 중소기업 근무를 지속하는 이유로는 '좋은 동료'와 '워라밸 가능', '커리어와 이직을 위한 경력 쌓기' 등이 주로 언급됐고, 워라밸이 보장되지 않는 경우에 대해서는 부정적 인식을 보였다.윤위상 중기중앙회 KBIZ중소기업연구소장은 "MZ세대는 평생직장보다는 자기성장가능성이나 워라밸 등을 중요시 하는 한편, 중소기업을 대기업 등 더 나은 직장으로 옮겨가기 위한 징검다리로 인식하는 경향을 보였다" 며 "MZ세대를 대상으로 '참 괜찮은 중소기업 일자리 플랫폼'이나 온라인 취업 커뮤니티 등을 활용해 중소기업의 근무환경, 조직문화 등에 대한 정보 교류 채널 마련에 적극적으로 나설 필요가 있다"고 말했다.한경국기자 hkk42@mdilbo.com 지방소멸 '청년 머무는 전남' 위해 2.4조 쏟아붇는다 전남도가 지방 소멸 불안에서 벗어나 인구구조 회복을 위한 청년 중심의 정주여건 개선에 10년 동안 2조원 이상을 투자한다.특히 청년 문화센터나 청년공공임대주택 건립, 청년창업·활동 등 '청년이 찾는 전남'을 위한 사업에 집중 투자해 지속가능한 지역 발전의 기초를 다진다는 계획이다.9일 전남도에 따르면 향후 10년 동안 지방소멸대응기금(이하 대응기금)과 시군비 등 2조4천억여 원을 마련해 지역 청년인구 유출과 청년 인구 유입 등 각종 지원사업과 정주여건 개선 등에 상당량의 기금이 투자되는 것으로 나타났다.광역기금 505억여 원에 기초기금 1천200억여 원, 기초기금 40% 수준의 시군비 등 매년 2천400억여 원이 올해부터 10년간 매년 투입된다.우선 올해부터 2025년까지 광역기금 883억여 원과 기초기금·시군비 900여 억원 등 1천800억여 원을 투입해 12개 사업에 사용된다.기금 사용 내용의 키워드는 '청년 지원', '정주여건 개선', '농산어촌 유학 활성화' 등 크게 세가지로 나눌 수 있다.먼저 총 5개의 사업이 추진되는 청년 지원 사업 중 1순위는 청년문화센터 건립이다. 도내 22개 시군 중 공모를 통해 권역별로 4층 규모의 청년점포와 공유오피스, 공연장, 체육시설, 스튜디오 등 2곳을 건립하는데 400억원을 지원한다.2순위인 청년공공임대주택 건립 사업도 눈에 띈다. 구례군·고흥군·해남군 등 3곳에 130여 세대의 공공주택 건립에 360억원을 투입한다.구례군에는 공유사무실과 쉐어하우스, 원룸 등 3층 규모의 공공주택에 82억원을 지원하고, 고흥군 점암면 폐교 부지에 가족형 30호와 원룸형 15호 규모의 임대주택 45동을 건립하는데 127억을 사용한다. 해남군에는 해남읍 체육관 잔여부지에 청년들을 위한 연립주택 3동을 건립하는데 151억을 사용한다.3순위는 전남형 청년마을 만들기 사업이다. 올해 5곳과 2023년 10곳 등 15곳을 조성하는 이 사업에 45억원을 투입하며, 대상지는 공모로 선정한다.청년 창업을 지원하는 사업에도 100팀을 선발하는데 45억원이 쓰이며, 청년공동체 활동을 지원하는데도 200팀에 30억원이 사용된다.전남의 정주여건을 크게 개선할 것으로 기대를 모으고 있는 세대어울림 복합 커뮤니티 센터도 장흥과 완도, 신안 등 3개 군에 건립된다. 예산은 모두 240억원 수준.100억원의 예산이 예상되는 장흥의 커뮤니티 센터는 옛 장흥교도소 부지에 4층 규모로 신축해 공동육아 나눔터와 키즈맘카페, 여성 거점공간, 공유 오피스 등이 들어서고, 완도 커뮤니티 센터 역시 70억원을 들여 공연장과 청년센터, 놀이방 카페 등이 들어선다. 신안 안좌중 분교를 리모델링해 영유아부터 노인 층까지 전 세대가 두루 이용할 수 있도록 조성한다.또 전남의 노동자들 만을 위한 기숙사를 조성하는데도 210억원을 배분했다. 화순 백신산업특구 근로자들을 위한 50실 규모의 게스트하우스가 특구 내에 지어질 예정이다. 신안지역 염전 근로자들을 위한 기숙사도 빈집 등을 리모델링해 3개 권역에 30동이 들어선다. 공모를 통해 농어촌 간호인력 기숙사도 건립한다.뚜렷한 인구감소세를 보이고 있는 15개 군(무안·신안군 제외)과 순천시에 농산어촌 유학 활성화 사업을 위해 280억원을 투입한다. 농산어촌 유학마을 조성사업은 청년 인구 늘리기 와 함께 전남도가 지역 소멸을 막기 위해 추진하는 또 다른 핵심 사업이다.사업비는 유학 오는 가족들이 거주할 수 있도록 새 주택을 짓거나 빈집을 리모델링하는데 쓰인다.전남도는 어린 자녀들을 자연환경이 뛰어난 농산어촌에서 키우려는 도시지역 학부모들이 늘고 있는 만큼 향후 농산어촌 유학마을이 인구 유입에 큰 역할을 할 것으로 보고 있다.선양규 전남도 인구청년정책관은 "전남의 지방소멸대응기금은 고령화로 인해 소멸 위기의 불안감에서 벗어날 수 있는 밑바탕이 될 것"이라며 "농산어촌 유학마을이나 청년주택 등 청소년과 청년들이 찾고 머물 수 있는 생활 인프라가 구축되면, 지역을 떠나는 청년은 줄고, 돌아오는 이들은 크게 늘어날 것으로 기대하고 있다"고 설명했다.선정태기자 wordflow@mdilbo.com 회사소개 | 편집규약 및 윤리강령 | 독자권익위원회 | 개인정보보호정책 | 청소년보호정책 | 고충처리인 | 사우회 광주 광역시 북구 제봉로 324 5층 (주)SRB 무등일보 명예회장: 김정수 회장: 조덕선 사장 발행·편집인: 김종석 등록번호 : 광주 가-3 등록연월일 : 1988년 4월 25일 기사제보/문의메일 : mdilbo@mdilbo.com 대표전화 : 062-606-7700 광고문의 : 062-606-7772 구독신청 : 062-606-7700 본 사이트에 게재된 모든 기사의 판권은 본사가 보유하며, 발행인의 사전 허가 없이는 기사와 사진의 무단 전재복사를 금합니다. Copyright ⓒ (주)SRB 무등일보 All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도, 2020년 크루즈관광객 230만명 유치 &lt; 정치종합 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 01:47 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도, 2020년 크루즈관광객 230만명 유치 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 정치종합 제주도, 2020년 크루즈관광객 230만명 유치 기자명 강승남 기자 입력 2016.06.01 15:51 수정 2016.06.01 19:32 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 도, 5개년 계획 발표…경제파급효과 1조2천억 제주도는 2020년 크루즈관광객 230만명 유치·경제파급효과 1조2000억원 달성을 목표로 크루즈산업을 육성한다.1일 도는 이 같은 내용을 담은 '제주도 크루즈산업 5개년 육성 종합계획'을 발표했다.총 투자액은 국비 92억원, 도비 166억원, 민자 152억원 등 모두 410억원이다.도는 우선  2020년까지 민군복합형관광미항 2개 선석(2017년), 제주외항 1개 선석(2020년)을 추가로 확보해 모두 5개의 크루즈전용 선석을 운영한다. 또 단체 및 개별 크루즈 관광객을 대상으로 한 맞춤형 기항지 관광상품 개발에 나선다.또 내년 하반기 개항하는 민군복합항에 크루즈 관광객 유치를 위해 선사와 모객 여행사 대상 마케팅을 강화하고 상하이·텐진·후쿠오카 등 아시아 크루즈 기항지간 공동마케팅을 위한 협력체계도 구축키로 했다.이와 함께 기항지 관광시장의 발전과 건전한 크루즈 인바운드 관광시장 형성을 위한 크루즈 전문 여행사를 육성하고 크루즈선용품 물류센터를 제주항 크루즈부두 인근에 건립키로 했다. 강승남 기자 stipool@hanmail.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의운세 10월11일(음력9월16일) 내 영혼이 따뜻해지는 날 장 발장 이야기 진단/포괄적 권한이양 전환 현실성 있나 예술인들 자발적 참여로 빈 땅에 '예술마을' 조성 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 제61회 탐라문화제 9일 일부 일정 10일로 연기 2 오늘의운세 10월11일(음력9월16일) 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [우리회사 창립기념일] 10월 10~16일 5 제주문학학교, 문태준 시인 초청 북토크 6 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 7 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 8 제23회 제주여성영화제 요망진작품상 '나들이' 선정 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 인도네시아 발리여행업협회와 우호교류 협약 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 인도네시아 발리여행업협회와 우호교류 협약 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회, 인도네시아 발리여행업협회와 우호교류 협약 편집팀 headlinejeju@headlinejeju.co.kr 승인 2016.06.21 19:16 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회(회장 김영진)는 22읿터 25일까지 인도네시아 발리를 방문해 신흥 시장 확대 및 동남아 관광객 유치 활성화를 통한 제주관광 시장 다변화를 도모하기 위해 인도네시아 발리여행업협회와의 신규 우호교류 협약 체결 및 협력 비즈니스 마케팅을 전개한다.방문기간 내에 개최되고 있는 발리국제관광전(BBTF 2016)에 참가해 한국관광공사 자카르타지사와 공동으로 제주관광상품 홍보활동도 전개할 예정이다. &lt;헤드라인제주&gt;&lt;헤드라인제주 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 편집팀 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도, 크루즈관광객 유치 집중 투자-국민일보 시사 시사 &gt; 전체기사 제주도, 크루즈관광객 유치 집중 투자 5년간 410억 투입 840만명 목표 입력 : 2016-06-02 19:01 트위터로 퍼가기 페이스북으로 퍼가기 구글로 퍼가기 인쇄하기 글자 크게 글자 작게 제주도가 향후 5년간 크루즈관광객 840만명을 유치하기 위해 발 벗고 나섰다. 제주도는 2020년까지 총 410억원을 투입, 크루즈산업 기반구축·기항지 수용태세 강화·마케팅 활성화 등을 중점 추진하는 ‘제주도 크루즈산업 5개년 육성 종합계획’을 확정했다고 2일 밝혔다. 2020년에는 크루즈 선박이 제주에 1000회 입항해 연간 1조2000억원의 지역경제 파급효과를 달성한다는 목표도 정했다. 지난해 제주를 찾은 크루즈관광객은 62만명이다. 도는 올 연말까지 100만명을 유치하고 2017년 140만명, 2018년 170만명, 2019년 200만명, 2020년 230만명이 제주를 찾게 한다는 방침이다. 도는 2020년까지 크루즈선석을 5개로 늘려 대형크루즈 5척이 동시 입항할 수 있는 체제를 갖추기로 했다. 현재 갖춰진 2개의 선석에다 내년 강정 민군복합항에 선석 2개를 확보하고, 2020년 제주외항에 1개를 추가한다는 구상이다. 도는 또 크루즈 인바운드(외국에서 내국으로 입국하는 것) 관광시장 형성을 위해 ‘크루즈 전문 여행사’를 육성하는 한편 중국 상해·텐진, 일본 후쿠오카 등 아시아 크루즈 기항지 도시 간 공동 마케팅 및 협력체계도 강화한다.제주=주미령 기자 lalijoo@kmib.co.kr GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 수집, 재배포금지 당신이 좋아할 만한 기사 “발렛 직원이 준 차 몰았다”…신혜성, 음주운전에 절도 혐의까지 버스타는 女, 신체 만지고 도망…6급 교육공무원이었다 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 오토바이와 ‘툭’… “괜찮다”더니 병원 20번 갔다 [영상] “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 ‘풀소유’ 논란후 2년, 혜민 근황…“따가운 시선에 상처” [영상] 삼성전자 우크라 지사 건물, 러 미사일에 파손 ‘90년대 강남 큰 손’ 조춘자, 또 사기 행각…징역 7년 ‘무주 일가족 중독’ 합동감식 “보일러 연통, 그을음으로 막혀” [단독] 시중은행도 당했다… 신종 전세사기 일당 검거 14살 제자와 성관계 후 “진짜 사랑”… 전문가 “그냥 범죄” 박수홍, 父폭행 직후 녹화서 “제가 속병 전문가” 넉살 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 실시간 뉴스 의정부서 14~16일 ‘2022 아시아 모델 페스티벌’ 열려 경남도, 가을 행락 철 야영 장 인명 사고 예방 총력 올 무역적자 327억 달러…반도체·대중 수출 ‘먹구름’ 아시아엔 적수 없다… 韓펜싱 U-23 亞선수권 7연속 우승 이동환 고양시장 “일산, 신도시 선도지역 지정 조건 가장 좋아” 4조원대 인천e음 대행사 코나아이·신한·KT…3파전 치열 ‘지적장애인 살인·암매장’ 일당, 판결 불복해 항소 감사원 국감, “착하게 좀 살라” 말폭탄 속 9분만에 중지 스물네살 미드필더 음웨푸, 은퇴 선언… ‘유전성 심장 질환’이 원인 尹 “청년에 임대주택 줄 게 아니라 내 집 마련 도와야” 尹 “청년들이 미래 설계할 수 있도록 희망의 사다리 놔야” 민주 “여가부 폐지 대신 성평등가족부로 확대해야” 이재명, 여권 겨냥 “해방 후 친일파 행태와 다를 바 없다” 딤프, ‘K-뮤지컬’ 미국 OTT 통해 전 세계에 선보여 이예람 사건 녹취록 조작 의혹 변호사 “국민참여재판 받겠다”</t>
+  </si>
+  <si>
+    <t>제주도관광협회 아마추어 골프대회 개최 &lt; 관광 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도관광협회 아마추어 골프대회 개최 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 관광 제주도관광협회 아마추어 골프대회 개최 기자명 최병근 기자 입력 2016.06.09 14:13 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 도내 3개 골프장서…제주 우승자 김태한·박리영씨 [제주도민일보=최병근 기자] 제주도관광협회배 아마추어 친선골프대회가 열렸다.제주도와 제주특별자치도관광협회(회장 김영진)는 8일부터 9일까지 ‘2016 제주특별자치도관광협회장배 아마추어 친선골프대회’가 도내 3개 골프장에서 동시 개최됐다고 9일 밝혔다.이 대회는 고부가가치 레저스포츠 관광객 유치 활성화를 위해 매년 상.하반기 2회 개최되는 대회다. 제주 스프링데일CC, 라헨느CC, 우리들CC에서 국내‧외 430여명의 아마추어 골퍼들이 참가한 가운데 진행됐다. 도내 골프장업계의 어려운 현실을 고려, 골프장을 순환하며 개최했다.이번 행사는 내외국인 레저스포츠 관광객 유치를 위해 올해 초부터 관광상품으로 개발해 국내 지역 3개 제주관광홍보사무소를 중심으로 현장마케팅 활동을 전개했다. 특히 중국 해남성 골프팀을 유치하는 등 향후 중국인 골프관광 시장 확대의 교두보가 마련됐다는 평을 받고 있다.김영진 제주도관광협회 회장은 ”앞으로도 골프의 메카 제주의 골프장을 활용한 고부가가치 골프상품을 개발하여 골프관광객 유치에 어려움을 겪고 있는 도내 골프장의 매출증대를 유도하는 한편, 국내는 물론 중국 등 해외관광객 유치를 위하여 적극적인 마케팅 활동을 지속해 나갈 것” 이라고 밝혔다.하반기 대회는 11월에 열릴 예정이다. 최병근 기자 whiteworld84@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 곶자왈 테마 생태문화페스티벌 준비...생태관광 활성화 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 곶자왈 테마 생태문화페스티벌 준비...생태관광 활성화 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도, 곶자왈 테마 생태문화페스티벌 준비...생태관광 활성화 기자명 고병수 기자 입력 2016.06.09 17:57 수정 2016.06.09 18:37 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수 기자 = 제주특별자치도는 제주시 선흘 곶자왈, 조천읍 지역 곶자왈을 중심으로 하는 곶자왈 생태문화페스티벌을 올 하반기에 개최한다고 9일 밝혔다.특히 올해는 지역주민의 참여 속에 주민소득에 기여하는 곶자왈 소재 특화 프로그램을 마을별 연계 속에 추진한다.프로그램은 사전에 참가 접수를 받아 참여하는 관광객을 대상으로 하는 준비된 프로그램을 운영할 계획이다.또한 마을과 마을을 연결하는 프로그램으로 추진하며 마을별로 사업신청을 받아 심사를 거쳐 채택된 사업에 대해 추진한다. 이에 도는 올해부터 기본계획 수립하고 행사장소 선정 및 사업주체 선정을 위해 준비를 했으며, 지난 2일 환경정책위원회의 심의를 거쳐 선흘 등 조천읍 소재 곶자왈 마을을 중심으로 하여 (사)제주생태교육연구소에서 사업을 추진하는 것으로 확정했다.관계자는 "생태관광 전문가, 마을 주민 등과 유기적인 협조 속에 곶자왈 테마 생태문화페스티벌 프로그램을 운영해 곶자왈의 가치를 홍보하고 지역주민의 소득 창출에 기여할 것"이라고 했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 글로벌택시회, 보훈가족 관광 제공 &lt; 복지 &lt; 사회 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도 글로벌택시회, 보훈가족 관광 제공 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사회 복지 제주도 글로벌택시회, 보훈가족 관광 제공 기자명 이기봉 기자 입력 2016.06.03 10:31 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 [제주도민일보=이기봉 기자]  제주도 글로벌택시회(회장 부용석)는 호국보훈의 달을 맞아 지난 2일 보훈가족 40여명을 초청해 서커스 월드 공연 및 유람선 승선 체험 등 관광과 오찬을 제공했다.부용석 회장은 “이번 행사는 국가를 위해 헌신한 보훈가족을 위로하고 숭고한 나라사랑 정신을 기리기 위해 마련했다”며 “앞으로 글로벌택시회의 지속적인 재능기부를 통해 봉사와 나눔행사를 지속해 나가겠다”고 말했다. 이기봉 기자 daeun4680@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 2020년 크루즈관광 230만명 목표로 : 전국일반 : 전국 : 뉴스 : 한겨레 본문 바로가기 광고 전체메뉴보기 전체 정치 정치일반 대통령실 국회·정당 행정·자치 국방·북한 외교 정치BAR 사회 사회일반 여성 노동 환경 장애인 인권·복지 의료·건강 미디어 궂긴소식 인사 엔지오 교육 종교 한겨레아카이브 전국 전국일반 제주 호남 영남 충청 강원 수도권 경제 Weconomy 경제일반 금융·증권 산업·재계 자동차 부동산 쇼핑·소비자 IT 직장·취업 중기·스타트업 기업PR 글로벌워치 국제 국제일반 해외토픽 아시아·태평양 미국·중남미 유럽 중국 일본 중동·아프리카 국제기구·회의 국제경제 문화 문화일반 영화·애니 방송·연예 여행·여가 음악·공연·전시 학술 책&amp;생각 제주&amp; 스포츠 스포츠일반 축구·해외리그 야구·MLB 골프 바둑 올림픽 경기일정 경기결과 미래과학 미래 과학 기술 환경 시각 애니멀피플 야생동물 반려동물 농장동물 인간과동물 생태와진화 기후변화&amp; 기후정책 기후행동 기후과학 기후적응 에너지와기후 기후와사회 오피니언 사설 칼럼 왜냐면 포토에세이 옵스큐라 만화 | ESC | 한겨레S | 한겨레 데이터베이스 | 뉴스그래픽 | 연재 | 이슈 | 함께하는교육 | HERI 이슈 | 탐사보도 | 서울&amp; 스페셜 물바람숲 휴심정 미래 창 기찬몸 사진마을 베이비트리 기후이야기 포토 화보 포토스페셜 최신포토뉴스 카드뉴스 한겨레TV 편성표 한겨레TV 소개 알려드립니다 광고·후원 문의 전체 프로그램 뉴스서비스 많이본기사 날짜별한겨레 지난톱기사 디지털초판 RSS서비스 기사제보 기사투고 매거진 한겨레21 씨네21 이코노미인사이트 사업 한겨레휴센터 한겨레테마여행 한겨레패키지여행 전체메뉴닫기 오피니언 연재 한겨레TV 포토 EN 日本 中文 한겨레21 씨네21 이코노미인사이트 로그인 회원가입 구독신청 한겨레 세상을 바꾸는 벗 후원하기 서비스 메뉴 뉴스레터 감사원 ‘위법감사’ [포토] 감사원 국감 파행…자리 뜨는 김도읍 법사위원장 [단독] “대통령 지원기관”이라는 감사원장, 직원들 해명 요청 거부 감사원 국감, 10분 만에 파행…“감사방해!” “착하게 살라” 고성 오가 민주 “‘문자내통’ 캐겠다…이관섭·감사위원 전원 국감 나와야” 서해 사건 감사 위법성 논란, 법조계도 “직권남용·강요죄 소지”민주, ‘대감 게이트’ 공세…“권권유착 공수처가 수사하라”‘위법 감사·대통령실 직보’ 논란 최재해·유병호, 공수처에 고발돼박홍근 “대통령실 기획, 감사원 하청 ‘대감 게이트’…공수처 수사해야” 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 한겨레S “국가가 정한 말 아니면 틀렸다니” 표준어 없애는 거 어때요? 김정은의 마지막 친서에 등장한 두번의 ‘바보’ 스스로 ‘파묻은’ 윤 대통령, 제발 좀 정치 하는 걸 보고 싶다 ‘피부 안부’ 묻지 마세요…아토피안, 차별·몰이해를 말하다 아름다운 일과 먹고사는 일…감정노동·공짜노동 ‘살아내기’‘환경부=산업부 2중대’ 비아냥 왜?뒤집고 뒤집는 ‘김현숙 여가부’…다음주엔 뭘 뒤집을까울트라스텝, 그게 뭔데? ‘악의 근원’ 고물가를 잡아라 관련 이슈&amp;연재 뉴스AS북 핵실험·미사일 발사멈춰, 직장갑질 성한용의 정치 막전막후 여가부 없애는 정부 윤 대통령, 일제고사 부활 선언…“원하는 모든 학교 참여토록” [사설] 고조되는 민생·북핵 위기, 협치로 해법 찾으라 윤 대통령, ‘친일 논란’에 “핵 위협에 어떤 우려 정당화될 수 있나” ‘여가부 폐지’ 여성계 입장 들었다…‘반대 단체’는 빼고 외신들도 비판하는 여가부 폐지…“윤 대통령의 ‘여성 지우기’”윤 대통령 지지율 32%…‘매우 잘못 하고 있다’ 59.6% [리얼미터]‘윤석열차’ 애초 국힘이 시작…‘구둣발’ 부메랑까지 8개월이재명, 여가부 폐지 반대…민주 “이대남 결집, 정쟁 유발 의도” 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 책과 생각 비관주의자 김연수의 ‘변심’ “누군가를 기억할 때 바뀐다” 몸은 위태롭다…그래서 변화를 이끌 힘이 있다 나랏말싸미 일본과 다른데…일본어사전 베낀 국어사전, 괜찮나 우리에게 꼭 이름이 필요한가요 허구와 비허구의 교점에서 작가는 무엇을 발견했나당신의 뇌를 읽고 싶다‘균질적 단일언어’ 향해 달려온 우리말 형성사국제정치·외교안보 너머 ‘평화 다원주의’ 관련 이슈&amp;연재 짬황진미의 TV 새로고침정혜윤의 새벽세시 책읽기정인경의 과학 읽기 국민의힘 권력투쟁 이준석 털어낸 국힘 ‘당권경쟁’…이재명 견제·중도 확장 “내가 적임” 이준석, ‘이순신 출정사’ 언급하며 “탈당 말라”…창당 선긋기 안철수 잡는 김기현, 김기현 때리는 윤상현… 벌써 시작된 당권경쟁 이준석 “누구도 탈당 말라”…이순신 ‘정중여산’ 인용해 첫 입장 출마길도 막힐라…이준석 간다는 ‘외롭고 고독한 제 길’은 어디인가하태경 “이준석 윤리위 징계는 정치보복…가처분은 국민 기본권”고립무원 이준석…국힘 윤리위, ‘당원권 정지 1년’ 추가 징계이준석, 가처분 기각에 “더 외롭고 고독하게 제 길 가겠다” 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 미래&amp;과학 지구 감싼 피부는 “사람 피부보다 얇다”…경이로운 3겹의 층 누리호 기술 이전 우선협상 기업은 한화에어로스페이스 ‘지구방어’ 실험, 160m 소행성 충돌에…5만㎞ 먼지꼬리가 생겼다 야식 먹으면 낮에 더 배고프다…비만 부르는 3중 연결고리 달 남극 탐사, 미-중 경쟁…선점하면 기지 건설도 앞선다재난을 경험한 우리는 다른 사람이 된다, 강제로다음 팬데믹 주인공도 ‘변신의 귀재’ RNA 바이러스다돼지의 심장, 인쇄된 혈관이 장기 부족 해결할 수 있을까? 관련 이슈&amp;연재 곽노필의 미래창김준혁의 의학과 서사전치형 과학의 언저리박상준의 과거창 기후변화 오늘 ‘가을 추위’…모레 5도 “얼음 얼고 서리 내리는” 곳도 32만가구 전기·가스 지원 못 받는다…“윤 대통령 약속과 어긋나” 앞서기는커녕 떠넘기기 ‘환경부=산업부 2중대’ 비아냥 왜? 권성동, 4시간 만에 내놓은 해명 “‘혀 깨물고 죽지’, 내 의지 표현” ‘탈석탄법’ 5만명 입법 청원…“최소 신규 석탄발전 철회”‘원전 안전’ 시정 요구에도 8년째 그대로 왜?‘생태법인’을 아시나요?…제주 남방큰돌고래, 법적 권리 논의 시동‘탈석탄법’ 5만명 입법 청원…“최소 신규 석탄발전 철회” 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 광고 본문 광고 전국전국일반 제주도 2020년 크루즈관광 230만명 목표로 등록 :2016-06-01 23:07 페이스북 트위터 카카오 링크 스크랩 프린트 글씨 키우기 가 가 가 가 가 5개년 계획…410억 들여 기반구축 제주도가 1일 2020년 크루즈 관광객 230만명 유치를 목표로 하는 크루즈 산업 5개년 육성 종합계획을 발표했다. 도는 이를 위해 2020년까지 410억원의 예산을 들여 기항지 수용태세 강화와 크루즈 관광마케팅 활성화, 크루즈산업 기반 구축 등의 사업을 펼칠 계획이다. 도가 발표한 계획을 보면, 크루즈 항만 인프라 확충을 위해 현재의 제주외항 2개 크루즈선석(13만8천t, 8만5천t급)에서 내년에는 강정 민군복합형관광미항 2개 선석(1선석당 15만t급)을 확보하고, 2019년에는 제주외항에 1개 선석(10만t급)을 추가 확보해 모두 5개 선석을 운영할 계획이다. 도는 크루즈선의 입항 횟수와 제주도 방문 관광객 수가 올해 500회 100만명에서 2018년에는 750회 170만명으로 증가하고, 2020년에는 1천회 230만명으로 증가할 것으로 내다봤다. 도는 지난해 10월부터 크루즈터미널에서 입·출국 수속 업무를 진행하면서 크루즈선 이용객들의 불편을 초래하는 것과 관련해 입국과 출국 수속을 분리하기 위한 건물을 확장하고, 출국 때 여권 사본에 상륙 허가증을 부착하는 등 심사 제도를 개선하기로 했다. 크루즈 관광객 전용 애플리케이션 개발과 개별 관광객에 대한 정보 제공도 강화하고, 승무원들을 위한 시멘스클럽 시설 등도 갖출 계획이다. 이와 함께 내년 말 개항하는 민군복합형관광미항 크루즈선 유치를 위해 크루즈선사와 여행사를 대상으로 한 마케팅 활동을 동아시아 지역으로 확대하고, 아시아 크루즈 기항지들의 공동마케팅을 위해 중국 상하이·톈진, 일본 후쿠오카 등 제주를 포함한 크루즈 기항지 간 협력 체계를 구축할 계획이다. 허호준 기자 항상 시민과 함께하겠습니다. 한겨레 구독신청 하기 진실을 후원해주세요 용기를 가지고 끈질기게 기사를 쓰겠습니다. 여러분의 후원이 우리 사회에 드리운 어둠을 거둡니다. 후원하기 후원제 소개 두근거리는 미래를 후원해주세요 소외 없이 함께 행복한 세상을 위해 노력하겠습니다. 여러분의 후원이 평등하고 자유로운 사회를 만듭니다. 후원하기 후원제 소개 광고 광고 &gt;Please activate JavaScript for write a comment in LiveRe. 광고 전국 많이 보는 기사 1. ‘일가족 참사’ 화장실 기어간 큰딸만 목숨 건져…경찰, 현장 감식 2. ‘노모 생신’ 시골에 모였다가 일가족 5명 숨져…“일산화탄소 중독” 3. 은행잎만 노랗게 빛나도록 남아라, 열매는 10분 줄테니 가라 4. 무등산 정상 복원하려는데…군부대 주둔 전 사진이 없다 5. ‘신영복체 직인’ 폐기한 경기교육청…“훈민정음체가 잘 보여” 한겨레와 친구하기 매일 아침, 매주 목요일 낮 뉴스의 홍수에서 당신을 구할 친절한 뉴스레터를 만나보세요 데일리 H:730 구독 위클리 h_weekly 구독 한겨레 공식 인스타그램 Follow @hanitweet 전체기사RSSRSS페이지 목록 한겨레앱 1/ 2/ 3 서비스 전체보기 전체 정치 정치일반 대통령실 국회·정당 행정·자치 국방·북한 외교 정치BAR 사회 사회일반 여성 노동 환경 장애인 인권·복지 의료·건강 미디어 궂긴소식 인사 엔지오 교육 종교 한겨레아카이브 전국 전국일반 제주 호남 영남 충청 강원 수도권 경제 Weconomy 경제일반 금융·증권 산업·재계 자동차 부동산 쇼핑·소비자 IT 직장·취업 중기·스타트업 기업PR 글로벌워치 국제 국제일반 해외토픽 아시아·태평양 미국·중남미 유럽 중국 일본 중동·아프리카 국제기구·회의 국제경제 문화 문화일반 영화·애니 방송·연예 여행·여가 음악·공연·전시 학술 책&amp;생각 제주&amp; 스포츠 스포츠일반 축구·해외리그 야구·MLB 골프 바둑 올림픽 경기일정 경기결과 미래과학 미래 과학 기술 환경 시각 애니멀피플 야생동물 반려동물 농장동물 인간과동물 생태와진화 기후변화&amp; 기후정책 기후행동 기후과학 기후적응 에너지와기후 기후와사회 오피니언 사설 칼럼 왜냐면 포토에세이 옵스큐라 만화 | ESC | 한겨레S | 한겨레 데이터베이스 | 뉴스그래픽 | 연재 | 이슈 | 함께하는교육 | HERI 이슈 | 탐사보도 | 서울&amp; 스페셜 물바람숲 휴심정 미래 창 기찬몸 사진마을 베이비트리 기후이야기 포토 화보 포토스페셜 최신포토뉴스 카드뉴스 한겨레TV 편성표 한겨레TV 소개 알려드립니다 광고·후원 문의 전체 프로그램 뉴스서비스 많이본기사 날짜별한겨레 지난톱기사 디지털초판 RSS서비스 기사제보 기사투고 매거진 한겨레21 씨네21 이코노미인사이트 사업 한겨레휴센터 한겨레테마여행 한겨레패키지여행 회사소개 구독신청 광고안내 채용 기사제보 투고 고충처리 고객센터 face book twitter 사이트 운영 저작권 회원약관 개인정보취급방침 지적재산보호정책 이메일주소 무단수집거부 사이트맵 한겨레 가족 하니누리 한겨레출판 한겨레경제사회연구원 한겨레교육문화센터 한겨레통일문화재단 사람과디지털연구소 한겨레신문 등록번호:서울,아01705 등록일자:2011-7-19 사업자등록번호:105-81-50594 발행인:김현대 편집인:백기철 청소년보호책임자:백기철 주소:서울특별시 마포구 효창목길 6 고객센터:1566-9595 Copyright ⓒ The Hankyoreh. All rights reserved. 뉴스레터, 올해 가장 잘한 일 구독신청 일주일 그만보기 닫기</t>
+  </si>
+  <si>
+    <t>[제주도 관광 팁] 올레 1코스 지나 만나는 성산일출봉 맛집을 찾다 - 뉴스인사이드 × 전체기사 연예 전체 인터뷰 기획 방송 가요 영화 스포츠 경제 전체 가상화폐 환율인사이드 주식종합 정치 사회 생활 전체 잡인사이드 미세먼지 날씨뉴스 공연정보 물가정보 유가정보 게임 English 中國語 포토 영상 2022-10-11 12:10 (화) 모바일웹 검색버튼 기사검색 검색 전체 연예 전체 방송 가요 영화 기획 스포츠 경제 정치 사회 라이프 인터뷰 GOLF GOLMATE 페이스북 네이버 포스트 네이버 블로그 카카오스토리 카카오채널 유튜브 이전 다음 [제주도 관광 팁] 올레 1코스 지나 만나는 성산일출봉 맛집을 찾다 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 생활 [제주도 관광 팁] 올레 1코스 지나 만나는 성산일출봉 맛집을 찾다 승인 2016.06.01 15:56 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 해마다 제주도를 방문하는 외국인 여행객이 늘고 있다. 이에 중국인 관광객을 비롯한 방문객이 지속적인 증가세를 보이며 우리나라를 대표하는 관광명소이자 매력적인 여행지로 자리 잡았다.특히 먹방과 쿡방 등이 트렌드로 부상하며 제주도의 식도락에도 관심이 커졌다. 이 때문에 최근 한라봉을 비롯한 각종 과일뿐만 아니라 해산물과 토속 음식들을 찾는 관광객들이 많아졌다.제주도관광협회에 따르면 올해 제주도를 찾은 관광객 수는 벌써 약 500만명을 넘어섰으며 특히 내국인 관광객의 경우 전년 동기 대비 14.8%나 증가한 것으로 나타났다.제주의 한라산을 비롯한 성산일출봉, 섭지코지, 천지연폭포 등은 외국인들에게도 잘 알려지며 자연의 멋을 자랑하는 우리나라 대표 휴양지로 꼽힌다.그 중에서도 성산일출봉은 제주도 단일 관광지로는 최대 규모의 방문객이 다녀가는 명소로 약 7000년전 바닷가에 폭발해 만들어진 화산체로 에메랄드빛 바다와 자연의 푸름을 고스란히 간직한 초원까지 만끽할 수 있는 공간이다.특히 제주도의 다양한 관광명소 중 천연기념물 제 420호로 지정된 성산일출봉은 오름이 많은 제주도에서 해 뜨는 오름으로 불리우며 제주도의 아름다운 절경을 확인 할 수 있으며, 또한 빼놓을 수 없는 특산물 음식들이 다양해 관광객의 입맛까지 사로잡는다. 이 같은 성산일출봉 인근에서도 맛집을 찾을 수 있다. 여행객들에게 선호되는 식당으로는 ‘어멍이해녀식당’을 꼽을 수 있다.올레 1코스이기도 한 종달리 해안도로를 지나오다 보면 해녀들이 직접 잡아 올린 해산물의 풍미를 느낄 수 있는 성산일출봉맛집 어멍이해녀식당을 찾을 수 있다.어멍이해녀식당은 바로 앞에 우도가 보이고 성산일출봉도 눈으로 직접 볼 수 있는 풍경까지 더해져 제주 구좌읍 맛집으로도 소문난 식당이다. 또한 식당안에 미니어장을 따로 보유하고 있어 신선한 해산물을 맛볼 수 있다. 맛집탐방을 위해 제주도를 찾는 관광객이라면 제주도의 경치와 분위기를 만끽할 수 있는 성산일출봉의 맛집을 경험하며 제주도의 맛을 느껴보는 것은 어떨까? 김은혜 기자 모바일 보기 신문사소개 기사제보 광고문의 RSS 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 서울특별시 종로구 새문안로5길 13, 변호사회관빌딩 501-1호 대표전화 : 070-4639-1163 뉴스인사이드는 인터넷신문 위원회 윤리강령을 준수합니다. 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받으며, 무단전재, 복사, 배포 등을 금지 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 종로구 새문안로5길 13, 변호사회관빌딩 501-1호 대표전화 : 070-4639-1163 팩스 : 02-6455-7740 청소년보호책임자 : 김윤현 제호 : 뉴스인사이드 등록번호 : 서울 아 00380 등록일 : 2007-06-04 발행일 : 2007-02-01 발행인 : 천태영 편집인 : 천태영 편집국장 : 홍준성 부사장 : 조병권 뉴스인사이드는 인터넷신문 위원회 윤리강령을 준수합니다. 뉴스인사이드의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받으며, 무단전재, 복사, 배포 등을 금지합니다. Copyright © 2022 뉴스인사이드. All rights reserved. mail to news@newsinside.kr 위로</t>
+  </si>
+  <si>
+    <t>바다경관 바라보며 식사 즐기는 횟집, 제주도 관광객들 사로잡아 - 이투데이 속보창 구독신청 RSS 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 속보창 구독신청 RSS 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 이투데이 문화·라이프 여행 바다경관 바라보며 식사 즐기는 횟집, 제주도 관광객들 사로잡아 입력 2016-06-09 15:56 이슬기 기자																								sggggg@etoday.co.kr 북마크 되었습니다.마이페이지에서 확인하세요. 가장작게 작게 기본 크게 가장크게 천혜의 자연경관과 온화한 기후로 이국적 정취를 자랑하는 서귀포 중문관광단지는 사계절 내내 인기가 좋은 여행지다. 제주공항과 50분 거리인 이곳은 서귀포시 중문동에 위치한 종합관광단지로, 천지혜 폭포를 비롯해 여미지식물원, 해양수족관, 퍼시픽랜드 등 대표적인 관광지가 집약돼 있으며, 높이 50~60m의 해안절벽과 고운 모래를 자랑하는 중문해수욕장이 자리하고 있다.이 밖에도 해안 골프코스, 승마장 등 다양한 스포츠시설의 조성으로 제주도를 찾는 상당수의 관광객이 이곳을 방문하고 있으며, 중문관광단지를 중심으로 관광객을 수용할 호텔 및 콘도, 음식점이 구축되고 있다.그중 제주도횟집 ‘큰갯물’은 광활한 바다경관을 바라보며 식사를 즐길 수 있는 곳으로 사장이 낚시로 직접 잡은 활어회를 제공하고 있다. 전복요리, 고등어, 소라, 멍게, 초밥 등 싱싱한 회와 함께 차려지는 푸짐한 상차림은 이곳을 방문하는 여행객의 관광 전후 허기를 달래주고 있으며, 제주도 횟집 중에서도 맛과 전망이 뛰어난 곳이라는 평을 얻고 있다. 좋아요0 화나요0 슬퍼요0 추가취재 원해요0 주요 뉴스 단독 "하루 10번꼴로 늦어"…KTX·SRT, 5년간 2만번 넘게 열차 지연 SRT 2018년부터 1만 7172회 늦어 KTX, 16분 미만은 지연으로 불포함 선로관리 미흡 등으로 열차 지연돼 유경준 의원 "철저한 관리 필요해" 서울 강남구에서 세종으로 출퇴근하는 공무원 전 모 씨는 고속열차를 이용하기 위해 수서역으로 향했다. 수서역에서 오송역에 내리자마자 출근 버스를 타야 하기에 시간에 맞춰 열차를 예매했지만, SRT가 단독 한전 발전자회사, 불시정지로 80억원 증발…"관리 부실" 73.6일간 정지…총 232건 발생 불시정지, 경영평가 항목 포함 서부발전 피해액만 33억원가량 엄태영 의원 "최대한 예방 必" 한국전력공사의 발전자회사 5곳이 지난 5년간 발전소 불시정지 사고로 78억 원가량 손해를 본 것으로 나타났다. 인적 과실로 인한 피해도 12건이나 발생했다. 이에 사전 점검 등 더 철저한 발전소 관리가 필요하다는 지적 일본, 오늘부터 한국인 무비자 관광 허용…2년 7개월만 일본 정부는 11일부터 한국 등 68개 국가·지역을 대상으로 무비자(사증 면제) 일본 입국을 다시 허용한다. 이에 따라 한국인도 비자 없이 관광, 친족 방문, 견학, 시찰, 단기 상용(商用) 등의 목적으로 최대 90일간 일본에 머물 수 있게 됐다. 한국인에 대한 무비자 입국을 재개하는 것은 약 2년 7개월 만이다. 일본 정부는 2020년 3월 9일부터 오늘부터 개량백신 접종 개시…60세 미만은 잔여백신 신청 가능 11일부터 오미크론 변이에 대응하는 코로나19 개량백신 접종이 시작된다. 개량백신은 기존 백신보다 1.6배 이상 효과를 내는 것으로 알려졌다. 코로나19 예방접종추진단에 따르면 이날부터 모더나가 개발한 오미크론 BA.1 변이 기반 2가 백신을 활용한 동절기 코로나19 추가접종이 개시된다. 이번 접종에 활용되는 개량백신은 코로나19 바이러스 바이오기업 IPO 4분기 대목이라더니…찬바람 ‘쌩쌩’ 바이오 기업공개(IPO) 시장에 칼바람이 매섭다. 올해 상장한 기업들의 주가가 맥을 못 추는 것은 물론 수요예측 참패까지 이어지면서 IPO를 앞둔 기업들이 난색을 보이고 있다. 10일 본지 취재에 따르면 올해 국내 증시에 상장한 바이오기업 8곳 가운데 7곳은 공모가 대비 수익률이 마이너스(-)를 기록하고 있다. 특히 상반기 상장 기업들의 수 올 들어 가장 추운 출근길…내일도 5도로 ‘쌀쌀’ 11일 아침 최저기온이 3도에 이르는 등 출근길 추운 날씨가 예상된다. 북서쪽에서 내려온 차가운 공기로 인해 이날 대부분의 지역 아침 기온이 5도 내외까지 떨어졌다.올 가을 들어 가장 추운 날씨다. 지역별 아침 최저기온은 △서울 7도 △인천 7도 △대전 8도 △광주 12도 △대구 11도 △울산 11도 △ 부산 11도 등이다. 낮 기온은 16~21도까지 오르 러, '러시아워' 노려 우크라 도시 공습…사상자 속출 러, 12개 주요 도시 미사일 공습 단행 사망자 최소 14명...계속 늘어나고 있어 러시아가 우크라이나 수도 키이우를 비롯해 주요 12개 도시에 대대적인 미사일 공습을 감행해 사망자가 최소 14명 발생했다. 10일(현지시간) 뉴욕타임스(NYT) 등에 따르면 러시아는 이날 오전 수도 키이우를 포함해 리비우, 하르키우 등 최소 12개 도시에서 84발에 노벨 경제학상에 ‘은행ㆍ금융위기 연구’ 버냉키ㆍ다이아몬드ㆍ딥비그 스웨덴 왕립과학원 노벨위원회는 10일(현지시간) 올해의 노벨 경제학상 수상자로 벤 버냉키와 더글러스 다이아몬드, 필립 딥비그를 선정했다고 발표했다. 노벨위원회는 “세 사람은 ‘은행과 금융위기에 대한 연구’에 대한 공로로 수상하게 됐다”고 밝혔다. 이어 “이들은 특히 금융위기 동안 경제에서 은행의 역할에 대한 우리의 이해도를 크게 향 많이 본 뉴스 01 전장연, 지하철 4호선 출근길 시위…“지연 우려” 02 선우은숙, 4살 연하 유영재 아나운서와 결혼…“혼인신고 마쳐” 03 [오늘의 증시] 래몽래인·코아스템·켐온·비케이탑스 등 04 바이오기업 IPO 4분기 대목이라더니…찬바람 ‘쌩쌩’ 05 신화 신혜성, 음주측정 거부해 현행범 체포…차량은 도난 의심 06 단독 한전 발전자회사, 불시정지로 80억원 증발…"관리 부실" 07 단독 "하루 10번꼴로 늦어"…KTX·SRT, 5년간 2만번 넘게 열차 지연 08 [Bit코인] 리플 주도 상승세 꺾여…“비트코인, 변동성 폭발·하락 경고” 09 GS25, ‘박재범 원소주’ 이어 ‘버터맥주’도 완판 행진 10 ‘LG 마무리 투수’ 고우석, 이종범 사위 된다…절친 이정후 매제 최신 영상 ‘무소음 이동’이 가능한 미국의 차세대 전차 ‘에이브럼스 X’ 공개 // 이투데이TV 문화·라이프 최신 뉴스 ‘결혼 6년차’ 오상진·김소영, ‘동상이몽2’ 합류…똑 닮은 4살 딸 최초 공개 선우은숙, 4살 연하 유영재 아나운서와 결혼…“혼인신고 마쳐” MLB, 한국 유소년 발전 장학금 전달 ‘결혼지옥’ 외도 2번 저지른 79세 남편…“내연녀, 우수한 대학 성적 보기 좋더라” ‘LG 마무리 투수’ 고우석, 이종범 사위 된다…절친 이정후 매제 PGA 2승 김주형, 세계랭킹 15위로 ‘껑충’ "여자나 남자나 카메라는 똑같이 무겁다"...여성 촬영감독이 말하는 책임감 [종합] 20세 김주형 PGA 2승… ‘골프황제’ 우즈도 넘었다 송강호·예지원 프랑스 ‘에투알 뒤 시네마’ 수상 20세 김주형 2승, 골프황제 우즈도 넘어섰다 뉴스발전소 [인포그래픽] 비 오는 한글날, 태극기 다는 법 내가 저장한 뉴스 모아보기 내가 구독한 기자 전체보기 한 컷 [포토] '북적이는 2022 한국제약바이오 채용박람회' 마켓 뉴스 특징주 투자전략 삼성바이오로직스, 3분기 역대 최대 실적 전망에도 약세 현대차·기아, 'UBS' 자동차 등급 하향에 4% 넘게 '동반 급락' SK하이닉스, 美 대중 반도체 수출규제에 약세 크래프톤, 증권가 목표가 하향에 6%↓ 카카오게임즈, 펄어비스 52주 신저가 기록 “LG화학, 양극재 판매량 증가로 매출액, 영업익 모두 개선...목표가 7% 상향” “IT, 기대감이 주가 견인…추가 상승 모멘텀 ‘글쎄’” 메리츠증권 “불확실성 여전…10~11월 변동성 확대 구간” “LG생활건강, '위안화 약세'로 따이공 구매력 하락'에 3분기 영업익 부진...목표가 9% 하향” “삼성전자, 2019년 1분기와 비슷…단기 반등 가능” 오늘의 상승종목 10.11 11:55 20분지연 코스피 코스닥 1.다이나믹디자인 3,200 2.화천기계 1,450 3.베트남개발1 73 4.유니온머티리얼 350 5.STX 315 1.테라셈 22 2.코아스템 2,680 3.동국알앤에스 780 4.코디엠 124 5.SCI평가정보 725 실시간 암호화폐 시세 종목 현재가(원) 변동률 비트코인 27,380,000 -1.49% 이더리움 1,838,000 -2.75% 비트코인 캐시 159,100 -5.24% 리플 710.7 -6.18% 위믹스 2,407 -5.35% 에이다 567.6 -6.35% 이오스 1,486 -7.53% 트론 88.63 -0.55% 스텔라루멘 176.9 -3.12% 비트코인에스브이 67,900 -3.89% 체인링크 10,390 -5.11% 샌드박스 1,132 -5.51% * 24시간 변동률 기준 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 패밀리사이트 Channel5 브라보마이라이프 바이오스펙테이터 회사소개 이용약관 개인정보처리방침 청소년보호정책 광고 및 제휴 구독신청 고충처리 RSS 사이트맵 (주)이투데이 (제호 : 이투데이) ㅣ 서울시 강남구 강남대로 556 이투데이빌딩 ㅣ ☎ 02) 799-2600 등록번호 : 서울아02868 ㅣ 등록일자 : 2013.11.07 ㅣ 발행일자 : 2006.04.27 ㅣ 발행인 : 김상우 ㅣ 편집인 : 김덕헌 ㅣ 청소년보호책임자 : 박성호 이투데이의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재 및 수집, 복사, 배포 등을 금지합니다. Copyright(c) (주)이투데이. All rights reserved. ㅣ 보도자료 및 기사제보 press@etoday.co.kr 이투데이 임직원은 모두의 의견을 모아 언론 윤리강령, 기자윤리강령, 임직원 윤리강령 및 실천규정을 제정, 준수하고 있습니다.한국기자협회와 인터넷신문위원회 윤리강령 및 실천요강도 준수합니다. 「열린보도원칙」당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.</t>
+  </si>
+  <si>
+    <t>[퇴근뉴스] ‘반 총장, 미국 복귀’, ‘해외 관광객 유치 빨간불’, ‘제주도 인구 증가’, ‘슈틸리케호 스페인과 격돌’ [시선뉴스] - 시선뉴스 × 전체기사 시사 전체 시사·교양 카드뉴스 박진아의 인사이드쇼 나는 정치인이다 시선만평 생활법률 오늘의 한마디 정책브리핑 타임즈(개편중) 지식‧교양 전체 TV지식용어 무비 레시피 레슨업 자동차의 모든것 맘마노트 TV스캔들(개편중) 지식·정보 전체 지식의 창 육아·건강프라임 따뜻한 말 한마디 웹툰뉴스 실종아동찾기 뷰티패션 인포그래픽 전체 사회·문화 엔터테인먼트 날씨 다큐멘터리 전체 시선 인터뷰 역사 기억 [memory, 記憶] 스토리오브코리아 뉴스 전체 이슈돋보기 대중문화 HOT키워드 상상마당 라이프 전체 건강·음식 인테리어 패션·뷰티 육아 자동차 여행·관광 360VR e-biz 애니멀 전체 신비한 동물사전 반려동물농장 애니멀TV 산업 전체 일반(기업) 소상공인 에듀 지역/행사 문화/관광 바이오/헬스케어 취업/채용 뷰티/패션 생활 아임반 x 네이버 쇼핑 페스타 행사 진행 메이튼, 쌍용 토레스 실내 편의 용품 콘솔 트레이 990원 이벤트 진행 (사)동물보호단체 헬프애니멀, 제3회 길고양이 중성화사업 TNR시 치료지원 사업 진행 PGA TOUR &amp; LPGA 골프웨어, 2022 F/W 런칭 행사 ‘PRIVATE SOCIAL PARTY’ 마무리 이포넷, 번역 서비스 분야 국제 표준 ISO 재인증 심사 통과 코바(KOVA), 범죄 없는 따뜻한 세상 위한 ‘2022 KOVA 범국민 캠페인’ 개최 [카드뉴스] 맛있는 것이 끌리는데...탄수화물은 정말 체중감량에 독이 될까? 2022년 10월 둘째 주 육아 관련 정책 [육아 정책브리핑] 다시 공격받은 우크라 키이우, 출근길 도심 곳곳 불바다에 유혈 낭자 [글로벌이야기] 비타공방, 아토 비타민D 드롭 4,000IU 국내출시 음주측정 거부 신혜성, 혐의 인정하고 사과... “모든 분께 너무 죄송하다” 킥고잉, 자전거 출시 효과 톡톡... 신규 가입자 30% 증가 서울 잠원동서 50대 남성 권총에 맞아 병원 이송... 극단적 선택 추정 外 [오늘의 주요뉴스] 구전녹용, 녹용과 석류가 달여진 ‘구전녹용 정경부인’ 11일 재출시 쌍용C&amp;B, ‘코디 아트앤 포켓몬’ 휴대용 물티슈 출시 네이버TV 카카오TV 유튜브 네이버 포스트 facebook twitter kakao story 로그인 회원가입 모바일웹 시사 시사·교양 카드뉴스 박진아의 인사이드쇼 나는 정치인이다 시선만평 생활법률 오늘의 한마디 정책브리핑 지식‧교양 TV지식용어 무비 레시피 레슨업 자동차의 모든것 맘마노트 지식·정보 지식의 창 육아·건강프라임 따뜻한 말 한마디 웹툰뉴스 실종아동찾기 뷰티패션 인포그래픽 사회·문화 엔터테인먼트 날씨 애니멀 신비한 동물사전 반려동물농장 애니멀TV 다큐멘터리 시선 인터뷰 키워드 한국사 기억 [memory, 記憶] 스토리오브코리아 뉴스 이슈돋보기 대중문화 산업 일반(기업) 소상공인 에듀 지역/행사 문화/관광 바이오/헬스케어 취업/채용 뷰티/패션 생활 기사검색 검색 이전 다음 [퇴근뉴스] ‘반 총장, 미국 복귀’, ‘해외 관광객 유치 빨간불’, ‘제주도 인구 증가’, ‘슈틸리케호 스페인과 격돌’ [시선뉴스] 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 시사 시사·교양 [퇴근뉴스] ‘반 총장, 미국 복귀’, ‘해외 관광객 유치 빨간불’, ‘제주도 인구 증가’, ‘슈틸리케호 스페인과 격돌’ [시선뉴스] 보도본부 | 한성현 PD 승인 2016.06.01 18:58 댓글 0 글씨키우기 글씨줄이기 메일보내기 인쇄하기 페이스북 트위터 구글 카카오스토리 블로그 기사공유하기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × [시선뉴스] 6월 1일 수요일의 기분 좋은 퇴근길, 오늘의 이슈를 전하는 퇴근뉴스입니다.1. 반기문 UN사무총장 미국으로 복귀반기문 UN사무총장이 6일간의 일정을 마치고 지난 30일 출국했습니다. 반 총장은 출국 전 마지막 공식 행사인 제 66차 유엔 NGO 컨퍼런스에 참석해 자신의 방한 일정은 정치적 행보와 무관하다며, 과대 해석과 추측을 자제해달라고 말했습니다. ▲ (출처/ 위키피디아, 픽사베이, 한국축구협회 공식 홈페이지) 2. ‘우리나라 해외 관광객 유치, 빨간불’ 지난해 우리나라 해외 관광객 유치 실적이 일본에 추월당한 것으로 나타났습니다. 전국경제인연합회에 따르면 2014년 우리나라를 찾은 해외 관광객은 천3백만 명 정도로, 천9백만 명 정도인 일본에 비해 600만 명 정도 적었습니다. 이에 전문가들은 쇼핑 위주의 관광에서 벗어나 새로운 관광객 유치 전략이 필요하다고 지적했습니다.3. 제주도 인구, 65만 명 돌파 제주도로 전입하는 인구가 크게 늘면서 제주도 인구가 65만 명을 돌파했습니다. 다른 시·도에서 제주도로 전입 온 인구는 올해 1월부터 4월까지 5천 7백여 명으로 지난해 같은 기간보다 35% 증가했습니다.4. 슈틸리케호, 오늘 저녁 스페인과 격돌슈틸리케가 이끄는 한국대표팀이 오늘 밤 11시 30분 스페인과의 평가전에 나섭니다. 한국대표팀은 최근 7경기 연속 무실점 승리행진을 이어가고 있어 스페인과의 경기에서도 강한 자신감을 보이고 있는데요. 무적함대라 불리는 스페인을 상대로 슈틸리케호가 계속해서 무실점을 이어나갈 수 있을지 기대가 모아지고 있습니다.호국보훈의 달인 6월이 시작됐습니다. 6월 1일인 오늘은 의병의 날이기도 한데요. 지금의 우리가 있기까지 나라를 지키기 위해 많은 분들의 희생과 노력이 있었음에 감사함을 느끼며 하루를 마무리 하는 것은 어떨까요. 즐거운 퇴근길 되시기 바랍니다. 시선뉴스 이승재였습니다. 저작권자 © 시선뉴스 무단전재 및 재배포 금지 보도자료 발송 및 기사제휴 ▶ sisunnews@sisunnews.co.kr 문의 ▶ 02-838-5150 연예·스포츠 인기뉴스 음주측정 거부 신혜성, 혐의 인정하고 사과... “모든 분께 너무 죄송하다” 음주측정 거부 신혜성, 혐의 인정하고 사과... “모든 분께 너무 죄송하다” 혼밥 어플 ‘홀로’ 대표 서은호(학생서씨), 디지털 싱글 앨범 4집 ‘쏘 스윗 유어 나이트’ 발매 예고 혼밥 어플 ‘홀로’ 대표 서은호(학생서씨), 디지털 싱글 앨범 4집 ‘쏘 스윗 유어 나이트’ 발매 예고 싱어송라이터 제이플라(J.Fla), ‘Bedroom Singer’ 발매 싱어송라이터 제이플라(J.Fla), ‘Bedroom Singer’ 발매 비-조정석, 여성 골퍼와 난데없는 불륜설에 대해 분노... “허위 사실 법적대응할 것” 비-조정석, 여성 골퍼와 난데없는 불륜설에 대해 분노... “허위 사실 법적대응할 것” [카드뉴스] 맛있는 것이 끌리는데...탄수화물은 정말 체중감량에 독이 될까? [카드뉴스] 맛있는 것이 끌리는데...탄수화물은 정말 체중감량에 독이 될까? 다시 공격받은 우크라 키이우, 출근길 도심 곳곳 불바다에 유혈 낭자 [글로벌이야기] 서울 잠원동서 50대 남성 권총에 맞아 병원 이송... 극단적 선택 추정 外 [오늘의 주요뉴스] [카드뉴스] 10월부터 전기요금 인상, 물가 비상에도 요금을 왜 인상해야 할까? 시사상식 노트7 [2022년 10월 둘째 주_시선뉴스] 오늘의 주요뉴스 기사더보기 &gt; 한성현 PD bow8410@sisunnews.co.kr [꿀잼유아미술] 쥬스, 잼 등 다양하게 먹을 수 있는 ‘포도’그리기 ... [세컷TV] ‘하태핫태’ 이번 주 TV속 장면 ‘본격연예 한밤’, ‘... [SN여행] 스릴만점! 서울 전경을 한 눈에 담을 수 있는 ‘서울 스... 오늘 이 영화 어때요? 1 [뮤지컬평점] 애절한 러브스토리, 원작의 재미와 감동이 무대로 옮겨간 '사랑의 불시착' [뮤지컬평점] 애절한 러브스토리, 원작의 재미와 감동이 무대로 옮겨간 '사랑의 불시착' 2 [무비레시피] 디즈니+ 확정된 ‘토르: 러브 앤 썬더’, 역대급 빌런 탄생 [무비레시피] 디즈니+ 확정된 ‘토르: 러브 앤 썬더’, 역대급 빌런 탄생 1 [무비레시피] 극장가 8월 최고 흥행작, 영화 ‘한산: 용의 출현’ [무비레시피] 극장가 8월 최고 흥행작, 영화 ‘한산: 용의 출현’ 2 [뮤지컬평점] 공고히 쌓아 올린 10주년의 명성, 뮤지컬 ‘엘리자벳’ [뮤지컬평점] 공고히 쌓아 올린 10주년의 명성, 뮤지컬 ‘엘리자벳’ 관련기사 [카드뉴스] 나는 지금 위험에 빠져 있습니다, 도와주세요! [시선뉴스] 손톱깎이는 언제부터 사용된 것일까? [TV지식용어] 사회적 병폐가 되어버린 관행, 전관예우 [지식용어] 많이 본 뉴스 종합 시사 1[정책브리핑] 2022년 10월 10일 월요일 주요 정책 2[오늘의 사자성어] 피갈회옥[被褐懷玉] 3[10년 전 오늘] 검찰, 프로포폴 판매-투약자 무더기 체포...전면 수사에 나서 4車 주요뉴스, 휘발유 30.7원·경유 18.6원↓ - 무면허 렌터카 사고 - '타다' 대법서 최종 판단 [모터그램] 5이번 주 별자리운세 '10월 10일~10월 16일' [인포그래픽] 6[뮤지컬평점] 애절한 러브스토리, 원작의 재미와 감동이 무대로 옮겨간 '사랑의 불시착' 7앱 개발자들의 수익과 직결되는 ‘인앱 결제’, 애플 가격 인상 내걸어 [지식용어] 82022년 10월 10일, 오늘의 띠별 운세 [인포그래픽] 910월 10일 월요일, 오늘의 날씨와 미세먼지 농도 [인포그래픽] 10[시선★피플] 어느 하나 허투루 하지 않는, 유쾌한 웃음-저세상 텐션 '막가리' 김영철 1[카드뉴스] 맛있는 것이 끌리는데...탄수화물은 정말 체중감량에 독이 될까? 2다시 공격받은 우크라 키이우, 출근길 도심 곳곳 불바다에 유혈 낭자 [글로벌이야기] 3서울 잠원동서 50대 남성 권총에 맞아 병원 이송... 극단적 선택 추정 外 [오늘의 주요뉴스] 4[정책브리핑] 2022년 10월 11일 화요일 주요 정책 5[오늘의 사자성어] 한신포복[韓信匍匐] 6[카드뉴스] 10월부터 전기요금 인상, 물가 비상에도 요금을 왜 인상해야 할까? 7[정책브리핑] 2022년 10월 10일 월요일 주요 정책 8[오늘의 사자성어] 피갈회옥[被褐懷玉] 9시사상식 노트7 [2022년 10월 둘째 주_시선뉴스] 102022년 10월 둘째 주 동물 관련 정책 CHECK! [정책브리핑, 동물] 스타 인터뷰 [시선★피플] 어느 하나 허투루 하지 않는, 유쾌한 웃음-저세상 텐션 '막가리' 김영철 [시선★피플] 어느 하나 허투루 하지 않는, 유쾌한 웃음-저세상 텐션 '막가리' 김영철 [어바웃 슈퍼리치] 헝지그룹 회장, 홍콩의 워런 버핏 '리자오지' 은퇴로 4대 부호 막 내려 [어바웃 슈퍼리치] 헝지그룹 회장, 홍콩의 워런 버핏 '리자오지' 은퇴로 4대 부호 막 내려 [시선★피플] 영화 ‘인생은 아름다워’ 염정아, 뮤지컬 영화에서도 빛나는 연기력 [시선★피플] 영화 ‘인생은 아름다워’ 염정아, 뮤지컬 영화에서도 빛나는 연기력 [어바웃 슈퍼리치] 유튜브 CEO 수잔 워치스키, ‘틱톡’ 잡기 위한 전략은? [어바웃 슈퍼리치] 유튜브 CEO 수잔 워치스키, ‘틱톡’ 잡기 위한 전략은? [시선★피플] 지금까지는 본 적 없는... '늑대사냥'으로 돌아온 서인국 [시선★피플] 지금까지는 본 적 없는... '늑대사냥'으로 돌아온 서인국 [어바웃 슈퍼리치] 근검절약 실천하는 부호, 멕시코 통신 재벌 텔멕스 '카를로스 슬림' [어바웃 슈퍼리치] 근검절약 실천하는 부호, 멕시코 통신 재벌 텔멕스 '카를로스 슬림' 신문방송사소개 인사말 연혁 등록인증 윤리강령 저작권규약 광고·제휴 제공제휴사 개인정보취급방침 이메일무단수집거부 찾아오시는길 청소년보호정책 서울특별시 구로구 디지털로31길 20 (구로동) 에이스테크노타워 5차 1008호 편집인 : 박진아 발행인 : 김정우 청소년보호책임자 : 박진아 등록일 : 2012.08.01 인터넷신문 등록번호 : 서울 아03964 이메일 : sisunnews@sisunnews.co.kr 사업자번호 : 130-86-88882 대표전화 : 02-838-5150 팩스 : 02-851-2908 Copyright © 2022 시선뉴스. All rights reserved. 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 위로</t>
   </si>
 </sst>
 </file>
@@ -431,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,7 +588,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -463,9 +598,6 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
@@ -475,7 +607,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -485,9 +617,6 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
@@ -497,7 +626,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -508,7 +637,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -519,7 +648,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -530,7 +659,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -541,7 +670,328 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
         <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
